--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -14,14 +14,14 @@
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$O$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$O$139</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="389">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1219,6 +1219,15 @@
   </si>
   <si>
     <t>pass</t>
+  </si>
+  <si>
+    <t>uihelp</t>
+  </si>
+  <si>
+    <t>favicon.ico</t>
+  </si>
+  <si>
+    <t>FavIcon file</t>
   </si>
 </sst>
 </file>
@@ -1575,20 +1584,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O138"/>
+  <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="555" activePane="bottomLeft"/>
-      <selection activeCell="D1" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="5" width="10" customWidth="1"/>
-    <col min="6" max="7" width="43.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="5" width="10" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" customWidth="1"/>
     <col min="8" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="36" customWidth="1"/>
     <col min="15" max="15" width="48" customWidth="1"/>
@@ -1652,7 +1659,7 @@
         <v>294</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1664,7 +1671,9 @@
       <c r="O2"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1692,7 +1701,9 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1754,7 +1765,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B6" t="s">
         <v>243</v>
@@ -2025,6 +2036,9 @@
       </c>
       <c r="C17" t="s">
         <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="I17" s="1"/>
     </row>
@@ -2287,6 +2301,9 @@
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B28" s="1" t="s">
         <v>190</v>
       </c>
@@ -2500,6 +2517,9 @@
       <c r="O35"/>
     </row>
     <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B36" s="1" t="s">
         <v>119</v>
       </c>
@@ -2534,7 +2554,7 @@
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B37" t="s">
         <v>191</v>
@@ -2549,7 +2569,7 @@
         <v>204</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I37" s="1" t="str">
         <f>VLOOKUP(B37,Profiled!A$1:A$98,1,FALSE)</f>
@@ -2564,20 +2584,18 @@
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="B38" t="s">
-        <v>275</v>
-      </c>
-      <c r="C38" t="s">
-        <v>223</v>
+        <v>355</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D38"/>
-      <c r="E38" t="s">
-        <v>242</v>
-      </c>
-      <c r="F38" t="s">
-        <v>279</v>
+      <c r="E38"/>
+      <c r="F38" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>222</v>
@@ -2593,44 +2611,42 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B39" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1" t="s">
-        <v>240</v>
+        <v>223</v>
+      </c>
+      <c r="E39" t="s">
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40" t="s">
-        <v>242</v>
+        <v>31</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="F40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H40"/>
       <c r="I40"/>
@@ -2643,22 +2659,22 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B41" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2666,17 +2682,17 @@
         <v>370</v>
       </c>
       <c r="B42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
       </c>
       <c r="D42"/>
       <c r="E42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>219</v>
@@ -2695,7 +2711,7 @@
         <v>370</v>
       </c>
       <c r="B43" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -2705,7 +2721,7 @@
         <v>242</v>
       </c>
       <c r="F43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>219</v>
@@ -2724,7 +2740,7 @@
         <v>370</v>
       </c>
       <c r="B44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -2734,10 +2750,10 @@
         <v>242</v>
       </c>
       <c r="F44" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H44"/>
       <c r="I44"/>
@@ -2750,23 +2766,23 @@
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="C45" t="s">
-        <v>325</v>
+        <v>29</v>
       </c>
       <c r="D45"/>
-      <c r="E45" s="1" t="s">
-        <v>239</v>
+      <c r="E45" t="s">
+        <v>242</v>
       </c>
       <c r="F45" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H45"/>
       <c r="I45"/>
@@ -2779,36 +2795,31 @@
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>368</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
       <c r="D46"/>
-      <c r="E46" t="s">
-        <v>241</v>
+      <c r="E46" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F46" t="s">
-        <v>41</v>
+        <v>326</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>222</v>
       </c>
       <c r="H46"/>
-      <c r="I46" s="1" t="str">
-        <f>VLOOKUP(B46,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>image.php</v>
-      </c>
+      <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
-      <c r="N46" t="s">
-        <v>183</v>
-      </c>
+      <c r="N46"/>
       <c r="O46"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -2816,22 +2827,23 @@
         <v>384</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>271</v>
+      <c r="I47" s="1" t="str">
+        <f>VLOOKUP(B47,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>image.php</v>
       </c>
       <c r="N47" t="s">
         <v>183</v>
@@ -2842,7 +2854,7 @@
         <v>384</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -2851,17 +2863,16 @@
         <v>242</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I48" s="1" t="str">
-        <f>VLOOKUP(B48,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>image_delete.php</v>
+        <v>222</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="N48" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -2869,7 +2880,7 @@
         <v>384</v>
       </c>
       <c r="B49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -2878,14 +2889,14 @@
         <v>242</v>
       </c>
       <c r="F49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I49" s="1" t="str">
         <f>VLOOKUP(B49,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>image_get.php</v>
+        <v>image_delete.php</v>
       </c>
       <c r="N49" t="s">
         <v>188</v>
@@ -2896,7 +2907,7 @@
         <v>384</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -2906,15 +2917,15 @@
         <v>242</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H50"/>
       <c r="I50" s="1" t="str">
         <f>VLOOKUP(B50,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>image_patch.php</v>
+        <v>image_get.php</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -2930,7 +2941,7 @@
         <v>384</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -2939,14 +2950,14 @@
         <v>242</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>221</v>
       </c>
       <c r="I51" s="1" t="str">
         <f>VLOOKUP(B51,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>image_post.php</v>
+        <v>image_patch.php</v>
       </c>
       <c r="N51" t="s">
         <v>188</v>
@@ -2957,7 +2968,7 @@
         <v>384</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -2967,7 +2978,7 @@
         <v>242</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>221</v>
@@ -2975,7 +2986,7 @@
       <c r="H52"/>
       <c r="I52" s="1" t="str">
         <f>VLOOKUP(B52,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>image_put.php</v>
+        <v>image_post.php</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -2988,35 +2999,51 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s">
-        <v>357</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>242</v>
+      </c>
+      <c r="F53" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f>VLOOKUP(B53,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>image_put.php</v>
+      </c>
+      <c r="N53" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="B54" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="C54" t="s">
-        <v>29</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="I54" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>370</v>
       </c>
       <c r="B55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" t="s">
         <v>29</v>
@@ -3029,7 +3056,7 @@
         <v>370</v>
       </c>
       <c r="B56" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" t="s">
         <v>29</v>
@@ -3042,7 +3069,7 @@
         <v>370</v>
       </c>
       <c r="B57" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -3052,95 +3079,82 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B58" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="C58" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="G58" s="1"/>
+      <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="B59" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C59" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="G59" t="s">
-        <v>222</v>
-      </c>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J59" s="1"/>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E60" t="s">
-        <v>241</v>
-      </c>
-      <c r="F60" t="s">
-        <v>49</v>
-      </c>
-      <c r="G60" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G60" t="s">
         <v>222</v>
       </c>
-      <c r="I60" s="1" t="str">
-        <f>VLOOKUP(B60,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>patient.php</v>
-      </c>
-      <c r="N60" t="s">
-        <v>184</v>
-      </c>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>370</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>271</v>
+      <c r="I61" s="1" t="str">
+        <f>VLOOKUP(B61,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>patient.php</v>
       </c>
       <c r="N61" t="s">
         <v>184</v>
@@ -3151,7 +3165,7 @@
         <v>370</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -3161,22 +3175,21 @@
         <v>242</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H62"/>
-      <c r="I62" s="1" t="str">
-        <f>VLOOKUP(B62,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>patient_delete.php</v>
+      <c r="I62" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="O62"/>
     </row>
@@ -3185,7 +3198,7 @@
         <v>370</v>
       </c>
       <c r="B63" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -3194,14 +3207,14 @@
         <v>242</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I63" s="1" t="str">
         <f>VLOOKUP(B63,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>patient_get.php</v>
+        <v>patient_delete.php</v>
       </c>
       <c r="N63" t="s">
         <v>188</v>
@@ -3212,7 +3225,7 @@
         <v>370</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -3222,15 +3235,15 @@
         <v>242</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H64"/>
       <c r="I64" s="1" t="str">
         <f>VLOOKUP(B64,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>patient_patch.php</v>
+        <v>patient_get.php</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -3246,7 +3259,7 @@
         <v>370</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
         <v>29</v>
@@ -3255,14 +3268,14 @@
         <v>242</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>221</v>
       </c>
       <c r="I65" s="1" t="str">
         <f>VLOOKUP(B65,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>patient_post.php</v>
+        <v>patient_patch.php</v>
       </c>
       <c r="N65" t="s">
         <v>188</v>
@@ -3270,81 +3283,82 @@
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="D66"/>
       <c r="E66" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F66" t="s">
-        <v>105</v>
-      </c>
-      <c r="G66" t="s">
-        <v>222</v>
-      </c>
-      <c r="H66" t="s">
-        <v>106</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>271</v>
+        <v>53</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H66"/>
+      <c r="I66" s="1" t="str">
+        <f>VLOOKUP(B66,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>patient_post.php</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
-      <c r="N66"/>
+      <c r="N66" t="s">
+        <v>188</v>
+      </c>
       <c r="O66"/>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B67" t="s">
-        <v>367</v>
+        <v>19</v>
       </c>
       <c r="C67" t="s">
-        <v>305</v>
-      </c>
-      <c r="E67" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" t="s">
         <v>239</v>
       </c>
       <c r="F67" t="s">
-        <v>306</v>
-      </c>
-      <c r="G67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" t="s">
         <v>222</v>
+      </c>
+      <c r="H67" t="s">
+        <v>106</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B68" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C68" t="s">
-        <v>97</v>
-      </c>
-      <c r="E68" t="s">
-        <v>242</v>
+        <v>305</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
-      </c>
-      <c r="G68" t="s">
+        <v>306</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N68" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -3352,147 +3366,141 @@
         <v>363</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
-      </c>
-      <c r="C69" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C69" t="s">
         <v>97</v>
       </c>
-      <c r="D69" s="1"/>
       <c r="E69" t="s">
         <v>242</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>269</v>
+      <c r="F69" t="s">
+        <v>35</v>
       </c>
       <c r="G69" t="s">
         <v>222</v>
       </c>
-      <c r="I69" s="1" t="str">
-        <f>VLOOKUP(B69,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="I69" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N69" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" t="s">
+        <v>242</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G70" t="s">
+        <v>222</v>
+      </c>
+      <c r="H70"/>
+      <c r="I70" s="1" t="str">
+        <f>VLOOKUP(B70,Profiled!A$1:A$98,1,FALSE)</f>
         <v>profile.php</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="1" t="s">
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+    </row>
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E71" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="F71" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I70" s="1" t="e">
-        <f>VLOOKUP(B70,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="I71" s="1" t="e">
+        <f>VLOOKUP(B71,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K70" s="1" t="s">
+      <c r="K71" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L71" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M70" s="1" t="s">
+      <c r="M71" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N70" s="1" t="s">
+      <c r="N71" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="O70" s="1" t="s">
+      <c r="O71" s="1" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71" t="s">
-        <v>242</v>
-      </c>
-      <c r="F71" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H71"/>
-      <c r="I71" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J71"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71" t="s">
-        <v>158</v>
-      </c>
-      <c r="O71" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>125</v>
+        <v>359</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72"/>
+      <c r="E72" t="s">
+        <v>242</v>
+      </c>
+      <c r="F72" t="s">
+        <v>79</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I72" s="1" t="e">
-        <f>VLOOKUP(B72,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K72" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M72" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="H72"/>
+      <c r="I72" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72" t="s">
+        <v>158</v>
+      </c>
+      <c r="O72" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>31</v>
@@ -3501,7 +3509,7 @@
         <v>240</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>221</v>
@@ -3522,315 +3530,320 @@
       <c r="M73" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N73" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="N73" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I74" s="1" t="e">
+        <f>VLOOKUP(B74,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N74" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>217</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M75" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="N75" s="2" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B76" t="s">
-        <v>72</v>
-      </c>
-      <c r="C76" t="s">
-        <v>67</v>
-      </c>
-      <c r="D76"/>
-      <c r="E76" t="s">
-        <v>242</v>
-      </c>
-      <c r="F76" t="s">
-        <v>81</v>
+        <v>355</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H76"/>
+        <v>220</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="I76" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J76"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76" t="s">
-        <v>159</v>
-      </c>
-      <c r="O76" t="s">
-        <v>157</v>
+      <c r="K76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>55</v>
+        <v>359</v>
+      </c>
+      <c r="B77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77" t="s">
+        <v>242</v>
+      </c>
+      <c r="F77" t="s">
+        <v>81</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I77" s="1" t="e">
-        <f>VLOOKUP(B77,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>139</v>
+        <v>222</v>
+      </c>
+      <c r="H77"/>
+      <c r="I77" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77" t="s">
+        <v>159</v>
+      </c>
+      <c r="O77" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" t="s">
-        <v>67</v>
-      </c>
-      <c r="D78"/>
-      <c r="E78" t="s">
-        <v>242</v>
-      </c>
-      <c r="F78" t="s">
-        <v>82</v>
+        <v>355</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H78"/>
-      <c r="I78" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J78"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78" t="s">
-        <v>160</v>
-      </c>
-      <c r="O78" t="s">
-        <v>157</v>
+        <v>219</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I78" s="1" t="e">
+        <f>VLOOKUP(B78,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>40</v>
+        <v>359</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" t="s">
+        <v>67</v>
+      </c>
+      <c r="D79"/>
+      <c r="E79" t="s">
+        <v>242</v>
+      </c>
+      <c r="F79" t="s">
+        <v>82</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I79" s="1" t="e">
-        <f>VLOOKUP(B79,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L79" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M79" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>139</v>
+        <v>222</v>
+      </c>
+      <c r="H79"/>
+      <c r="I79" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79" t="s">
+        <v>160</v>
+      </c>
+      <c r="O79" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I80" s="1" t="e">
+        <f>VLOOKUP(B80,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B81" t="s">
         <v>74</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>67</v>
       </c>
-      <c r="D80"/>
-      <c r="E80" t="s">
+      <c r="D81"/>
+      <c r="E81" t="s">
         <v>242</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F81" t="s">
         <v>83</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H80"/>
-      <c r="I80" s="1" t="s">
+      <c r="H81"/>
+      <c r="I81" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J80"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80" t="s">
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81" t="s">
         <v>161</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O81" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I81" s="1" t="e">
-        <f>VLOOKUP(B81,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>358</v>
+        <v>122</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>31</v>
@@ -3839,10 +3852,10 @@
         <v>240</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>217</v>
@@ -3857,331 +3870,337 @@
       <c r="L82" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="N82" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I83" s="1" t="e">
+        <f>VLOOKUP(B83,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O83" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B84" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C84" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E84" t="s">
         <v>242</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I84" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="N84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O83" t="s">
+      <c r="O84" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="1" t="s">
+    <row r="85" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="B85" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C85" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I84" s="1" t="e">
-        <f>VLOOKUP(B84,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="I85" s="1" t="e">
+        <f>VLOOKUP(B85,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K84" s="1" t="s">
+      <c r="J85" s="1"/>
+      <c r="K85" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L84" s="1" t="s">
+      <c r="L85" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M84" s="1" t="s">
+      <c r="M85" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="N85" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O84" s="2" t="s">
+      <c r="O85" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B85" s="1" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B86" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C86" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" t="s">
+      <c r="D86" s="1"/>
+      <c r="E86" t="s">
         <v>242</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1" t="s">
+      <c r="H86" s="1"/>
+      <c r="I86" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1" t="s">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O85" t="s">
+      <c r="O86" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
-        <v>347</v>
-      </c>
-      <c r="C86" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C87" t="s">
-        <v>67</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
-      </c>
-      <c r="D88" s="1"/>
+        <v>67</v>
+      </c>
       <c r="E88" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="C89" t="s">
         <v>31</v>
       </c>
       <c r="D89" s="1"/>
-      <c r="E89" t="s">
+      <c r="E89" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F89" t="s">
-        <v>311</v>
+      <c r="F89" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="N89" t="s">
-        <v>316</v>
-      </c>
-      <c r="O89" t="s">
-        <v>317</v>
-      </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>343</v>
+        <v>308</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
       </c>
       <c r="D90" s="1"/>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>240</v>
       </c>
       <c r="F90" t="s">
-        <v>346</v>
-      </c>
-      <c r="G90" t="s">
+        <v>311</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>220</v>
+      </c>
+      <c r="N90" t="s">
+        <v>316</v>
+      </c>
+      <c r="O90" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
+        <v>343</v>
+      </c>
+      <c r="C91" t="s">
+        <v>31</v>
+      </c>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F91" t="s">
+        <v>346</v>
+      </c>
+      <c r="G91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
         <v>309</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C92" t="s">
         <v>67</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E92" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F92" t="s">
         <v>312</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="N91" t="s">
+      <c r="N92" t="s">
         <v>318</v>
       </c>
-      <c r="O91" t="s">
+      <c r="O92" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A92" s="4" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C93" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D92" s="1"/>
-      <c r="E92" t="s">
-        <v>242</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G92" t="s">
-        <v>222</v>
-      </c>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1" t="str">
-        <f>VLOOKUP(B92,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>security.php</v>
-      </c>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" t="s">
         <v>242</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G93" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G93" t="s">
         <v>222</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="I93" s="1" t="s">
-        <v>271</v>
+      <c r="I93" s="1" t="str">
+        <f>VLOOKUP(B93,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>security.php</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
+      <c r="N93" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="O93" s="1" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A94" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H94" s="1"/>
-      <c r="I94" s="1" t="str">
-        <f>VLOOKUP(B94,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>session.php</v>
+      <c r="I94" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-      <c r="N94" t="s">
-        <v>188</v>
-      </c>
+      <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
@@ -4189,24 +4208,25 @@
         <v>370</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H95" s="1"/>
-      <c r="I95" s="1" t="s">
-        <v>271</v>
+      <c r="I95" s="1" t="str">
+        <f>VLOOKUP(B95,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>session.php</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
@@ -4222,7 +4242,7 @@
         <v>370</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>29</v>
@@ -4232,15 +4252,14 @@
         <v>242</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="I96" s="1" t="str">
-        <f>VLOOKUP(B96,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>session_delete.php</v>
+      <c r="I96" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
@@ -4256,7 +4275,7 @@
         <v>370</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>29</v>
@@ -4266,7 +4285,7 @@
         <v>242</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>224</v>
@@ -4274,7 +4293,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="str">
         <f>VLOOKUP(B97,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>session_get.php</v>
+        <v>session_delete.php</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -4290,7 +4309,7 @@
         <v>370</v>
       </c>
       <c r="B98" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>29</v>
@@ -4300,7 +4319,7 @@
         <v>242</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>224</v>
@@ -4308,7 +4327,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="str">
         <f>VLOOKUP(B98,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>session_post.php</v>
+        <v>session_get.php</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
@@ -4324,46 +4343,57 @@
         <v>370</v>
       </c>
       <c r="B99" t="s">
-        <v>248</v>
-      </c>
-      <c r="C99" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E99" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F99" t="s">
-        <v>260</v>
+      <c r="D99" s="1"/>
+      <c r="E99" t="s">
+        <v>242</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="H99" s="1"/>
       <c r="I99" s="1" t="str">
         <f>VLOOKUP(B99,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>staff.php</v>
-      </c>
+        <v>session_post.php</v>
+      </c>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" t="s">
+        <v>188</v>
+      </c>
+      <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>370</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F100" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>271</v>
+      <c r="I100" s="1" t="str">
+        <f>VLOOKUP(B100,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>staff.php</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -4371,7 +4401,7 @@
         <v>370</v>
       </c>
       <c r="B101" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C101" t="s">
         <v>29</v>
@@ -4380,14 +4410,13 @@
         <v>242</v>
       </c>
       <c r="F101" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I101" s="1" t="str">
-        <f>VLOOKUP(B101,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>staff_get.php</v>
+        <v>222</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
@@ -4395,7 +4424,7 @@
         <v>370</v>
       </c>
       <c r="B102" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -4404,14 +4433,14 @@
         <v>242</v>
       </c>
       <c r="F102" t="s">
-        <v>264</v>
-      </c>
-      <c r="G102" t="s">
-        <v>267</v>
+        <v>265</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="I102" s="1" t="str">
         <f>VLOOKUP(B102,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>staff_patch.php</v>
+        <v>staff_get.php</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -4419,7 +4448,7 @@
         <v>370</v>
       </c>
       <c r="B103" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -4428,178 +4457,179 @@
         <v>242</v>
       </c>
       <c r="F103" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G103" t="s">
         <v>267</v>
       </c>
       <c r="I103" s="1" t="str">
         <f>VLOOKUP(B103,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>staff_post.php</v>
+        <v>staff_patch.php</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
-      </c>
-      <c r="D104" s="1"/>
+        <v>29</v>
+      </c>
       <c r="E104" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F104" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G104" t="s">
-        <v>221</v>
-      </c>
-      <c r="I104" s="1" t="e">
+        <v>267</v>
+      </c>
+      <c r="I104" s="1" t="str">
         <f>VLOOKUP(B104,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>staff_post.php</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B105" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" t="s">
+        <v>31</v>
+      </c>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F105" t="s">
+        <v>261</v>
+      </c>
+      <c r="G105" t="s">
+        <v>221</v>
+      </c>
+      <c r="I105" s="1" t="e">
+        <f>VLOOKUP(B105,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>250</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>67</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F105" t="s">
-        <v>262</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>323</v>
-      </c>
-      <c r="C106" t="s">
-        <v>97</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>242</v>
       </c>
       <c r="F106" t="s">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="I106" s="1" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C107" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>242</v>
       </c>
       <c r="F107" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>355</v>
-      </c>
       <c r="B108" t="s">
+        <v>334</v>
+      </c>
+      <c r="C108" t="s">
+        <v>67</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F108" t="s">
+        <v>340</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B109" t="s">
         <v>199</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C109" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1" t="s">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="F109" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1" t="str">
-        <f>VLOOKUP(B108,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1" t="str">
+        <f>VLOOKUP(B109,Profiled!A$1:A$98,1,FALSE)</f>
         <v>startUiSession.php</v>
       </c>
-      <c r="J108" s="1"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1"/>
-      <c r="N108" t="s">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" t="s">
         <v>188</v>
       </c>
-      <c r="O108" s="1"/>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+      <c r="O109" s="1"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
         <v>344</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>97</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F110" t="s">
         <v>345</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A110" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B110" t="s">
-        <v>382</v>
-      </c>
-      <c r="C110" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>370</v>
       </c>
       <c r="B111" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C111" t="s">
         <v>29</v>
@@ -4622,7 +4652,7 @@
         <v>370</v>
       </c>
       <c r="B112" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C112" t="s">
         <v>29</v>
@@ -4645,7 +4675,7 @@
         <v>370</v>
       </c>
       <c r="B113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C113" t="s">
         <v>29</v>
@@ -4668,7 +4698,7 @@
         <v>370</v>
       </c>
       <c r="B114" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -4691,7 +4721,7 @@
         <v>370</v>
       </c>
       <c r="B115" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -4711,151 +4741,151 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B116" t="s">
-        <v>108</v>
+        <v>383</v>
       </c>
       <c r="C116" t="s">
-        <v>97</v>
-      </c>
-      <c r="E116" t="s">
-        <v>242</v>
-      </c>
-      <c r="F116" t="s">
-        <v>107</v>
-      </c>
-      <c r="G116" t="s">
-        <v>222</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N116" t="s">
-        <v>186</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B117" t="s">
+        <v>108</v>
+      </c>
+      <c r="C117" t="s">
+        <v>97</v>
+      </c>
+      <c r="E117" t="s">
         <v>242</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H117" s="1" t="s">
+      <c r="F117" t="s">
+        <v>107</v>
+      </c>
+      <c r="G117" t="s">
         <v>222</v>
       </c>
       <c r="I117" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J117" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>147</v>
+      <c r="N117" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="B118" t="s">
-        <v>98</v>
-      </c>
-      <c r="C118" t="s">
-        <v>67</v>
-      </c>
-      <c r="E118" t="s">
+        <v>355</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F118" t="s">
-        <v>99</v>
+      <c r="F118" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="H118" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I118" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N118" t="s">
-        <v>164</v>
-      </c>
-      <c r="O118" t="s">
-        <v>157</v>
+      <c r="J118" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C119" t="s">
+        <v>67</v>
+      </c>
+      <c r="E119" t="s">
         <v>242</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>235</v>
+      <c r="F119" t="s">
+        <v>99</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
+      <c r="N119" t="s">
+        <v>164</v>
+      </c>
+      <c r="O119" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B120" t="s">
-        <v>361</v>
+        <v>233</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>67</v>
+        <v>223</v>
       </c>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
+      <c r="I120" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -4863,99 +4893,95 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B121" s="1" t="s">
-        <v>20</v>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B121" t="s">
+        <v>361</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="D121" s="1"/>
-      <c r="E121" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
       <c r="H121" s="1"/>
-      <c r="I121" s="1" t="e">
-        <f>VLOOKUP(B121,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
+      <c r="I121" s="1"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
       <c r="M121" s="1"/>
-      <c r="N121" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O121" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>292</v>
-      </c>
-      <c r="C122" t="s">
-        <v>31</v>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+    </row>
+    <row r="122" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F122" t="s">
-        <v>303</v>
+        <v>241</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1" t="e">
+        <f>VLOOKUP(B122,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="O122" s="2" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
+        <v>292</v>
+      </c>
+      <c r="C123" t="s">
+        <v>31</v>
+      </c>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
+        <v>303</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
         <v>293</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>67</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E124" t="s">
         <v>242</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F124" t="s">
         <v>304</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A124" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="B124" t="s">
-        <v>21</v>
-      </c>
-      <c r="C124" t="s">
-        <v>29</v>
-      </c>
-      <c r="E124" t="s">
-        <v>241</v>
-      </c>
-      <c r="F124" t="s">
-        <v>58</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="I124" s="1" t="str">
-        <f>VLOOKUP(B124,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>visit.php</v>
-      </c>
-      <c r="N124" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
@@ -4963,22 +4989,23 @@
         <v>370</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
       </c>
       <c r="E125" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>271</v>
+      <c r="I125" s="1" t="str">
+        <f>VLOOKUP(B125,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>visit.php</v>
       </c>
       <c r="N125" t="s">
         <v>185</v>
@@ -4989,7 +5016,7 @@
         <v>370</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -4998,17 +5025,16 @@
         <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I126" s="1" t="str">
-        <f>VLOOKUP(B126,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>visit_get.php</v>
+        <v>222</v>
+      </c>
+      <c r="I126" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="N126" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
@@ -5016,7 +5042,7 @@
         <v>370</v>
       </c>
       <c r="B127" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -5025,14 +5051,14 @@
         <v>242</v>
       </c>
       <c r="F127" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I127" s="1" t="str">
         <f>VLOOKUP(B127,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>visit_patch.php</v>
+        <v>visit_get.php</v>
       </c>
       <c r="N127" t="s">
         <v>188</v>
@@ -5043,7 +5069,7 @@
         <v>370</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -5052,324 +5078,351 @@
         <v>242</v>
       </c>
       <c r="F128" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>221</v>
       </c>
       <c r="I128" s="1" t="str">
         <f>VLOOKUP(B128,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>visit_post.php</v>
+        <v>visit_patch.php</v>
       </c>
       <c r="N128" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B129" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D129" s="1"/>
-      <c r="E129" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F129" s="1" t="s">
-        <v>39</v>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B129" t="s">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" t="s">
+        <v>242</v>
+      </c>
+      <c r="F129" t="s">
+        <v>103</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="I129" s="1" t="str">
+        <f>VLOOKUP(B129,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>visit_post.php</v>
+      </c>
+      <c r="N129" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B130" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H130" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I129" s="1" t="e">
-        <f>VLOOKUP(B129,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="I130" s="1" t="e">
+        <f>VLOOKUP(B130,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J129" s="1"/>
-      <c r="K129" s="1" t="s">
+      <c r="J130" s="1"/>
+      <c r="K130" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L129" s="1" t="s">
+      <c r="L130" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M129" s="1" t="s">
+      <c r="M130" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N129" s="1" t="s">
+      <c r="N130" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O129" s="1" t="s">
+      <c r="O130" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="130" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
         <v>75</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>67</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E131" t="s">
         <v>242</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F131" t="s">
         <v>84</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="I131" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N130" t="s">
+      <c r="N131" t="s">
         <v>165</v>
       </c>
-      <c r="O130" t="s">
+      <c r="O131" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B131" s="1" t="s">
+    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D131" s="1"/>
-      <c r="E131" s="1" t="s">
+      <c r="D132" s="1"/>
+      <c r="E132" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="F132" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H131" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I131" s="1" t="e">
-        <f>VLOOKUP(B131,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="I132" s="1" t="e">
+        <f>VLOOKUP(B132,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J131" s="1"/>
-      <c r="K131" s="1" t="s">
+      <c r="J132" s="1"/>
+      <c r="K132" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L131" s="1" t="s">
+      <c r="L132" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M131" s="1" t="s">
+      <c r="M132" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N131" s="2" t="s">
+      <c r="N132" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O131" s="2" t="s">
+      <c r="O132" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="132" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
         <v>76</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C133" t="s">
         <v>67</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E133" t="s">
         <v>242</v>
       </c>
-      <c r="F132" t="s">
+      <c r="F133" t="s">
         <v>85</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="I133" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N132" t="s">
+      <c r="N133" t="s">
         <v>168</v>
       </c>
-      <c r="O132" t="s">
+      <c r="O133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="2:15" ht="90" x14ac:dyDescent="0.25">
-      <c r="B133" s="1" t="s">
+    <row r="134" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="B134" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1" t="s">
+      <c r="D134" s="1"/>
+      <c r="E134" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H133" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I133" s="1" t="e">
-        <f>VLOOKUP(B133,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="I134" s="1" t="e">
+        <f>VLOOKUP(B134,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1" t="s">
+      <c r="J134" s="1"/>
+      <c r="K134" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L133" s="1" t="s">
+      <c r="L134" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M133" s="1" t="s">
+      <c r="M134" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N133" s="2" t="s">
+      <c r="N134" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O133" s="2" t="s">
+      <c r="O134" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
         <v>77</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>67</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E135" t="s">
         <v>242</v>
       </c>
-      <c r="F134" t="s">
+      <c r="F135" t="s">
         <v>86</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="G135" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="I135" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N134" t="s">
+      <c r="N135" t="s">
         <v>169</v>
       </c>
-      <c r="O134" t="s">
+      <c r="O135" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
         <v>95</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>31</v>
       </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1" t="s">
+      <c r="D136" s="1"/>
+      <c r="E136" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F135" t="s">
+      <c r="F136" t="s">
         <v>48</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="G136" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I135" s="1" t="e">
-        <f>VLOOKUP(B135,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="I136" s="1" t="e">
+        <f>VLOOKUP(B136,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K135" s="1" t="s">
+      <c r="K136" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L135" s="1" t="s">
+      <c r="L136" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M135" s="1" t="s">
+      <c r="M136" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N135" s="1" t="s">
+      <c r="N136" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O135" s="1" t="s">
+      <c r="O136" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="136" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
         <v>78</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>67</v>
       </c>
-      <c r="E136" t="s">
+      <c r="E137" t="s">
         <v>242</v>
       </c>
-      <c r="F136" t="s">
+      <c r="F137" t="s">
         <v>87</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="N136" t="s">
-        <v>170</v>
-      </c>
-      <c r="O136" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="137" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B137" t="s">
-        <v>335</v>
-      </c>
-      <c r="C137" t="s">
-        <v>97</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F137" t="s">
-        <v>341</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="138" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I137" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="N137" t="s">
+        <v>170</v>
+      </c>
+      <c r="O137" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C138" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="E138" s="1" t="s">
         <v>242</v>
       </c>
       <c r="F138" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G138" s="1" t="s">
         <v>222</v>
       </c>
     </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>336</v>
+      </c>
+      <c r="C139" t="s">
+        <v>67</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F139" t="s">
+        <v>342</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O138">
-    <sortState ref="A2:O138">
-      <sortCondition ref="B1:B138"/>
+  <autoFilter ref="A1:O139">
+    <sortState ref="A2:O139">
+      <sortCondition ref="B1:B139"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="389">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1584,17 +1584,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="5" width="10" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" customWidth="1"/>
     <col min="8" max="13" width="20.7109375" customWidth="1"/>
     <col min="14" max="14" width="36" customWidth="1"/>
@@ -1645,8 +1647,10 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+    <row r="2" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="B2" t="s">
         <v>282</v>
       </c>
@@ -1670,7 +1674,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>386</v>
       </c>
@@ -1700,7 +1704,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>384</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>386</v>
       </c>
@@ -1795,7 +1799,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>355</v>
       </c>
@@ -1827,7 +1831,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>359</v>
       </c>
@@ -1893,7 +1897,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B11" t="s">
         <v>62</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>370</v>
       </c>
@@ -2027,7 +2034,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>355</v>
       </c>
@@ -2042,7 +2049,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>359</v>
       </c>
@@ -2112,7 +2119,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>370</v>
       </c>
@@ -2135,7 +2142,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>370</v>
       </c>
@@ -2158,7 +2165,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>370</v>
       </c>
@@ -2181,7 +2188,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>355</v>
       </c>
@@ -2225,7 +2232,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>359</v>
       </c>
@@ -2254,7 +2261,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>355</v>
       </c>
@@ -2300,7 +2307,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>359</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>355</v>
       </c>
@@ -2361,7 +2368,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>370</v>
       </c>
@@ -2381,7 +2388,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>370</v>
       </c>
@@ -2401,7 +2408,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>370</v>
       </c>
@@ -2430,7 +2437,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>370</v>
       </c>
@@ -2450,7 +2457,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>385</v>
       </c>
@@ -2483,7 +2490,7 @@
       </c>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>363</v>
       </c>
@@ -2516,7 +2523,7 @@
       </c>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>384</v>
       </c>
@@ -2552,7 +2559,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>386</v>
       </c>
@@ -2582,7 +2589,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>355</v>
       </c>
@@ -2609,7 +2616,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>363</v>
       </c>
@@ -2629,7 +2636,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>355</v>
       </c>
@@ -2657,7 +2664,7 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>359</v>
       </c>
@@ -2677,7 +2684,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>370</v>
       </c>
@@ -2706,7 +2713,7 @@
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>370</v>
       </c>
@@ -2735,7 +2742,7 @@
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>370</v>
       </c>
@@ -2764,7 +2771,7 @@
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>370</v>
       </c>
@@ -2793,7 +2800,7 @@
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>369</v>
       </c>
@@ -2822,7 +2829,7 @@
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>384</v>
       </c>
@@ -2849,7 +2856,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>384</v>
       </c>
@@ -2875,7 +2882,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>384</v>
       </c>
@@ -2902,7 +2909,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>384</v>
       </c>
@@ -2936,7 +2943,7 @@
       </c>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>384</v>
       </c>
@@ -2963,7 +2970,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>384</v>
       </c>
@@ -2997,7 +3004,7 @@
       </c>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>384</v>
       </c>
@@ -3024,7 +3031,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>355</v>
       </c>
@@ -3038,7 +3045,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>370</v>
       </c>
@@ -3051,7 +3058,7 @@
       <c r="G55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>370</v>
       </c>
@@ -3064,7 +3071,7 @@
       <c r="G56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>370</v>
       </c>
@@ -3077,7 +3084,7 @@
       <c r="G57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>370</v>
       </c>
@@ -3090,7 +3097,7 @@
       <c r="G58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>363</v>
       </c>
@@ -3102,7 +3109,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>384</v>
       </c>
@@ -3133,7 +3140,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>370</v>
       </c>
@@ -3160,7 +3167,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>370</v>
       </c>
@@ -3193,7 +3200,7 @@
       </c>
       <c r="O62"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>370</v>
       </c>
@@ -3220,7 +3227,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>370</v>
       </c>
@@ -3254,7 +3261,7 @@
       </c>
       <c r="O64"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>370</v>
       </c>
@@ -3281,7 +3288,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>370</v>
       </c>
@@ -3315,7 +3322,7 @@
       </c>
       <c r="O66"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>355</v>
       </c>
@@ -3341,7 +3348,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>366</v>
       </c>
@@ -3361,7 +3368,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>363</v>
       </c>
@@ -3387,7 +3394,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>363</v>
       </c>
@@ -3418,7 +3425,7 @@
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>355</v>
       </c>
@@ -3460,7 +3467,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>359</v>
       </c>
@@ -3495,7 +3502,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>384</v>
       </c>
@@ -3537,7 +3544,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>384</v>
       </c>
@@ -3579,7 +3586,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>384</v>
       </c>
@@ -3608,7 +3615,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="1" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>355</v>
       </c>
@@ -3649,7 +3656,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>359</v>
       </c>
@@ -3684,7 +3691,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>355</v>
       </c>
@@ -3726,7 +3733,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>359</v>
       </c>
@@ -3761,7 +3768,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>384</v>
       </c>
@@ -3803,7 +3810,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>384</v>
       </c>
@@ -3838,7 +3845,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>384</v>
       </c>
@@ -3877,7 +3884,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>355</v>
       </c>
@@ -3919,7 +3926,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>359</v>
       </c>
@@ -4139,7 +4146,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>363</v>
       </c>
@@ -4203,7 +4210,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>370</v>
       </c>
@@ -4237,7 +4244,7 @@
       </c>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>370</v>
       </c>
@@ -4270,7 +4277,7 @@
       </c>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>370</v>
       </c>
@@ -4304,7 +4311,7 @@
       </c>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>370</v>
       </c>
@@ -4338,7 +4345,7 @@
       </c>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>370</v>
       </c>
@@ -4372,7 +4379,7 @@
       </c>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>370</v>
       </c>
@@ -4396,7 +4403,7 @@
         <v>staff.php</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>370</v>
       </c>
@@ -4419,7 +4426,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>370</v>
       </c>
@@ -4443,7 +4450,7 @@
         <v>staff_get.php</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>370</v>
       </c>
@@ -4467,7 +4474,7 @@
         <v>staff_patch.php</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>370</v>
       </c>
@@ -4491,7 +4498,7 @@
         <v>staff_post.php</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>355</v>
       </c>
@@ -4516,7 +4523,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>359</v>
       </c>
@@ -4573,7 +4580,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>386</v>
       </c>
@@ -4624,7 +4631,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>370</v>
       </c>
@@ -4647,7 +4654,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>370</v>
       </c>
@@ -4670,7 +4677,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>370</v>
       </c>
@@ -4693,7 +4700,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>370</v>
       </c>
@@ -4716,7 +4723,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>370</v>
       </c>
@@ -4739,7 +4746,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>370</v>
       </c>
@@ -4762,7 +4769,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>363</v>
       </c>
@@ -4788,7 +4795,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>355</v>
       </c>
@@ -4833,7 +4840,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>359</v>
       </c>
@@ -4862,7 +4869,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>355</v>
       </c>
@@ -4893,7 +4900,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>359</v>
       </c>
@@ -4949,7 +4956,10 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B123" t="s">
         <v>292</v>
       </c>
@@ -4967,7 +4977,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B124" t="s">
         <v>293</v>
       </c>
@@ -4984,7 +4997,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>370</v>
       </c>
@@ -5011,7 +5024,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>370</v>
       </c>
@@ -5037,7 +5050,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>370</v>
       </c>
@@ -5064,7 +5077,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>370</v>
       </c>
@@ -5091,7 +5104,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>370</v>
       </c>
@@ -5421,6 +5434,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O139">
+    <filterColumn colId="0">
+      <filters blank="1"/>
+    </filterColumn>
     <sortState ref="A2:O139">
       <sortCondition ref="B1:B139"/>
     </sortState>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="389">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1048576"/>
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2069,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B19" t="s">
         <v>331</v>
       </c>
@@ -2087,7 +2090,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B20" t="s">
         <v>332</v>
       </c>
@@ -2101,7 +2107,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B21" t="s">
         <v>333</v>
       </c>
@@ -4182,7 +4191,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B94" t="s">
         <v>232</v>
       </c>
@@ -4923,7 +4935,10 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>20</v>
       </c>
@@ -5198,7 +5213,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>93</v>
       </c>
@@ -5239,7 +5257,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B133" t="s">
         <v>76</v>
       </c>
@@ -5265,7 +5286,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B134" s="1" t="s">
         <v>94</v>
       </c>
@@ -5306,7 +5330,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B135" t="s">
         <v>77</v>
       </c>
@@ -5398,7 +5425,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B138" t="s">
         <v>335</v>
       </c>
@@ -5415,7 +5445,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B139" t="s">
         <v>336</v>
       </c>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="389">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2197,10 +2197,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>355</v>
-      </c>
+    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
@@ -5146,7 +5143,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>92</v>
       </c>
@@ -5187,7 +5187,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B131" t="s">
         <v>75</v>
       </c>
@@ -5359,7 +5362,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B136" t="s">
         <v>95</v>
       </c>
@@ -5399,7 +5405,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B137" t="s">
         <v>78</v>
       </c>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="389">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1048576"/>
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2069,7 +2069,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B19" t="s">
         <v>331</v>
       </c>
@@ -2087,7 +2090,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B20" t="s">
         <v>332</v>
       </c>
@@ -2101,7 +2107,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B21" t="s">
         <v>333</v>
       </c>
@@ -2188,10 +2197,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>355</v>
-      </c>
+    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>
@@ -4182,7 +4188,10 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>384</v>
+      </c>
       <c r="B94" t="s">
         <v>232</v>
       </c>
@@ -4923,7 +4932,10 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="B122" s="1" t="s">
         <v>20</v>
       </c>
@@ -5131,7 +5143,10 @@
         <v>188</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B130" s="1" t="s">
         <v>92</v>
       </c>
@@ -5172,7 +5187,10 @@
         <v>149</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B131" t="s">
         <v>75</v>
       </c>
@@ -5198,7 +5216,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B132" s="1" t="s">
         <v>93</v>
       </c>
@@ -5239,7 +5260,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B133" t="s">
         <v>76</v>
       </c>
@@ -5265,7 +5289,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B134" s="1" t="s">
         <v>94</v>
       </c>
@@ -5306,7 +5333,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B135" t="s">
         <v>77</v>
       </c>
@@ -5332,7 +5362,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B136" t="s">
         <v>95</v>
       </c>
@@ -5372,7 +5405,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B137" t="s">
         <v>78</v>
       </c>
@@ -5398,7 +5434,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B138" t="s">
         <v>335</v>
       </c>
@@ -5415,7 +5454,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B139" t="s">
         <v>336</v>
       </c>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="389">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1734,7 +1734,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2197,7 +2200,10 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B25" s="1" t="s">
         <v>65</v>
       </c>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="392">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1228,6 +1228,15 @@
   </si>
   <si>
     <t>FavIcon file</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>reports/uitext</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1597,7 @@
   <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3967,7 +3976,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="B85" s="1" t="s">
         <v>110</v>
       </c>
@@ -4008,7 +4020,10 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="B86" s="1" t="s">
         <v>112</v>
       </c>
@@ -4040,7 +4055,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="B87" t="s">
         <v>347</v>
       </c>
@@ -4058,7 +4076,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>390</v>
+      </c>
       <c r="B88" t="s">
         <v>348</v>
       </c>
@@ -4075,7 +4096,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="B89" t="s">
         <v>349</v>
       </c>
@@ -4629,7 +4653,10 @@
       </c>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="B110" t="s">
         <v>344</v>
       </c>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="388"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="388" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Profiled" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId5"/>
+    <sheet name="Workflows" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$O$139</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="402">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1233,10 +1234,40 @@
     <t>reports</t>
   </si>
   <si>
-    <t>reports/uitext</t>
-  </si>
-  <si>
     <t>support</t>
+  </si>
+  <si>
+    <t>reports\uitext</t>
+  </si>
+  <si>
+    <t>Workflow\screen</t>
+  </si>
+  <si>
+    <t>AdmitPatient</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Step/End</t>
+  </si>
+  <si>
+    <t>DischargePatient</t>
+  </si>
+  <si>
+    <t>Start (searchbox)</t>
+  </si>
+  <si>
+    <t>Start (listLink)</t>
+  </si>
+  <si>
+    <t>Start (status link)</t>
+  </si>
+  <si>
+    <t>EditPatient</t>
+  </si>
+  <si>
+    <t>Start (edit link)</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1291,6 +1322,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1596,8 +1631,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1846,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>355</v>
       </c>
@@ -1892,7 +1927,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>273</v>
       </c>
@@ -1951,7 +1986,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
         <v>284</v>
@@ -2000,7 +2035,7 @@
         <v>adminShowUsers.php</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>247</v>
       </c>
@@ -2046,7 +2081,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>355</v>
       </c>
@@ -2209,7 +2244,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>355</v>
       </c>
@@ -2282,7 +2317,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>355</v>
       </c>
@@ -2610,7 +2645,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>355</v>
       </c>
@@ -2657,7 +2692,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>355</v>
       </c>
@@ -3052,7 +3087,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>355</v>
       </c>
@@ -3446,7 +3481,7 @@
       <c r="N70"/>
       <c r="O70"/>
     </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>355</v>
       </c>
@@ -3636,7 +3671,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="1" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>355</v>
       </c>
@@ -3712,7 +3747,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>355</v>
       </c>
@@ -3905,7 +3940,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>355</v>
       </c>
@@ -4022,7 +4057,7 @@
     </row>
     <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>112</v>
@@ -4078,7 +4113,7 @@
     </row>
     <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B88" t="s">
         <v>348</v>
@@ -4117,7 +4152,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="B90" t="s">
         <v>308</v>
       </c>
@@ -4159,7 +4197,10 @@
         <v>220</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>391</v>
+      </c>
       <c r="B92" t="s">
         <v>309</v>
       </c>
@@ -4537,7 +4578,7 @@
         <v>staff_post.php</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>355</v>
       </c>
@@ -4585,7 +4626,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>323</v>
       </c>
@@ -4602,7 +4643,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>334</v>
       </c>
@@ -4655,7 +4696,7 @@
     </row>
     <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B110" t="s">
         <v>344</v>
@@ -5001,7 +5042,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>355</v>
       </c>
@@ -5176,7 +5217,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>355</v>
       </c>
@@ -5249,7 +5290,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>355</v>
       </c>
@@ -5322,7 +5363,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>355</v>
       </c>
@@ -5395,7 +5436,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>355</v>
       </c>
@@ -5510,7 +5551,14 @@
   </sheetData>
   <autoFilter ref="A1:O139">
     <filterColumn colId="0">
-      <filters blank="1"/>
+      <filters blank="1">
+        <filter val="root"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="UI"/>
+      </filters>
     </filterColumn>
     <sortState ref="A2:O139">
       <sortCondition ref="B1:B139"/>
@@ -8077,4 +8125,149 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" t="s">
+        <v>397</v>
+      </c>
+      <c r="K2" t="s">
+        <v>394</v>
+      </c>
+      <c r="M2" t="s">
+        <v>394</v>
+      </c>
+      <c r="U2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L3" t="s">
+        <v>399</v>
+      </c>
+      <c r="R3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>400</v>
+      </c>
+      <c r="K4" t="s">
+        <v>395</v>
+      </c>
+      <c r="L4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -1631,8 +1631,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B136"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="388" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="388"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="403">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1268,6 +1268,9 @@
   </si>
   <si>
     <t>Start (edit link)</t>
+  </si>
+  <si>
+    <t>Add Patient</t>
   </si>
 </sst>
 </file>
@@ -1631,7 +1634,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O139"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -5551,7 +5554,7 @@
   </sheetData>
   <autoFilter ref="A1:O139">
     <filterColumn colId="0">
-      <filters blank="1">
+      <filters>
         <filter val="root"/>
       </filters>
     </filterColumn>
@@ -8129,10 +8132,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8266,6 +8269,11 @@
         <v>401</v>
       </c>
     </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="403">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1631,11 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="A108" sqref="A108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1694,7 +1693,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>386</v>
       </c>
@@ -1721,7 +1720,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>386</v>
       </c>
@@ -1751,7 +1750,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>384</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>386</v>
       </c>
@@ -1817,7 +1816,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>386</v>
       </c>
@@ -1881,7 +1880,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>359</v>
       </c>
@@ -1913,6 +1912,9 @@
       <c r="O8"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B9" t="s">
         <v>272</v>
       </c>
@@ -1930,7 +1932,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B10" t="s">
         <v>273</v>
       </c>
@@ -1947,7 +1952,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>384</v>
       </c>
@@ -1972,6 +1977,9 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B12" t="s">
         <v>283</v>
       </c>
@@ -1989,8 +1997,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B13" t="s">
         <v>284</v>
       </c>
@@ -2017,6 +2027,9 @@
       <c r="O13"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>355</v>
+      </c>
       <c r="B14" t="s">
         <v>246</v>
       </c>
@@ -2038,7 +2051,10 @@
         <v>adminShowUsers.php</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B15" t="s">
         <v>247</v>
       </c>
@@ -2058,7 +2074,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>370</v>
       </c>
@@ -2099,7 +2115,7 @@
       </c>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>359</v>
       </c>
@@ -2119,7 +2135,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>384</v>
       </c>
@@ -2140,7 +2156,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>384</v>
       </c>
@@ -2157,7 +2173,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>384</v>
       </c>
@@ -2178,7 +2194,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>370</v>
       </c>
@@ -2201,7 +2217,7 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>370</v>
       </c>
@@ -2224,7 +2240,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>370</v>
       </c>
@@ -2291,7 +2307,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>359</v>
       </c>
@@ -2366,7 +2382,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>359</v>
       </c>
@@ -2401,7 +2417,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>355</v>
       </c>
@@ -2427,7 +2443,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>370</v>
       </c>
@@ -2447,7 +2463,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>370</v>
       </c>
@@ -2467,7 +2483,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>370</v>
       </c>
@@ -2496,7 +2512,7 @@
       <c r="N32"/>
       <c r="O32"/>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>370</v>
       </c>
@@ -2516,7 +2532,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>385</v>
       </c>
@@ -2549,7 +2565,7 @@
       </c>
       <c r="O34"/>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>363</v>
       </c>
@@ -2582,7 +2598,7 @@
       </c>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>384</v>
       </c>
@@ -2618,7 +2634,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>386</v>
       </c>
@@ -2675,7 +2691,7 @@
       <c r="N38"/>
       <c r="O38"/>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>363</v>
       </c>
@@ -2723,7 +2739,7 @@
       <c r="N40"/>
       <c r="O40"/>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>359</v>
       </c>
@@ -2743,7 +2759,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>370</v>
       </c>
@@ -2772,7 +2788,7 @@
       <c r="N42"/>
       <c r="O42"/>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>370</v>
       </c>
@@ -2801,7 +2817,7 @@
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>370</v>
       </c>
@@ -2830,7 +2846,7 @@
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>370</v>
       </c>
@@ -2859,7 +2875,7 @@
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>369</v>
       </c>
@@ -2888,7 +2904,7 @@
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>384</v>
       </c>
@@ -2915,7 +2931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>384</v>
       </c>
@@ -2941,7 +2957,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>384</v>
       </c>
@@ -2968,7 +2984,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>384</v>
       </c>
@@ -3002,7 +3018,7 @@
       </c>
       <c r="O50"/>
     </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>384</v>
       </c>
@@ -3029,7 +3045,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>384</v>
       </c>
@@ -3063,7 +3079,7 @@
       </c>
       <c r="O52"/>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>384</v>
       </c>
@@ -3104,7 +3120,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>370</v>
       </c>
@@ -3117,7 +3133,7 @@
       <c r="G55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>370</v>
       </c>
@@ -3130,7 +3146,7 @@
       <c r="G56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>370</v>
       </c>
@@ -3143,7 +3159,7 @@
       <c r="G57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>370</v>
       </c>
@@ -3156,7 +3172,7 @@
       <c r="G58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>363</v>
       </c>
@@ -3168,7 +3184,7 @@
       </c>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>384</v>
       </c>
@@ -3199,7 +3215,7 @@
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>370</v>
       </c>
@@ -3226,7 +3242,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>370</v>
       </c>
@@ -3259,7 +3275,7 @@
       </c>
       <c r="O62"/>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>370</v>
       </c>
@@ -3286,7 +3302,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>370</v>
       </c>
@@ -3320,7 +3336,7 @@
       </c>
       <c r="O64"/>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>370</v>
       </c>
@@ -3347,7 +3363,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>370</v>
       </c>
@@ -3381,7 +3397,7 @@
       </c>
       <c r="O66"/>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>355</v>
       </c>
@@ -3407,7 +3423,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>366</v>
       </c>
@@ -3427,7 +3443,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>363</v>
       </c>
@@ -3453,7 +3469,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>363</v>
       </c>
@@ -3526,7 +3542,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>359</v>
       </c>
@@ -3561,7 +3577,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>384</v>
       </c>
@@ -3603,7 +3619,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>384</v>
       </c>
@@ -3645,7 +3661,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>384</v>
       </c>
@@ -3715,7 +3731,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>359</v>
       </c>
@@ -3792,7 +3808,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>359</v>
       </c>
@@ -3827,7 +3843,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>384</v>
       </c>
@@ -3869,7 +3885,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>384</v>
       </c>
@@ -3904,7 +3920,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>384</v>
       </c>
@@ -3985,7 +4001,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>359</v>
       </c>
@@ -4014,7 +4030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>389</v>
       </c>
@@ -4058,7 +4074,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>391</v>
       </c>
@@ -4093,7 +4109,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>389</v>
       </c>
@@ -4114,7 +4130,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>391</v>
       </c>
@@ -4134,7 +4150,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>389</v>
       </c>
@@ -4155,7 +4171,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>389</v>
       </c>
@@ -4183,6 +4199,9 @@
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>389</v>
+      </c>
       <c r="B91" t="s">
         <v>343</v>
       </c>
@@ -4200,7 +4219,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>391</v>
       </c>
@@ -4226,7 +4245,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>363</v>
       </c>
@@ -4262,7 +4281,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>384</v>
       </c>
@@ -4293,7 +4312,7 @@
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>370</v>
       </c>
@@ -4327,7 +4346,7 @@
       </c>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>370</v>
       </c>
@@ -4360,7 +4379,7 @@
       </c>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>370</v>
       </c>
@@ -4394,7 +4413,7 @@
       </c>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>370</v>
       </c>
@@ -4428,7 +4447,7 @@
       </c>
       <c r="O98" s="1"/>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>370</v>
       </c>
@@ -4462,7 +4481,7 @@
       </c>
       <c r="O99" s="1"/>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>370</v>
       </c>
@@ -4486,7 +4505,7 @@
         <v>staff.php</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>370</v>
       </c>
@@ -4509,7 +4528,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>370</v>
       </c>
@@ -4533,7 +4552,7 @@
         <v>staff_get.php</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>370</v>
       </c>
@@ -4557,7 +4576,7 @@
         <v>staff_patch.php</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>370</v>
       </c>
@@ -4606,7 +4625,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>359</v>
       </c>
@@ -4629,7 +4648,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B107" t="s">
         <v>323</v>
       </c>
@@ -4646,7 +4668,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="B108" t="s">
         <v>334</v>
       </c>
@@ -4663,7 +4688,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>386</v>
       </c>
@@ -4697,7 +4722,7 @@
       </c>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>390</v>
       </c>
@@ -4717,7 +4742,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>370</v>
       </c>
@@ -4740,7 +4765,7 @@
       <c r="N111" s="1"/>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>370</v>
       </c>
@@ -4763,7 +4788,7 @@
       <c r="N112" s="1"/>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>370</v>
       </c>
@@ -4786,7 +4811,7 @@
       <c r="N113" s="1"/>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>370</v>
       </c>
@@ -4809,7 +4834,7 @@
       <c r="N114" s="1"/>
       <c r="O114" s="1"/>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>370</v>
       </c>
@@ -4832,7 +4857,7 @@
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>370</v>
       </c>
@@ -4855,7 +4880,7 @@
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>363</v>
       </c>
@@ -4881,7 +4906,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>355</v>
       </c>
@@ -4926,7 +4951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>359</v>
       </c>
@@ -4955,7 +4980,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>355</v>
       </c>
@@ -4986,7 +5011,7 @@
       <c r="N120" s="1"/>
       <c r="O120" s="1"/>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>359</v>
       </c>
@@ -5009,7 +5034,7 @@
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
     </row>
-    <row r="122" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>386</v>
       </c>
@@ -5066,7 +5091,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>359</v>
       </c>
@@ -5086,7 +5111,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>370</v>
       </c>
@@ -5113,7 +5138,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>370</v>
       </c>
@@ -5139,7 +5164,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>370</v>
       </c>
@@ -5166,7 +5191,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>370</v>
       </c>
@@ -5193,7 +5218,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>370</v>
       </c>
@@ -5264,7 +5289,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>359</v>
       </c>
@@ -5337,7 +5362,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>359</v>
       </c>
@@ -5410,7 +5435,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>359</v>
       </c>
@@ -5482,7 +5507,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>359</v>
       </c>
@@ -5511,7 +5536,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>355</v>
       </c>
@@ -5531,7 +5556,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>359</v>
       </c>
@@ -5553,16 +5578,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O139">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="root"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="UI"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:O139">
       <sortCondition ref="B1:B139"/>
     </sortState>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="20730" windowHeight="11760" tabRatio="388"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="20730" windowHeight="11700" tabRatio="388"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
@@ -1758,11 +1758,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="615" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+      <pane ySplit="615" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1821,7 +1822,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>381</v>
       </c>
@@ -1848,7 +1849,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>381</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>379</v>
       </c>
@@ -1908,7 +1909,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>381</v>
       </c>
@@ -1944,7 +1945,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>381</v>
       </c>
@@ -2043,7 +2044,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>356</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>356</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>379</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>356</v>
       </c>
@@ -2220,7 +2221,7 @@
         <v>adminShowUsers.php</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>356</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>367</v>
       </c>
@@ -2287,7 +2288,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>356</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>379</v>
       </c>
@@ -2366,7 +2367,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>367</v>
       </c>
@@ -2389,7 +2390,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>367</v>
       </c>
@@ -2412,7 +2413,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>367</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>367</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>356</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>356</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>352</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>367</v>
       </c>
@@ -2656,7 +2657,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>367</v>
       </c>
@@ -2685,7 +2686,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>367</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>367</v>
       </c>
@@ -2734,7 +2735,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>380</v>
       </c>
@@ -2767,7 +2768,7 @@
       </c>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>360</v>
       </c>
@@ -2793,7 +2794,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>379</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>381</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>360</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>356</v>
       </c>
@@ -2954,7 +2955,7 @@
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>367</v>
       </c>
@@ -2983,7 +2984,7 @@
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>367</v>
       </c>
@@ -3012,7 +3013,7 @@
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>367</v>
       </c>
@@ -3041,7 +3042,7 @@
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>367</v>
       </c>
@@ -3070,7 +3071,7 @@
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>366</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>379</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>379</v>
       </c>
@@ -3143,7 +3144,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>379</v>
       </c>
@@ -3177,7 +3178,7 @@
       </c>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>379</v>
       </c>
@@ -3204,7 +3205,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>379</v>
       </c>
@@ -3238,7 +3239,7 @@
       </c>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>379</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>379</v>
       </c>
@@ -3309,7 +3310,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>367</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>367</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>367</v>
       </c>
@@ -3368,7 +3369,7 @@
       <c r="G59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>367</v>
       </c>
@@ -3387,7 +3388,7 @@
       <c r="G60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>367</v>
       </c>
@@ -3406,7 +3407,7 @@
       <c r="G61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>367</v>
       </c>
@@ -3425,7 +3426,7 @@
       <c r="G62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>360</v>
       </c>
@@ -3451,7 +3452,7 @@
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>379</v>
       </c>
@@ -3482,7 +3483,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>367</v>
       </c>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="O65"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>367</v>
       </c>
@@ -3542,7 +3543,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>367</v>
       </c>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="O67"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>367</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>367</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>367</v>
       </c>
@@ -3657,7 +3658,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>352</v>
       </c>
@@ -3690,7 +3691,7 @@
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>363</v>
       </c>
@@ -3719,7 +3720,7 @@
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>434</v>
       </c>
@@ -3748,7 +3749,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>434</v>
       </c>
@@ -3777,7 +3778,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>360</v>
       </c>
@@ -3810,7 +3811,7 @@
       </c>
       <c r="O75"/>
     </row>
-    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>360</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>356</v>
       </c>
@@ -4005,7 +4006,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>379</v>
       </c>
@@ -4078,7 +4079,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>356</v>
       </c>
@@ -4158,7 +4159,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>356</v>
       </c>
@@ -4237,7 +4238,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>379</v>
       </c>
@@ -4354,7 +4355,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>356</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>384</v>
       </c>
@@ -4481,7 +4482,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>385</v>
       </c>
@@ -4562,7 +4563,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>384</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>385</v>
       </c>
@@ -4605,7 +4606,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>384</v>
       </c>
@@ -4674,7 +4675,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>384</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>384</v>
       </c>
@@ -4772,7 +4773,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>384</v>
       </c>
@@ -4795,7 +4796,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>385</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>360</v>
       </c>
@@ -4857,7 +4858,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>379</v>
       </c>
@@ -4888,7 +4889,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>367</v>
       </c>
@@ -4922,7 +4923,7 @@
       </c>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>367</v>
       </c>
@@ -4955,7 +4956,7 @@
       </c>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>367</v>
       </c>
@@ -4989,7 +4990,7 @@
       </c>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>367</v>
       </c>
@@ -5023,7 +5024,7 @@
       </c>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>367</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>367</v>
       </c>
@@ -5077,7 +5078,7 @@
       </c>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>367</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>staff.php</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>367</v>
       </c>
@@ -5124,7 +5125,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>367</v>
       </c>
@@ -5144,7 +5145,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>367</v>
       </c>
@@ -5168,7 +5169,7 @@
         <v>staff_get.php</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>367</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>staff_patch.php</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>367</v>
       </c>
@@ -5243,7 +5244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>356</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>356</v>
       </c>
@@ -5286,7 +5287,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>356</v>
       </c>
@@ -5306,7 +5307,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>381</v>
       </c>
@@ -5340,7 +5341,7 @@
       </c>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>440</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>367</v>
       </c>
@@ -5387,7 +5388,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>367</v>
       </c>
@@ -5414,7 +5415,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>367</v>
       </c>
@@ -5441,7 +5442,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>367</v>
       </c>
@@ -5468,7 +5469,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>367</v>
       </c>
@@ -5495,7 +5496,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>367</v>
       </c>
@@ -5522,7 +5523,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>360</v>
       </c>
@@ -5548,7 +5549,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>352</v>
       </c>
@@ -5593,7 +5594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>356</v>
       </c>
@@ -5622,7 +5623,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>352</v>
       </c>
@@ -5653,7 +5654,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>356</v>
       </c>
@@ -5676,7 +5677,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>381</v>
       </c>
@@ -5735,7 +5736,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>356</v>
       </c>
@@ -5755,7 +5756,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>367</v>
       </c>
@@ -5782,7 +5783,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>367</v>
       </c>
@@ -5808,7 +5809,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>367</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>367</v>
       </c>
@@ -5862,7 +5863,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>367</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>356</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>356</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>356</v>
       </c>
@@ -6159,7 +6160,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>356</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>352</v>
       </c>
@@ -6208,7 +6209,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>356</v>
       </c>
@@ -6230,6 +6231,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O156">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="UI"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:O156">
       <sortCondition ref="B1:B156"/>
     </sortState>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="448">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1398,6 +1398,12 @@
   </si>
   <si>
     <t>Logging utilities</t>
+  </si>
+  <si>
+    <t>adminBackup.php</t>
+  </si>
+  <si>
+    <t>System backup interface</t>
   </si>
 </sst>
 </file>
@@ -1758,12 +1764,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O156"/>
+  <dimension ref="A1:O157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A7" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <pane ySplit="615" topLeftCell="A138" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,7 +1827,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>381</v>
       </c>
@@ -1849,7 +1854,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>381</v>
       </c>
@@ -1879,7 +1884,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>379</v>
       </c>
@@ -1909,7 +1914,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>381</v>
       </c>
@@ -1945,7 +1950,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>381</v>
       </c>
@@ -2044,7 +2049,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>356</v>
       </c>
@@ -2098,7 +2103,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>356</v>
       </c>
@@ -2118,7 +2123,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>379</v>
       </c>
@@ -2165,7 +2170,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>356</v>
       </c>
@@ -2221,7 +2226,7 @@
         <v>adminShowUsers.php</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>356</v>
       </c>
@@ -2244,7 +2249,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>367</v>
       </c>
@@ -2288,7 +2293,7 @@
       </c>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>356</v>
       </c>
@@ -2329,7 +2334,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>379</v>
       </c>
@@ -2367,7 +2372,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>367</v>
       </c>
@@ -2390,7 +2395,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>367</v>
       </c>
@@ -2413,7 +2418,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>367</v>
       </c>
@@ -2430,7 +2435,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>367</v>
       </c>
@@ -2499,7 +2504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>356</v>
       </c>
@@ -2576,7 +2581,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>356</v>
       </c>
@@ -2611,7 +2616,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>352</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>367</v>
       </c>
@@ -2657,7 +2662,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>367</v>
       </c>
@@ -2686,7 +2691,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>367</v>
       </c>
@@ -2706,7 +2711,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>367</v>
       </c>
@@ -2735,7 +2740,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>380</v>
       </c>
@@ -2768,7 +2773,7 @@
       </c>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>360</v>
       </c>
@@ -2794,7 +2799,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>379</v>
       </c>
@@ -2824,7 +2829,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>381</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>360</v>
       </c>
@@ -2926,7 +2931,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>356</v>
       </c>
@@ -2955,7 +2960,7 @@
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>367</v>
       </c>
@@ -2984,7 +2989,7 @@
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>367</v>
       </c>
@@ -3013,7 +3018,7 @@
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>367</v>
       </c>
@@ -3042,7 +3047,7 @@
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>367</v>
       </c>
@@ -3071,7 +3076,7 @@
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>366</v>
       </c>
@@ -3091,7 +3096,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>379</v>
       </c>
@@ -3118,7 +3123,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>379</v>
       </c>
@@ -3144,7 +3149,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>379</v>
       </c>
@@ -3178,7 +3183,7 @@
       </c>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>379</v>
       </c>
@@ -3205,7 +3210,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>379</v>
       </c>
@@ -3239,7 +3244,7 @@
       </c>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>379</v>
       </c>
@@ -3266,7 +3271,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>379</v>
       </c>
@@ -3310,7 +3315,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>367</v>
       </c>
@@ -3330,7 +3335,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>367</v>
       </c>
@@ -3350,7 +3355,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>367</v>
       </c>
@@ -3369,7 +3374,7 @@
       <c r="G59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>367</v>
       </c>
@@ -3388,7 +3393,7 @@
       <c r="G60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>367</v>
       </c>
@@ -3407,7 +3412,7 @@
       <c r="G61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>367</v>
       </c>
@@ -3426,7 +3431,7 @@
       <c r="G62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>360</v>
       </c>
@@ -3452,7 +3457,7 @@
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>379</v>
       </c>
@@ -3483,7 +3488,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>367</v>
       </c>
@@ -3517,7 +3522,7 @@
       </c>
       <c r="O65"/>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>367</v>
       </c>
@@ -3543,7 +3548,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>367</v>
       </c>
@@ -3577,7 +3582,7 @@
       </c>
       <c r="O67"/>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>367</v>
       </c>
@@ -3604,7 +3609,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>367</v>
       </c>
@@ -3631,7 +3636,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>367</v>
       </c>
@@ -3658,7 +3663,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>352</v>
       </c>
@@ -3691,7 +3696,7 @@
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>363</v>
       </c>
@@ -3720,7 +3725,7 @@
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>434</v>
       </c>
@@ -3749,7 +3754,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>434</v>
       </c>
@@ -3778,7 +3783,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>360</v>
       </c>
@@ -3811,7 +3816,7 @@
       </c>
       <c r="O75"/>
     </row>
-    <row r="76" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>360</v>
       </c>
@@ -3887,7 +3892,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>356</v>
       </c>
@@ -4006,7 +4011,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>379</v>
       </c>
@@ -4079,7 +4084,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>356</v>
       </c>
@@ -4159,7 +4164,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>356</v>
       </c>
@@ -4238,7 +4243,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>379</v>
       </c>
@@ -4355,7 +4360,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>356</v>
       </c>
@@ -4459,7 +4464,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>384</v>
       </c>
@@ -4482,7 +4487,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>385</v>
       </c>
@@ -4563,7 +4568,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>384</v>
       </c>
@@ -4586,7 +4591,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>385</v>
       </c>
@@ -4606,7 +4611,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>384</v>
       </c>
@@ -4675,7 +4680,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>384</v>
       </c>
@@ -4721,7 +4726,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>384</v>
       </c>
@@ -4773,7 +4778,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>384</v>
       </c>
@@ -4796,7 +4801,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>385</v>
       </c>
@@ -4822,7 +4827,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>360</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>379</v>
       </c>
@@ -4889,7 +4894,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>367</v>
       </c>
@@ -4923,7 +4928,7 @@
       </c>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>367</v>
       </c>
@@ -4956,7 +4961,7 @@
       </c>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>367</v>
       </c>
@@ -4990,7 +4995,7 @@
       </c>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>367</v>
       </c>
@@ -5024,7 +5029,7 @@
       </c>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>367</v>
       </c>
@@ -5044,7 +5049,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>367</v>
       </c>
@@ -5078,7 +5083,7 @@
       </c>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>367</v>
       </c>
@@ -5102,7 +5107,7 @@
         <v>staff.php</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>367</v>
       </c>
@@ -5125,7 +5130,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>367</v>
       </c>
@@ -5145,7 +5150,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>367</v>
       </c>
@@ -5169,7 +5174,7 @@
         <v>staff_get.php</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>367</v>
       </c>
@@ -5193,7 +5198,7 @@
         <v>staff_patch.php</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>367</v>
       </c>
@@ -5244,7 +5249,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>356</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>356</v>
       </c>
@@ -5287,7 +5292,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>356</v>
       </c>
@@ -5307,7 +5312,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>381</v>
       </c>
@@ -5341,7 +5346,7 @@
       </c>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>440</v>
       </c>
@@ -5361,7 +5366,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>367</v>
       </c>
@@ -5388,7 +5393,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>367</v>
       </c>
@@ -5415,7 +5420,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>367</v>
       </c>
@@ -5442,7 +5447,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>367</v>
       </c>
@@ -5469,7 +5474,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>367</v>
       </c>
@@ -5496,7 +5501,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>367</v>
       </c>
@@ -5523,7 +5528,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>360</v>
       </c>
@@ -5549,7 +5554,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>352</v>
       </c>
@@ -5594,7 +5599,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
         <v>356</v>
       </c>
@@ -5623,7 +5628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
         <v>352</v>
       </c>
@@ -5654,7 +5659,7 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
     </row>
-    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
         <v>356</v>
       </c>
@@ -5677,7 +5682,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>381</v>
       </c>
@@ -5736,7 +5741,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>356</v>
       </c>
@@ -5756,7 +5761,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
         <v>367</v>
       </c>
@@ -5783,7 +5788,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
         <v>367</v>
       </c>
@@ -5809,7 +5814,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>367</v>
       </c>
@@ -5836,7 +5841,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>367</v>
       </c>
@@ -5863,7 +5868,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
         <v>367</v>
       </c>
@@ -5936,7 +5941,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
         <v>356</v>
       </c>
@@ -6011,7 +6016,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>356</v>
       </c>
@@ -6086,7 +6091,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>356</v>
       </c>
@@ -6160,7 +6165,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>356</v>
       </c>
@@ -6189,7 +6194,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>352</v>
       </c>
@@ -6209,7 +6214,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>356</v>
       </c>
@@ -6229,13 +6234,28 @@
         <v>222</v>
       </c>
     </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B157" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" t="s">
+        <v>97</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F157" t="s">
+        <v>447</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O156">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="UI"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:O156">
       <sortCondition ref="B1:B156"/>
     </sortState>
@@ -6247,9 +6267,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6257,7 +6279,7 @@
     <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>280</v>
       </c>
@@ -6266,14 +6288,17 @@
         <v>addComment.php</v>
       </c>
       <c r="F1" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="G1" t="str">
         <f>VLOOKUP(F1,Current!B$2:B$193,1,FALSE)</f>
-        <v>adminHelpAddEdit.php</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>adminBackup.php</v>
+      </c>
+      <c r="J1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6282,14 +6307,17 @@
         <v>addPatient.php</v>
       </c>
       <c r="F2" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(F2,Current!B$2:B$193,1,FALSE)</f>
-        <v>adminHome.php</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>adminHelpAddEdit.php</v>
+      </c>
+      <c r="J2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6298,14 +6326,17 @@
         <v>addPatientImage.php</v>
       </c>
       <c r="F3" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="G3" t="str">
         <f>VLOOKUP(F3,Current!B$2:B$193,1,FALSE)</f>
-        <v>adminLogViewer.php</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>adminHome.php</v>
+      </c>
+      <c r="J3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6314,14 +6345,17 @@
         <v>addPatientVisit.php</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(F4,Current!B$2:B$193,1,FALSE)</f>
-        <v>adminShowComments.php</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>adminLogViewer.php</v>
+      </c>
+      <c r="J4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>243</v>
       </c>
@@ -6330,14 +6364,17 @@
         <v>addStaff.php</v>
       </c>
       <c r="F5" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(F5,Current!B$2:B$193,1,FALSE)</f>
-        <v>adminShowUsers.php</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>adminShowComments.php</v>
+      </c>
+      <c r="J5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -6346,14 +6383,17 @@
         <v>adminHome.php</v>
       </c>
       <c r="F6" t="s">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="G6" t="str">
         <f>VLOOKUP(F6,Current!B$2:B$193,1,FALSE)</f>
-        <v>appMenu.php</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>adminShowUsers.php</v>
+      </c>
+      <c r="J6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -6362,14 +6402,17 @@
         <v>adminHomeText.php</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(F7,Current!B$2:B$193,1,FALSE)</f>
-        <v>clinicDash.php</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>appMenu.php</v>
+      </c>
+      <c r="J7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -6378,14 +6421,17 @@
         <v>adminLogViewer.php</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="G8" t="str">
         <f>VLOOKUP(F8,Current!B$2:B$193,1,FALSE)</f>
-        <v>clinicLogin.php</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>clinicDash.php</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -6394,14 +6440,17 @@
         <v>adminLogViewerText.php</v>
       </c>
       <c r="F9" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="G9" t="str">
         <f>VLOOKUP(F9,Current!B$2:B$193,1,FALSE)</f>
-        <v>code39.php</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>clinicLogin.php</v>
+      </c>
+      <c r="J9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -6410,14 +6459,17 @@
         <v>adminShowComments.php</v>
       </c>
       <c r="F10" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(F10,Current!B$2:B$193,1,FALSE)</f>
-        <v>helpHome.php</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>code39.php</v>
+      </c>
+      <c r="J10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -6426,14 +6478,17 @@
         <v>adminShowCommentsText.php</v>
       </c>
       <c r="F11" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="G11" t="str">
         <f>VLOOKUP(F11,Current!B$2:B$193,1,FALSE)</f>
-        <v>index.php</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>helpHome.php</v>
+      </c>
+      <c r="J11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>246</v>
       </c>
@@ -6442,14 +6497,17 @@
         <v>adminShowUsers.php</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="G12" t="str">
         <f>VLOOKUP(F12,Current!B$2:B$193,1,FALSE)</f>
-        <v>phpinfo.php</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>index.php</v>
+      </c>
+      <c r="J12" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>247</v>
       </c>
@@ -6458,14 +6516,17 @@
         <v>adminShowUsersText.php</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G13" t="str">
         <f>VLOOKUP(F13,Current!B$2:B$193,1,FALSE)</f>
-        <v>ptAddEdit.php</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>phpinfo.php</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -6474,14 +6535,17 @@
         <v>api_common.php</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G14" t="str">
         <f>VLOOKUP(F14,Current!B$2:B$193,1,FALSE)</f>
-        <v>ptInfo.php</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>ptAddEdit.php</v>
+      </c>
+      <c r="J14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -6490,14 +6554,17 @@
         <v>appMenuText.php</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(F15,Current!B$2:B$193,1,FALSE)</f>
-        <v>ptResults.php</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>ptInfo.php</v>
+      </c>
+      <c r="J15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>347</v>
       </c>
@@ -6506,14 +6573,17 @@
         <v>#N/A</v>
       </c>
       <c r="F16" t="s">
-        <v>355</v>
+        <v>90</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(F16,Current!B$2:B$193,1,FALSE)</f>
-        <v>reportHome.php</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>ptResults.php</v>
+      </c>
+      <c r="J16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>321</v>
       </c>
@@ -6522,14 +6592,17 @@
         <v>#N/A</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>355</v>
       </c>
       <c r="G17" t="str">
         <f>VLOOKUP(F17,Current!B$2:B$193,1,FALSE)</f>
-        <v>staffAddEdit.php</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>reportHome.php</v>
+      </c>
+      <c r="J17" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>329</v>
       </c>
@@ -6538,14 +6611,17 @@
         <v>ataEntryText.php</v>
       </c>
       <c r="F18" t="s">
-        <v>320</v>
+        <v>249</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(F18,Current!B$2:B$193,1,FALSE)</f>
-        <v>staffUiStrings.php</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>staffAddEdit.php</v>
+      </c>
+      <c r="J18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>330</v>
       </c>
@@ -6554,14 +6630,17 @@
         <v>ataVisitEdit.php</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>320</v>
       </c>
       <c r="G19" t="str">
         <f>VLOOKUP(F19,Current!B$2:B$193,1,FALSE)</f>
-        <v>uiErrorMessage.php</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>staffUiStrings.php</v>
+      </c>
+      <c r="J19" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -6570,14 +6649,17 @@
         <v>clinicDash.php</v>
       </c>
       <c r="F20" t="s">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="G20" t="str">
         <f>VLOOKUP(F20,Current!B$2:B$193,1,FALSE)</f>
-        <v>uiSessionInfo.php</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>uiErrorMessage.php</v>
+      </c>
+      <c r="J20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -6586,14 +6668,17 @@
         <v>clinicDashText.php</v>
       </c>
       <c r="F21" t="s">
-        <v>289</v>
+        <v>233</v>
       </c>
       <c r="G21" t="str">
         <f>VLOOKUP(F21,Current!B$2:B$193,1,FALSE)</f>
-        <v>userComment.php</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>uiSessionInfo.php</v>
+      </c>
+      <c r="J21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -6602,14 +6687,17 @@
         <v>clinicLogin.php</v>
       </c>
       <c r="F22" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="G22" t="str">
         <f>VLOOKUP(F22,Current!B$2:B$193,1,FALSE)</f>
-        <v>visitClose.php</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>userComment.php</v>
+      </c>
+      <c r="J22" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>190</v>
       </c>
@@ -6618,14 +6706,17 @@
         <v>clinicLoginText.php</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" t="str">
         <f>VLOOKUP(F23,Current!B$2:B$193,1,FALSE)</f>
-        <v>visitEdit.php</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>visitClose.php</v>
+      </c>
+      <c r="J23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>304</v>
       </c>
@@ -6634,14 +6725,17 @@
         <v>code39.php</v>
       </c>
       <c r="F24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G24" t="str">
         <f>VLOOKUP(F24,Current!B$2:B$193,1,FALSE)</f>
-        <v>visitInfo.php</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>visitEdit.php</v>
+      </c>
+      <c r="J24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>283</v>
       </c>
@@ -6650,14 +6744,17 @@
         <v>comment.php</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G25" t="str">
         <f>VLOOKUP(F25,Current!B$2:B$193,1,FALSE)</f>
-        <v>visitOpen.php</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>visitInfo.php</v>
+      </c>
+      <c r="J25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -6666,14 +6763,17 @@
         <v>comment_common.php</v>
       </c>
       <c r="F26" t="s">
-        <v>332</v>
+        <v>95</v>
       </c>
       <c r="G26" t="str">
         <f>VLOOKUP(F26,Current!B$2:B$193,1,FALSE)</f>
-        <v>visitUiStrings.php</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>visitOpen.php</v>
+      </c>
+      <c r="J26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>285</v>
       </c>
@@ -6681,8 +6781,18 @@
         <f>VLOOKUP(A27,Current!B$2:B$143,1,FALSE)</f>
         <v>comment_get.php</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>332</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,Current!B$2:B$193,1,FALSE)</f>
+        <v>visitUiStrings.php</v>
+      </c>
+      <c r="J27" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>286</v>
       </c>
@@ -6691,7 +6801,7 @@
         <v>comment_post.php</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6699,15 +6809,12 @@
         <f>VLOOKUP(A29,Current!B$2:B$143,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="F29" t="s">
-        <v>406</v>
-      </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F29,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F30,Current!B$2:B$193,1,FALSE)</f>
         <v>rptDailyLogHome.php</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -6716,14 +6823,14 @@
         <v>dbPass.php</v>
       </c>
       <c r="F30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F30,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F31,Current!B$2:B$193,1,FALSE)</f>
         <v>rptDailyLogMenu.php</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -6732,14 +6839,14 @@
         <v>#N/A</v>
       </c>
       <c r="F31" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F31,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F32,Current!B$2:B$193,1,FALSE)</f>
         <v>rptDailyPmtHome.php</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -6748,10 +6855,10 @@
         <v>deletePatientImage.php</v>
       </c>
       <c r="F32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F32,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F33,Current!B$2:B$193,1,FALSE)</f>
         <v>rptDailyPmtMenu.php</v>
       </c>
     </row>
@@ -6764,10 +6871,10 @@
         <v>endUiSession.php</v>
       </c>
       <c r="F33" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(F33,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F34,Current!B$2:B$193,1,FALSE)</f>
         <v>rptGroups.php</v>
       </c>
     </row>
@@ -6780,10 +6887,10 @@
         <v>headTag.php</v>
       </c>
       <c r="F34" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F34,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F35,Current!B$2:B$193,1,FALSE)</f>
         <v>rptMonthlyPmtHome.php</v>
       </c>
     </row>
@@ -6796,10 +6903,10 @@
         <v>helpHome.php</v>
       </c>
       <c r="F35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F35,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F36,Current!B$2:B$193,1,FALSE)</f>
         <v>rptMonthlyPmtMenu.php</v>
       </c>
     </row>
@@ -6812,10 +6919,10 @@
         <v>helpHomeText.php</v>
       </c>
       <c r="F36" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(F36,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F37,Current!B$2:B$193,1,FALSE)</f>
         <v>rptMonthlyPosSummHome.php</v>
       </c>
     </row>
@@ -6828,10 +6935,10 @@
         <v>icd.php</v>
       </c>
       <c r="F37" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F37,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F38,Current!B$2:B$193,1,FALSE)</f>
         <v>rptMonthlyPosSummMenu.php</v>
       </c>
     </row>
@@ -6844,10 +6951,10 @@
         <v>icd_common.php</v>
       </c>
       <c r="F38" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F38,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F39,Current!B$2:B$193,1,FALSE)</f>
         <v>rptMonthlyPtSummHome.php</v>
       </c>
     </row>
@@ -6860,10 +6967,10 @@
         <v>icd_get.php</v>
       </c>
       <c r="F39" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F39,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F40,Current!B$2:B$193,1,FALSE)</f>
         <v>rptMonthlyPtSummMenu.php</v>
       </c>
     </row>
@@ -6875,6 +6982,9 @@
         <f>VLOOKUP(A40,Current!B$2:B$143,1,FALSE)</f>
         <v>icd_patch.php</v>
       </c>
+      <c r="F40" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -6884,11 +6994,8 @@
         <f>VLOOKUP(A41,Current!B$2:B$143,1,FALSE)</f>
         <v>image.php</v>
       </c>
-      <c r="F41" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F41,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F42,Current!B$2:B$193,1,FALSE)</f>
         <v>api_common.php</v>
       </c>
     </row>
@@ -6901,10 +7008,10 @@
         <v>image_common.php</v>
       </c>
       <c r="F42" t="s">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(F42,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F43,Current!B$2:B$193,1,FALSE)</f>
         <v>clinic.php</v>
       </c>
     </row>
@@ -6917,10 +7024,10 @@
         <v>image_delete.php</v>
       </c>
       <c r="F43" t="s">
-        <v>417</v>
+        <v>368</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F43,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F44,Current!B$2:B$193,1,FALSE)</f>
         <v>clinic_common.php</v>
       </c>
     </row>
@@ -6933,10 +7040,10 @@
         <v>image_get.php</v>
       </c>
       <c r="F44" t="s">
-        <v>370</v>
+        <v>417</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F44,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F45,Current!B$2:B$193,1,FALSE)</f>
         <v>clinic_get.php</v>
       </c>
     </row>
@@ -6949,10 +7056,10 @@
         <v>image_patch.php</v>
       </c>
       <c r="F45" t="s">
-        <v>283</v>
+        <v>370</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(F45,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F46,Current!B$2:B$193,1,FALSE)</f>
         <v>comment.php</v>
       </c>
     </row>
@@ -6965,10 +7072,10 @@
         <v>image_post.php</v>
       </c>
       <c r="F46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(F46,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F47,Current!B$2:B$193,1,FALSE)</f>
         <v>comment_common.php</v>
       </c>
     </row>
@@ -6981,10 +7088,10 @@
         <v>image_put.php</v>
       </c>
       <c r="F47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F47,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F48,Current!B$2:B$193,1,FALSE)</f>
         <v>comment_get.php</v>
       </c>
     </row>
@@ -6997,10 +7104,10 @@
         <v>pass.php</v>
       </c>
       <c r="F48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F48,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F49,Current!B$2:B$193,1,FALSE)</f>
         <v>comment_post.php</v>
       </c>
     </row>
@@ -7013,10 +7120,10 @@
         <v>patient.php</v>
       </c>
       <c r="F49" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F49,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F50,Current!B$2:B$193,1,FALSE)</f>
         <v>icd.php</v>
       </c>
     </row>
@@ -7029,10 +7136,10 @@
         <v>patient_common.php</v>
       </c>
       <c r="F50" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(F50,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F51,Current!B$2:B$193,1,FALSE)</f>
         <v>icd_common.php</v>
       </c>
     </row>
@@ -7045,10 +7152,10 @@
         <v>patient_delete.php</v>
       </c>
       <c r="F51" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(F51,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F52,Current!B$2:B$193,1,FALSE)</f>
         <v>icd_get.php</v>
       </c>
     </row>
@@ -7061,10 +7168,10 @@
         <v>patient_get.php</v>
       </c>
       <c r="F52" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(F52,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F53,Current!B$2:B$193,1,FALSE)</f>
         <v>icd_patch.php</v>
       </c>
     </row>
@@ -7077,10 +7184,10 @@
         <v>patient_patch.php</v>
       </c>
       <c r="F53" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(F53,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F54,Current!B$2:B$193,1,FALSE)</f>
         <v>locImage.php</v>
       </c>
     </row>
@@ -7093,10 +7200,10 @@
         <v>patient_post.php</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(F54,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F55,Current!B$2:B$193,1,FALSE)</f>
         <v>locImage_get.php</v>
       </c>
     </row>
@@ -7109,10 +7216,10 @@
         <v>phpinfo.php</v>
       </c>
       <c r="F55" t="s">
-        <v>371</v>
+        <v>419</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(F55,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F56,Current!B$2:B$193,1,FALSE)</f>
         <v>log.php</v>
       </c>
     </row>
@@ -7125,10 +7232,10 @@
         <v>profile.php</v>
       </c>
       <c r="F56" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(F56,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F57,Current!B$2:B$193,1,FALSE)</f>
         <v>log_common.php</v>
       </c>
     </row>
@@ -7141,10 +7248,10 @@
         <v>ptAddEdit.php</v>
       </c>
       <c r="F57" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(F57,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F58,Current!B$2:B$193,1,FALSE)</f>
         <v>log_get.php</v>
       </c>
     </row>
@@ -7157,10 +7264,10 @@
         <v>ptAddEditText.php</v>
       </c>
       <c r="F58" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(F58,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F59,Current!B$2:B$193,1,FALSE)</f>
         <v>log_post.php</v>
       </c>
     </row>
@@ -7173,10 +7280,10 @@
         <v>ptImageDeleteConfirm.php</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>374</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(F59,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F60,Current!B$2:B$193,1,FALSE)</f>
         <v>patient.php</v>
       </c>
     </row>
@@ -7189,10 +7296,10 @@
         <v>ptImageEdit.php</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(F60,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F61,Current!B$2:B$193,1,FALSE)</f>
         <v>patient_common.php</v>
       </c>
     </row>
@@ -7205,10 +7312,10 @@
         <v>ptImageEditText.php</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(F61,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F62,Current!B$2:B$193,1,FALSE)</f>
         <v>patient_delete.php</v>
       </c>
     </row>
@@ -7221,10 +7328,10 @@
         <v>ptInfo.php</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(F62,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F63,Current!B$2:B$193,1,FALSE)</f>
         <v>patient_get.php</v>
       </c>
     </row>
@@ -7237,10 +7344,10 @@
         <v>ptInfoText.php</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(F63,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F64,Current!B$2:B$193,1,FALSE)</f>
         <v>patient_patch.php</v>
       </c>
     </row>
@@ -7253,10 +7360,10 @@
         <v>ptResults.php</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G64" t="str">
-        <f>VLOOKUP(F64,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F65,Current!B$2:B$193,1,FALSE)</f>
         <v>patient_post.php</v>
       </c>
     </row>
@@ -7269,10 +7376,10 @@
         <v>ptResultsText.php</v>
       </c>
       <c r="F65" t="s">
-        <v>194</v>
+        <v>18</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(F65,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F66,Current!B$2:B$193,1,FALSE)</f>
         <v>session.php</v>
       </c>
     </row>
@@ -7285,10 +7392,10 @@
         <v>ptSearch.php</v>
       </c>
       <c r="F66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(F66,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F67,Current!B$2:B$193,1,FALSE)</f>
         <v>session_common.php</v>
       </c>
     </row>
@@ -7301,10 +7408,10 @@
         <v>ptSearchText.php</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(F67,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F68,Current!B$2:B$193,1,FALSE)</f>
         <v>session_delete.php</v>
       </c>
     </row>
@@ -7317,10 +7424,10 @@
         <v>ptVisitImageView.php</v>
       </c>
       <c r="F68" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(F68,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F69,Current!B$2:B$193,1,FALSE)</f>
         <v>session_get.php</v>
       </c>
     </row>
@@ -7333,10 +7440,10 @@
         <v>rptDailyLog.php</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>197</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(F69,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F70,Current!B$2:B$193,1,FALSE)</f>
         <v>session_patch.php</v>
       </c>
     </row>
@@ -7349,10 +7456,10 @@
         <v>rptDailyLogText.php</v>
       </c>
       <c r="F70" t="s">
-        <v>198</v>
+        <v>420</v>
       </c>
       <c r="G70" t="str">
-        <f>VLOOKUP(F70,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F71,Current!B$2:B$193,1,FALSE)</f>
         <v>session_post.php</v>
       </c>
     </row>
@@ -7365,10 +7472,10 @@
         <v>rptDailyPmt.php</v>
       </c>
       <c r="F71" t="s">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(F71,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F72,Current!B$2:B$193,1,FALSE)</f>
         <v>staff.php</v>
       </c>
     </row>
@@ -7381,10 +7488,10 @@
         <v>rptDailyPmtText.php</v>
       </c>
       <c r="F72" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(F72,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F73,Current!B$2:B$193,1,FALSE)</f>
         <v>staff_common.php</v>
       </c>
     </row>
@@ -7397,10 +7504,10 @@
         <v>#N/A</v>
       </c>
       <c r="F73" t="s">
-        <v>421</v>
+        <v>251</v>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(F73,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F74,Current!B$2:B$193,1,FALSE)</f>
         <v>staff_delete.php</v>
       </c>
     </row>
@@ -7413,10 +7520,10 @@
         <v>#N/A</v>
       </c>
       <c r="F74" t="s">
-        <v>252</v>
+        <v>421</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(F74,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F75,Current!B$2:B$193,1,FALSE)</f>
         <v>staff_get.php</v>
       </c>
     </row>
@@ -7429,10 +7536,10 @@
         <v>rptMonthlyPmt.php</v>
       </c>
       <c r="F75" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(F75,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F76,Current!B$2:B$193,1,FALSE)</f>
         <v>staff_patch.php</v>
       </c>
     </row>
@@ -7445,10 +7552,10 @@
         <v>#N/A</v>
       </c>
       <c r="F76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(F76,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F77,Current!B$2:B$193,1,FALSE)</f>
         <v>staff_post.php</v>
       </c>
     </row>
@@ -7461,10 +7568,10 @@
         <v>#N/A</v>
       </c>
       <c r="F77" t="s">
-        <v>375</v>
+        <v>254</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(F77,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F78,Current!B$2:B$193,1,FALSE)</f>
         <v>textmsg.php</v>
       </c>
     </row>
@@ -7477,10 +7584,10 @@
         <v>rptMonthlySummaryText.php</v>
       </c>
       <c r="F78" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(F78,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F79,Current!B$2:B$193,1,FALSE)</f>
         <v>textmsg_common.php</v>
       </c>
     </row>
@@ -7493,10 +7600,10 @@
         <v>security.php</v>
       </c>
       <c r="F79" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(F79,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F80,Current!B$2:B$193,1,FALSE)</f>
         <v>textmsg_delete.php</v>
       </c>
     </row>
@@ -7509,10 +7616,10 @@
         <v>securityText.php</v>
       </c>
       <c r="F80" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(F80,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F81,Current!B$2:B$193,1,FALSE)</f>
         <v>textmsg_get.php</v>
       </c>
     </row>
@@ -7525,10 +7632,10 @@
         <v>session.php</v>
       </c>
       <c r="F81" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(F81,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F82,Current!B$2:B$193,1,FALSE)</f>
         <v>textmsg_patch.php</v>
       </c>
     </row>
@@ -7541,10 +7648,10 @@
         <v>session_common.php</v>
       </c>
       <c r="F82" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(F82,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F83,Current!B$2:B$193,1,FALSE)</f>
         <v>textmsg_post.php</v>
       </c>
     </row>
@@ -7557,10 +7664,10 @@
         <v>session_delete.php</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
+        <v>378</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(F83,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F84,Current!B$2:B$193,1,FALSE)</f>
         <v>visit.php</v>
       </c>
     </row>
@@ -7573,10 +7680,10 @@
         <v>session_get.php</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(F84,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F85,Current!B$2:B$193,1,FALSE)</f>
         <v>visit_common.php</v>
       </c>
     </row>
@@ -7589,10 +7696,10 @@
         <v>session_post.php</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(F85,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F86,Current!B$2:B$193,1,FALSE)</f>
         <v>visit_get.php</v>
       </c>
     </row>
@@ -7605,10 +7712,10 @@
         <v>staff.php</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(F86,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F87,Current!B$2:B$193,1,FALSE)</f>
         <v>visit_patch.php</v>
       </c>
     </row>
@@ -7621,10 +7728,10 @@
         <v>staffAddEdit.php</v>
       </c>
       <c r="F87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(F87,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F88,Current!B$2:B$193,1,FALSE)</f>
         <v>visit_post.php</v>
       </c>
     </row>
@@ -7635,6 +7742,9 @@
       <c r="B88" t="str">
         <f>VLOOKUP(A88,Current!B$2:B$143,1,FALSE)</f>
         <v>staffAddEditText.php</v>
+      </c>
+      <c r="F88" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\bobw\Documents\GitHub\docsbydesign\piClinic\tools\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EC751-0FF9-450E-8224-D566191458DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="20730" windowHeight="11700" tabRatio="388"/>
+    <workbookView xWindow="5934" yWindow="3396" windowWidth="20076" windowHeight="11286" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
@@ -13,14 +19,22 @@
     <sheet name="Workflows" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$O$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$O$158</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="450">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1405,11 +1419,17 @@
   <si>
     <t>System backup interface</t>
   </si>
+  <si>
+    <t>visitClinicForm0.php</t>
+  </si>
+  <si>
+    <t>UI to print clinic visit form from</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1473,6 +1493,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1520,7 +1543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1553,9 +1576,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1588,6 +1628,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1763,27 +1820,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O157"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A138" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="G157" sqref="G157"/>
+      <pane ySplit="618" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.15625" style="4"/>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="3" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="43.85546875" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" customWidth="1"/>
-    <col min="8" max="13" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="43.83984375" customWidth="1"/>
+    <col min="7" max="7" width="44.41796875" customWidth="1"/>
+    <col min="8" max="13" width="20.68359375" customWidth="1"/>
     <col min="14" max="14" width="36" customWidth="1"/>
     <col min="15" max="15" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>351</v>
       </c>
@@ -1827,7 +1884,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>381</v>
       </c>
@@ -1854,7 +1911,7 @@
       <c r="N2"/>
       <c r="O2"/>
     </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>381</v>
       </c>
@@ -1884,7 +1941,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>379</v>
       </c>
@@ -1914,7 +1971,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>381</v>
       </c>
@@ -1950,7 +2007,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>381</v>
       </c>
@@ -1982,66 +2039,52 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>402</v>
+        <v>446</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>403</v>
+      <c r="F7" t="s">
+        <v>447</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>244</v>
+        <v>401</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>257</v>
+        <v>403</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1" t="str">
-        <f>VLOOKUP(B8,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>adminHome.php</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -2049,7 +2092,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>356</v>
       </c>
@@ -2080,14 +2123,14 @@
       <c r="N9"/>
       <c r="O9"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2096,14 +2139,25 @@
       <c r="E10" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F10" t="s">
-        <v>276</v>
+      <c r="F10" s="1" t="s">
+        <v>257</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="str">
+        <f>VLOOKUP(B10,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>adminHome.php</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>356</v>
       </c>
@@ -2123,7 +2177,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>379</v>
       </c>
@@ -2147,12 +2201,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -2164,13 +2218,13 @@
         <v>240</v>
       </c>
       <c r="F13" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>356</v>
       </c>
@@ -2199,12 +2253,12 @@
       <c r="N14"/>
       <c r="O14"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B15" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -2216,17 +2270,13 @@
         <v>240</v>
       </c>
       <c r="F15" t="s">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f>VLOOKUP(B15,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>adminShowUsers.php</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>356</v>
       </c>
@@ -2249,7 +2299,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>367</v>
       </c>
@@ -2275,25 +2325,34 @@
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>353</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>222</v>
+        <v>397</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F18" t="s">
+        <v>258</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f>VLOOKUP(B18,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>adminShowUsers.php</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>356</v>
       </c>
@@ -2313,28 +2372,25 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F20" t="s">
-        <v>334</v>
+      <c r="D20" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>379</v>
       </c>
@@ -2351,12 +2407,12 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B22" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -2366,13 +2422,13 @@
         <v>240</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>367</v>
       </c>
@@ -2395,7 +2451,7 @@
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>367</v>
       </c>
@@ -2418,7 +2474,7 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>367</v>
       </c>
@@ -2435,7 +2491,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>367</v>
       </c>
@@ -2458,53 +2514,28 @@
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B27" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>398</v>
-      </c>
+      <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>60</v>
+      <c r="F27" t="s">
+        <v>335</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f>VLOOKUP(B27,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>clinicDash.php</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>356</v>
       </c>
@@ -2533,55 +2564,53 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I29" s="1" t="e">
+        <v>217</v>
+      </c>
+      <c r="I29" s="1" t="str">
         <f>VLOOKUP(B29,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J29" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>clinicDash.php</v>
+      </c>
+      <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>356</v>
       </c>
@@ -2616,33 +2645,55 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B31" t="s">
-        <v>304</v>
-      </c>
-      <c r="C31" t="s">
-        <v>97</v>
+      <c r="B31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F31" t="s">
-        <v>307</v>
+        <v>239</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N31" t="s">
-        <v>311</v>
-      </c>
-      <c r="O31" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I31" s="1" t="e">
+        <f>VLOOKUP(B31,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>367</v>
       </c>
@@ -2662,7 +2713,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
         <v>367</v>
       </c>
@@ -2691,7 +2742,7 @@
       <c r="N33"/>
       <c r="O33"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>367</v>
       </c>
@@ -2711,7 +2762,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>367</v>
       </c>
@@ -2740,7 +2791,7 @@
       <c r="N35"/>
       <c r="O35"/>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
         <v>380</v>
       </c>
@@ -2773,7 +2824,7 @@
       </c>
       <c r="O36"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
         <v>360</v>
       </c>
@@ -2799,7 +2850,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>379</v>
       </c>
@@ -2829,7 +2880,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
         <v>381</v>
       </c>
@@ -2859,27 +2910,33 @@
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>383</v>
+      <c r="B40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C40" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" t="s">
+        <v>307</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N40" t="s">
+        <v>311</v>
+      </c>
+      <c r="O40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
         <v>360</v>
       </c>
@@ -2908,30 +2965,27 @@
       <c r="N41"/>
       <c r="O41"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B42" t="s">
-        <v>287</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B42" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F42" t="s">
-        <v>298</v>
+        <v>222</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
         <v>356</v>
       </c>
@@ -2960,7 +3014,7 @@
       <c r="N43"/>
       <c r="O43"/>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
         <v>367</v>
       </c>
@@ -2989,7 +3043,7 @@
       <c r="N44"/>
       <c r="O44"/>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
         <v>367</v>
       </c>
@@ -3018,7 +3072,7 @@
       <c r="N45"/>
       <c r="O45"/>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
         <v>367</v>
       </c>
@@ -3047,7 +3101,7 @@
       <c r="N46"/>
       <c r="O46"/>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
         <v>367</v>
       </c>
@@ -3076,7 +3130,7 @@
       <c r="N47"/>
       <c r="O47"/>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
         <v>366</v>
       </c>
@@ -3096,7 +3150,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
         <v>379</v>
       </c>
@@ -3123,7 +3177,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
         <v>379</v>
       </c>
@@ -3149,7 +3203,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4" t="s">
         <v>379</v>
       </c>
@@ -3183,7 +3237,7 @@
       </c>
       <c r="O51"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4" t="s">
         <v>379</v>
       </c>
@@ -3210,7 +3264,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4" t="s">
         <v>379</v>
       </c>
@@ -3244,7 +3298,7 @@
       </c>
       <c r="O53"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
         <v>379</v>
       </c>
@@ -3271,7 +3325,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
         <v>379</v>
       </c>
@@ -3298,24 +3352,30 @@
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B56" t="s">
-        <v>354</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>222</v>
+        <v>397</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F56" t="s">
+        <v>298</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
         <v>367</v>
       </c>
@@ -3335,7 +3395,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
         <v>367</v>
       </c>
@@ -3355,7 +3415,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4" t="s">
         <v>367</v>
       </c>
@@ -3374,7 +3434,7 @@
       <c r="G59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
         <v>367</v>
       </c>
@@ -3393,7 +3453,7 @@
       <c r="G60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4" t="s">
         <v>367</v>
       </c>
@@ -3412,7 +3472,7 @@
       <c r="G61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>367</v>
       </c>
@@ -3431,7 +3491,7 @@
       <c r="G62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4" t="s">
         <v>360</v>
       </c>
@@ -3457,7 +3517,7 @@
       <c r="N63"/>
       <c r="O63"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
         <v>379</v>
       </c>
@@ -3488,7 +3548,7 @@
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
     </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4" t="s">
         <v>367</v>
       </c>
@@ -3522,7 +3582,7 @@
       </c>
       <c r="O65"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
         <v>367</v>
       </c>
@@ -3548,7 +3608,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4" t="s">
         <v>367</v>
       </c>
@@ -3582,7 +3642,7 @@
       </c>
       <c r="O67"/>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
         <v>367</v>
       </c>
@@ -3609,7 +3669,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
         <v>367</v>
       </c>
@@ -3636,7 +3696,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>367</v>
       </c>
@@ -3663,32 +3723,26 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="C71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D71"/>
-      <c r="E71" t="s">
-        <v>239</v>
-      </c>
-      <c r="F71" t="s">
-        <v>105</v>
-      </c>
-      <c r="G71" t="s">
-        <v>222</v>
-      </c>
-      <c r="H71" t="s">
-        <v>106</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>271</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H71"/>
+      <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -3696,7 +3750,7 @@
       <c r="N71"/>
       <c r="O71"/>
     </row>
-    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
         <v>363</v>
       </c>
@@ -3725,7 +3779,7 @@
       <c r="N72"/>
       <c r="O72"/>
     </row>
-    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4" t="s">
         <v>434</v>
       </c>
@@ -3754,7 +3808,7 @@
       <c r="N73"/>
       <c r="O73"/>
     </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
         <v>434</v>
       </c>
@@ -3783,7 +3837,7 @@
       <c r="N74"/>
       <c r="O74"/>
     </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>360</v>
       </c>
@@ -3816,7 +3870,7 @@
       </c>
       <c r="O75"/>
     </row>
-    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
         <v>360</v>
       </c>
@@ -3847,52 +3901,40 @@
       <c r="N76"/>
       <c r="O76"/>
     </row>
-    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I77" s="1" t="e">
-        <f>VLOOKUP(B77,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K77" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+      <c r="D77"/>
+      <c r="E77" t="s">
+        <v>239</v>
+      </c>
+      <c r="F77" t="s">
+        <v>105</v>
+      </c>
+      <c r="G77" t="s">
+        <v>222</v>
+      </c>
+      <c r="H77" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+      <c r="O77"/>
+    </row>
+    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4" t="s">
         <v>356</v>
       </c>
@@ -3927,21 +3969,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D79" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="E79" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>221</v>
@@ -3963,18 +4008,18 @@
         <v>230</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>88</v>
+        <v>121</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>31</v>
@@ -3983,7 +4028,7 @@
         <v>240</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>221</v>
@@ -4004,14 +4049,14 @@
       <c r="M80" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="N80" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4" t="s">
         <v>379</v>
       </c>
@@ -4040,51 +4085,49 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="E82" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>271</v>
+      <c r="I82" s="1" t="e">
+        <f>VLOOKUP(B82,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
       </c>
       <c r="K82" s="1" t="s">
         <v>229</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4" t="s">
         <v>356</v>
       </c>
@@ -4119,12 +4162,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>31</v>
@@ -4136,17 +4179,16 @@
         <v>240</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I84" s="1" t="e">
-        <f>VLOOKUP(B84,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="I84" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>229</v>
@@ -4155,16 +4197,16 @@
         <v>229</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4" t="s">
         <v>356</v>
       </c>
@@ -4199,22 +4241,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="E86" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>219</v>
@@ -4243,7 +4287,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4" t="s">
         <v>379</v>
       </c>
@@ -4272,12 +4316,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>31</v>
@@ -4287,10 +4331,10 @@
         <v>240</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>217</v>
@@ -4306,35 +4350,35 @@
       <c r="L88" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M88" s="1"/>
+      <c r="M88" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="N88" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>355</v>
+        <v>122</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>217</v>
@@ -4350,17 +4394,15 @@
       <c r="L89" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="M89" s="1"/>
       <c r="N89" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4" t="s">
         <v>356</v>
       </c>
@@ -4395,24 +4437,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>110</v>
+        <v>355</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>219</v>
@@ -4434,25 +4476,25 @@
       <c r="M91" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N91" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B92" t="s">
-        <v>406</v>
-      </c>
-      <c r="C92" t="s">
+        <v>379</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>240</v>
@@ -4460,11 +4502,34 @@
       <c r="F92" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G92" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G92" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I92" s="1" t="e">
+        <f>VLOOKUP(B92,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N92" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4" t="s">
         <v>384</v>
       </c>
@@ -4487,7 +4552,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4" t="s">
         <v>385</v>
       </c>
@@ -4522,41 +4587,41 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B95" t="s">
-        <v>344</v>
+        <v>406</v>
       </c>
       <c r="C95" t="s">
         <v>31</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G95" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G95" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B96" t="s">
-        <v>408</v>
+        <v>344</v>
       </c>
       <c r="C96" t="s">
         <v>31</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>240</v>
@@ -4564,11 +4629,11 @@
       <c r="F96" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="4" t="s">
         <v>384</v>
       </c>
@@ -4591,7 +4656,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4" t="s">
         <v>385</v>
       </c>
@@ -4611,7 +4676,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4" t="s">
         <v>384</v>
       </c>
@@ -4634,41 +4699,41 @@
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B100" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="C100" t="s">
         <v>31</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G100" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="G100" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B101" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="C101" t="s">
         <v>31</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>240</v>
@@ -4676,11 +4741,11 @@
       <c r="F101" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4" t="s">
         <v>384</v>
       </c>
@@ -4703,30 +4768,30 @@
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B103" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="C103" t="s">
         <v>31</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F103" t="s">
-        <v>343</v>
+      <c r="F103" s="1" t="s">
+        <v>350</v>
       </c>
       <c r="G103" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4" t="s">
         <v>384</v>
       </c>
@@ -4749,12 +4814,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C105" t="s">
         <v>31</v>
@@ -4762,23 +4827,17 @@
       <c r="D105" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F105" t="s">
-        <v>308</v>
-      </c>
-      <c r="G105" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="G105" t="s">
         <v>220</v>
       </c>
-      <c r="N105" t="s">
-        <v>313</v>
-      </c>
-      <c r="O105" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4" t="s">
         <v>384</v>
       </c>
@@ -4801,7 +4860,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="4" t="s">
         <v>385</v>
       </c>
@@ -4827,7 +4886,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4" t="s">
         <v>360</v>
       </c>
@@ -4863,7 +4922,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="4" t="s">
         <v>379</v>
       </c>
@@ -4894,7 +4953,7 @@
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4" t="s">
         <v>367</v>
       </c>
@@ -4928,7 +4987,7 @@
       </c>
       <c r="O110" s="1"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4" t="s">
         <v>367</v>
       </c>
@@ -4961,7 +5020,7 @@
       </c>
       <c r="O111" s="1"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4" t="s">
         <v>367</v>
       </c>
@@ -4995,7 +5054,7 @@
       </c>
       <c r="O112" s="1"/>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="4" t="s">
         <v>367</v>
       </c>
@@ -5029,7 +5088,7 @@
       </c>
       <c r="O113" s="1"/>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4" t="s">
         <v>367</v>
       </c>
@@ -5049,7 +5108,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4" t="s">
         <v>367</v>
       </c>
@@ -5083,7 +5142,7 @@
       </c>
       <c r="O115" s="1"/>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4" t="s">
         <v>367</v>
       </c>
@@ -5107,7 +5166,7 @@
         <v>staff.php</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="4" t="s">
         <v>367</v>
       </c>
@@ -5130,7 +5189,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="4" t="s">
         <v>367</v>
       </c>
@@ -5150,7 +5209,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="4" t="s">
         <v>367</v>
       </c>
@@ -5174,7 +5233,7 @@
         <v>staff_get.php</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="4" t="s">
         <v>367</v>
       </c>
@@ -5198,7 +5257,7 @@
         <v>staff_patch.php</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4" t="s">
         <v>367</v>
       </c>
@@ -5222,34 +5281,36 @@
         <v>staff_post.php</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B122" t="s">
-        <v>249</v>
+        <v>399</v>
       </c>
       <c r="C122" t="s">
         <v>31</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E122" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E122" t="s">
         <v>240</v>
       </c>
       <c r="F122" t="s">
-        <v>261</v>
-      </c>
-      <c r="G122" t="s">
-        <v>221</v>
-      </c>
-      <c r="I122" s="1" t="e">
-        <f>VLOOKUP(B122,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N122" t="s">
+        <v>313</v>
+      </c>
+      <c r="O122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="4" t="s">
         <v>356</v>
       </c>
@@ -5272,7 +5333,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4" t="s">
         <v>356</v>
       </c>
@@ -5292,7 +5353,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4" t="s">
         <v>356</v>
       </c>
@@ -5312,7 +5373,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4" t="s">
         <v>381</v>
       </c>
@@ -5346,7 +5407,7 @@
       </c>
       <c r="O126" s="1"/>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
         <v>440</v>
       </c>
@@ -5366,7 +5427,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4" t="s">
         <v>367</v>
       </c>
@@ -5393,7 +5454,7 @@
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4" t="s">
         <v>367</v>
       </c>
@@ -5420,7 +5481,7 @@
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="4" t="s">
         <v>367</v>
       </c>
@@ -5447,7 +5508,7 @@
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="4" t="s">
         <v>367</v>
       </c>
@@ -5474,7 +5535,7 @@
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4" t="s">
         <v>367</v>
       </c>
@@ -5501,7 +5562,7 @@
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4" t="s">
         <v>367</v>
       </c>
@@ -5528,7 +5589,7 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4" t="s">
         <v>360</v>
       </c>
@@ -5554,52 +5615,34 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D135" s="1"/>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" t="s">
+        <v>31</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="E135" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F135" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J135" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K135" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L135" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M135" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N135" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="O135" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+      <c r="F135" t="s">
+        <v>261</v>
+      </c>
+      <c r="G135" t="s">
+        <v>221</v>
+      </c>
+      <c r="I135" s="1" t="e">
+        <f>VLOOKUP(B135,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4" t="s">
         <v>356</v>
       </c>
@@ -5628,12 +5671,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B137" t="s">
-        <v>233</v>
+      <c r="B137" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>223</v>
@@ -5643,23 +5686,37 @@
         <v>242</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H137" s="1"/>
+      <c r="H137" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="I137" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N137" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="O137" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4" t="s">
         <v>356</v>
       </c>
@@ -5682,7 +5739,7 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
     </row>
-    <row r="139" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4" t="s">
         <v>381</v>
       </c>
@@ -5718,30 +5775,38 @@
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B140" t="s">
-        <v>289</v>
-      </c>
-      <c r="C140" t="s">
-        <v>31</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>397</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D140" s="1"/>
       <c r="E140" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F140" t="s">
-        <v>300</v>
+        <v>242</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="4" t="s">
         <v>356</v>
       </c>
@@ -5761,7 +5826,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="4" t="s">
         <v>367</v>
       </c>
@@ -5788,7 +5853,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4" t="s">
         <v>367</v>
       </c>
@@ -5814,7 +5879,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4" t="s">
         <v>367</v>
       </c>
@@ -5841,7 +5906,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="4" t="s">
         <v>367</v>
       </c>
@@ -5868,7 +5933,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
         <v>367</v>
       </c>
@@ -5895,14 +5960,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B147" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C147" s="1" t="s">
+      <c r="B147" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" t="s">
         <v>31</v>
       </c>
       <c r="D147" s="1" t="s">
@@ -5911,37 +5976,14 @@
       <c r="E147" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F147" s="1" t="s">
-        <v>39</v>
+      <c r="F147" t="s">
+        <v>300</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H147" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I147" s="1" t="e">
-        <f>VLOOKUP(B147,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L147" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M147" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N147" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="O147" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="4" t="s">
         <v>356</v>
       </c>
@@ -5970,53 +6012,24 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>93</v>
+        <v>448</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>397</v>
-      </c>
       <c r="E149" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I149" s="1" t="e">
-        <f>VLOOKUP(B149,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J149" s="1"/>
-      <c r="K149" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L149" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M149" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N149" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O149" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="4" t="s">
         <v>356</v>
       </c>
@@ -6045,12 +6058,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>31</v>
@@ -6062,10 +6075,10 @@
         <v>240</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>217</v>
@@ -6079,19 +6092,19 @@
         <v>229</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N151" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O151" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N151" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="4" t="s">
         <v>356</v>
       </c>
@@ -6120,14 +6133,14 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B153" t="s">
-        <v>95</v>
-      </c>
-      <c r="C153" t="s">
+      <c r="B153" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C153" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D153" s="1" t="s">
@@ -6136,8 +6149,8 @@
       <c r="E153" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F153" t="s">
-        <v>48</v>
+      <c r="F153" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>221</v>
@@ -6149,6 +6162,7 @@
         <f>VLOOKUP(B153,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="J153" s="1"/>
       <c r="K153" s="1" t="s">
         <v>229</v>
       </c>
@@ -6158,14 +6172,14 @@
       <c r="M153" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N153" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="O153" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N153" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="4" t="s">
         <v>356</v>
       </c>
@@ -6194,27 +6208,53 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B155" t="s">
-        <v>332</v>
-      </c>
-      <c r="C155" t="s">
-        <v>97</v>
+      <c r="B155" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="F155" t="s">
-        <v>338</v>
+        <v>240</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I155" s="1" t="e">
+        <f>VLOOKUP(B155,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J155" s="1"/>
+      <c r="K155" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="4" t="s">
         <v>356</v>
       </c>
@@ -6234,30 +6274,75 @@
         <v>222</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B157" t="s">
-        <v>446</v>
+        <v>332</v>
       </c>
       <c r="C157" t="s">
         <v>97</v>
       </c>
       <c r="E157" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F157" t="s">
+        <v>338</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B158" t="s">
+        <v>95</v>
+      </c>
+      <c r="C158" t="s">
+        <v>31</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E158" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F157" t="s">
-        <v>447</v>
-      </c>
-      <c r="G157" s="1" t="s">
+      <c r="F158" t="s">
+        <v>48</v>
+      </c>
+      <c r="G158" s="1" t="s">
         <v>221</v>
       </c>
+      <c r="H158" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I158" s="1" t="e">
+        <f>VLOOKUP(B158,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M158" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O158" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O156">
-    <sortState ref="A2:O156">
-      <sortCondition ref="B1:B156"/>
+  <autoFilter ref="A1:O158" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:O158">
+      <sortCondition ref="B1:B158"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6266,20 +6351,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="29.41796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>280</v>
       </c>
@@ -6298,7 +6383,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6317,7 +6402,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6336,7 +6421,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -6355,7 +6440,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>243</v>
       </c>
@@ -6374,7 +6459,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>244</v>
       </c>
@@ -6393,7 +6478,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>245</v>
       </c>
@@ -6412,7 +6497,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>272</v>
       </c>
@@ -6431,7 +6516,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>273</v>
       </c>
@@ -6450,7 +6535,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>281</v>
       </c>
@@ -6469,7 +6554,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>282</v>
       </c>
@@ -6488,7 +6573,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>246</v>
       </c>
@@ -6507,7 +6592,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>247</v>
       </c>
@@ -6526,7 +6611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -6545,7 +6630,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>274</v>
       </c>
@@ -6564,7 +6649,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>347</v>
       </c>
@@ -6583,7 +6668,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>321</v>
       </c>
@@ -6602,7 +6687,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>329</v>
       </c>
@@ -6621,7 +6706,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>330</v>
       </c>
@@ -6640,7 +6725,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -6659,7 +6744,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -6678,7 +6763,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -6697,7 +6782,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>190</v>
       </c>
@@ -6716,7 +6801,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>304</v>
       </c>
@@ -6735,7 +6820,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>283</v>
       </c>
@@ -6754,7 +6839,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>284</v>
       </c>
@@ -6773,7 +6858,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>285</v>
       </c>
@@ -6792,7 +6877,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>286</v>
       </c>
@@ -6801,7 +6886,7 @@
         <v>comment_post.php</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -6814,7 +6899,7 @@
         <v>rptDailyLogHome.php</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -6830,7 +6915,7 @@
         <v>rptDailyLogMenu.php</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -6846,7 +6931,7 @@
         <v>rptDailyPmtHome.php</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>119</v>
       </c>
@@ -6862,7 +6947,7 @@
         <v>rptDailyPmtMenu.php</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>191</v>
       </c>
@@ -6878,7 +6963,7 @@
         <v>rptGroups.php</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>275</v>
       </c>
@@ -6894,7 +6979,7 @@
         <v>rptMonthlyPmtHome.php</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>287</v>
       </c>
@@ -6910,7 +6995,7 @@
         <v>rptMonthlyPmtMenu.php</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>288</v>
       </c>
@@ -6926,7 +7011,7 @@
         <v>rptMonthlyPosSummHome.php</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>316</v>
       </c>
@@ -6942,7 +7027,7 @@
         <v>rptMonthlyPosSummMenu.php</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>317</v>
       </c>
@@ -6958,7 +7043,7 @@
         <v>rptMonthlyPtSummHome.php</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>318</v>
       </c>
@@ -6974,7 +7059,7 @@
         <v>rptMonthlyPtSummMenu.php</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>319</v>
       </c>
@@ -6986,7 +7071,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -6999,7 +7084,7 @@
         <v>api_common.php</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -7015,7 +7100,7 @@
         <v>clinic.php</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -7031,7 +7116,7 @@
         <v>clinic_common.php</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -7047,7 +7132,7 @@
         <v>clinic_get.php</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>120</v>
       </c>
@@ -7063,7 +7148,7 @@
         <v>comment.php</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -7079,7 +7164,7 @@
         <v>comment_common.php</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -7095,7 +7180,7 @@
         <v>comment_get.php</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>192</v>
       </c>
@@ -7111,7 +7196,7 @@
         <v>comment_post.php</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -7127,7 +7212,7 @@
         <v>icd.php</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -7143,7 +7228,7 @@
         <v>icd_common.php</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>15</v>
       </c>
@@ -7159,7 +7244,7 @@
         <v>icd_get.php</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -7175,7 +7260,7 @@
         <v>icd_patch.php</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -7191,7 +7276,7 @@
         <v>locImage.php</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -7207,7 +7292,7 @@
         <v>locImage_get.php</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -7223,7 +7308,7 @@
         <v>log.php</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -7239,7 +7324,7 @@
         <v>log_common.php</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -7255,7 +7340,7 @@
         <v>log_get.php</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -7271,7 +7356,7 @@
         <v>log_post.php</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>121</v>
       </c>
@@ -7287,7 +7372,7 @@
         <v>patient.php</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>88</v>
       </c>
@@ -7303,7 +7388,7 @@
         <v>patient_common.php</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -7319,7 +7404,7 @@
         <v>patient_delete.php</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -7335,7 +7420,7 @@
         <v>patient_get.php</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>72</v>
       </c>
@@ -7351,7 +7436,7 @@
         <v>patient_patch.php</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>90</v>
       </c>
@@ -7367,7 +7452,7 @@
         <v>patient_post.php</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -7383,7 +7468,7 @@
         <v>session.php</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>91</v>
       </c>
@@ -7399,7 +7484,7 @@
         <v>session_common.php</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -7415,7 +7500,7 @@
         <v>session_delete.php</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -7431,7 +7516,7 @@
         <v>session_get.php</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -7447,7 +7532,7 @@
         <v>session_patch.php</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>112</v>
       </c>
@@ -7463,7 +7548,7 @@
         <v>session_post.php</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>344</v>
       </c>
@@ -7479,7 +7564,7 @@
         <v>staff.php</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>345</v>
       </c>
@@ -7495,7 +7580,7 @@
         <v>staff_common.php</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -7511,7 +7596,7 @@
         <v>staff_delete.php</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -7527,7 +7612,7 @@
         <v>staff_get.php</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>346</v>
       </c>
@@ -7543,7 +7628,7 @@
         <v>staff_patch.php</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>305</v>
       </c>
@@ -7559,7 +7644,7 @@
         <v>staff_post.php</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>340</v>
       </c>
@@ -7575,7 +7660,7 @@
         <v>textmsg.php</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>306</v>
       </c>
@@ -7591,7 +7676,7 @@
         <v>textmsg_common.php</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>193</v>
       </c>
@@ -7607,7 +7692,7 @@
         <v>textmsg_delete.php</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>232</v>
       </c>
@@ -7623,7 +7708,7 @@
         <v>textmsg_get.php</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -7639,7 +7724,7 @@
         <v>textmsg_patch.php</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>195</v>
       </c>
@@ -7655,7 +7740,7 @@
         <v>textmsg_post.php</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>196</v>
       </c>
@@ -7671,7 +7756,7 @@
         <v>visit.php</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>197</v>
       </c>
@@ -7687,7 +7772,7 @@
         <v>visit_common.php</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>198</v>
       </c>
@@ -7703,7 +7788,7 @@
         <v>visit_get.php</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>248</v>
       </c>
@@ -7719,7 +7804,7 @@
         <v>visit_patch.php</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>249</v>
       </c>
@@ -7735,7 +7820,7 @@
         <v>visit_post.php</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>250</v>
       </c>
@@ -7747,7 +7832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>320</v>
       </c>
@@ -7756,7 +7841,7 @@
         <v>staffUiStrings.php</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>331</v>
       </c>
@@ -7765,7 +7850,7 @@
         <v>staffUiStringText.php</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>251</v>
       </c>
@@ -7774,7 +7859,7 @@
         <v>staff_common.php</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>252</v>
       </c>
@@ -7783,7 +7868,7 @@
         <v>staff_get.php</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>253</v>
       </c>
@@ -7792,7 +7877,7 @@
         <v>staff_patch.php</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>254</v>
       </c>
@@ -7801,7 +7886,7 @@
         <v>staff_post.php</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>199</v>
       </c>
@@ -7810,7 +7895,7 @@
         <v>startUiSession.php</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>341</v>
       </c>
@@ -7819,7 +7904,7 @@
         <v>textFileUtils.php</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -7828,7 +7913,7 @@
         <v>uiErrorMessage.php</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>98</v>
       </c>
@@ -7837,7 +7922,7 @@
         <v>uiErrorMessageText.php</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>233</v>
       </c>
@@ -7846,7 +7931,7 @@
         <v>uiSessionInfo.php</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>108</v>
       </c>
@@ -7855,7 +7940,7 @@
         <v>ui_common.php</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -7864,16 +7949,16 @@
         <v>updatePatientVisit.php</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" t="s">
         <v>289</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B102" t="e">
         <f>VLOOKUP(A102,Current!B$2:B$143,1,FALSE)</f>
-        <v>userComment.php</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" t="s">
         <v>290</v>
       </c>
@@ -7882,7 +7967,7 @@
         <v>userCommentText.php</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" t="s">
         <v>21</v>
       </c>
@@ -7891,7 +7976,7 @@
         <v>visit.php</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" t="s">
         <v>92</v>
       </c>
@@ -7900,7 +7985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" t="s">
         <v>75</v>
       </c>
@@ -7909,7 +7994,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" t="s">
         <v>93</v>
       </c>
@@ -7918,7 +8003,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -7927,7 +8012,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" t="s">
         <v>94</v>
       </c>
@@ -7936,7 +8021,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" t="s">
         <v>77</v>
       </c>
@@ -7945,7 +8030,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -7954,7 +8039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" t="s">
         <v>78</v>
       </c>
@@ -7963,7 +8048,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" t="s">
         <v>332</v>
       </c>
@@ -7972,7 +8057,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" t="s">
         <v>333</v>
       </c>
@@ -7981,7 +8066,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" t="s">
         <v>22</v>
       </c>
@@ -7990,7 +8075,7 @@
         <v>visit_common.php</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -7999,7 +8084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -8008,7 +8093,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -8017,50 +8102,50 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="e">
         <f>VLOOKUP(A119,Current!B$2:B$143,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" t="e">
         <f>VLOOKUP(A120,Current!B$2:B$143,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" t="e">
         <f>VLOOKUP(A121,Current!B$2:B$143,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="e">
         <f>VLOOKUP(A122,Current!B$2:B$143,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="e">
         <f>VLOOKUP(A123,Current!B$2:B$143,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="e">
         <f>VLOOKUP(A124,Current!B$2:B$143,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="e">
         <f>VLOOKUP(A125,Current!B$2:B$143,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B255">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B255">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8068,181 +8153,181 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -8253,38 +8338,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.41796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.41796875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.15625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.15625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.83984375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="5" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
         <v>386</v>
       </c>
@@ -8349,7 +8434,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>387</v>
       </c>
@@ -8366,7 +8451,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>390</v>
       </c>
@@ -8380,7 +8465,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>394</v>
       </c>
@@ -8391,7 +8476,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>396</v>
       </c>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\bobw\Documents\GitHub\docsbydesign\piClinic\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EC751-0FF9-450E-8224-D566191458DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA5055-CDF7-4C29-AFF2-198C6FE06408}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5934" yWindow="3396" windowWidth="20076" windowHeight="11286" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="0" windowWidth="20076" windowHeight="11286" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="452">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1270,9 +1270,6 @@
     <t>W3C OK</t>
   </si>
   <si>
-    <t>Error with &lt;style&gt; tags</t>
-  </si>
-  <si>
     <t>rptMonthlyPtSummHome.php</t>
   </si>
   <si>
@@ -1282,9 +1279,6 @@
     <t>adminHelpAddEdit.php</t>
   </si>
   <si>
-    <t>inDev</t>
-  </si>
-  <si>
     <t>Help text editing interface (dev)</t>
   </si>
   <si>
@@ -1424,6 +1418,18 @@
   </si>
   <si>
     <t>UI to print clinic visit form from</t>
+  </si>
+  <si>
+    <t>Not yet</t>
+  </si>
+  <si>
+    <t>Style tag errors</t>
+  </si>
+  <si>
+    <t>N/A (Redirect)</t>
+  </si>
+  <si>
+    <t>w3C OK</t>
   </si>
 </sst>
 </file>
@@ -1824,8 +1830,9 @@
   <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="618" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F64" sqref="F64"/>
+      <pane ySplit="618" topLeftCell="A10"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2044,7 +2051,7 @@
         <v>352</v>
       </c>
       <c r="B7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C7" t="s">
         <v>97</v>
@@ -2053,7 +2060,7 @@
         <v>240</v>
       </c>
       <c r="F7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>221</v>
@@ -2061,36 +2068,26 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="G8" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
@@ -2125,12 +2122,12 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C10" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2140,22 +2137,11 @@
         <v>240</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1" t="str">
-        <f>VLOOKUP(B10,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>adminHome.php</v>
-      </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="G10" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
@@ -2203,10 +2189,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>409</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -2217,11 +2203,11 @@
       <c r="E13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F13" t="s">
-        <v>276</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>231</v>
+      <c r="F13" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G13" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -2255,10 +2241,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -2270,10 +2256,10 @@
         <v>240</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>231</v>
+        <v>343</v>
+      </c>
+      <c r="G15" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2327,10 +2313,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -2338,18 +2324,20 @@
       <c r="D18" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>240</v>
       </c>
       <c r="F18" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I18" s="1" t="str">
-        <f>VLOOKUP(B18,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>adminShowUsers.php</v>
+        <v>220</v>
+      </c>
+      <c r="N18" t="s">
+        <v>313</v>
+      </c>
+      <c r="O18" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2377,18 +2365,33 @@
         <v>352</v>
       </c>
       <c r="B20" t="s">
-        <v>353</v>
-      </c>
-      <c r="C20" t="s">
+        <v>400</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>222</v>
+        <v>448</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>222</v>
+        <v>402</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
@@ -2479,7 +2482,7 @@
         <v>367</v>
       </c>
       <c r="B25" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2488,7 +2491,7 @@
         <v>242</v>
       </c>
       <c r="F25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2564,51 +2567,39 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>65</v>
+      <c r="B29" t="s">
+        <v>244</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>60</v>
+        <v>257</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>217</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="H29" s="1"/>
       <c r="I29" s="1" t="str">
         <f>VLOOKUP(B29,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>clinicDash.php</v>
+        <v>adminHome.php</v>
       </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O29" s="2" t="s">
-        <v>129</v>
-      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
@@ -2645,52 +2636,27 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" t="s">
         <v>31</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>200</v>
+        <v>240</v>
+      </c>
+      <c r="F31" t="s">
+        <v>276</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I31" s="1" t="e">
-        <f>VLOOKUP(B31,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -2969,20 +2935,23 @@
       <c r="A42" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="B42" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" t="s">
         <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>383</v>
+        <v>397</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F42" t="s">
+        <v>292</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -3357,7 +3326,7 @@
         <v>352</v>
       </c>
       <c r="B56" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="C56" t="s">
         <v>31</v>
@@ -3369,10 +3338,14 @@
         <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f>VLOOKUP(B56,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>adminShowUsers.php</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -3380,7 +3353,7 @@
         <v>367</v>
       </c>
       <c r="B57" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C57" t="s">
         <v>29</v>
@@ -3389,7 +3362,7 @@
         <v>241</v>
       </c>
       <c r="F57" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>222</v>
@@ -3400,7 +3373,7 @@
         <v>367</v>
       </c>
       <c r="B58" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C58" t="s">
         <v>29</v>
@@ -3409,7 +3382,7 @@
         <v>242</v>
       </c>
       <c r="F58" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>222</v>
@@ -3429,7 +3402,7 @@
         <v>241</v>
       </c>
       <c r="F59" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G59" s="1"/>
       <c r="I59" s="1"/>
@@ -3448,7 +3421,7 @@
         <v>242</v>
       </c>
       <c r="F60" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G60" s="1"/>
       <c r="I60" s="1"/>
@@ -3467,7 +3440,7 @@
         <v>242</v>
       </c>
       <c r="F61" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G61" s="1"/>
       <c r="I61" s="1"/>
@@ -3486,7 +3459,7 @@
         <v>242</v>
       </c>
       <c r="F62" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G62" s="1"/>
       <c r="I62" s="1"/>
@@ -3506,7 +3479,7 @@
         <v>242</v>
       </c>
       <c r="F63" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H63"/>
       <c r="I63"/>
@@ -3728,10 +3701,10 @@
         <v>352</v>
       </c>
       <c r="B71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>222</v>
@@ -3742,7 +3715,6 @@
         <v>222</v>
       </c>
       <c r="H71"/>
-      <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
@@ -3781,20 +3753,20 @@
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B73" t="s">
+        <v>433</v>
+      </c>
+      <c r="C73" t="s">
         <v>435</v>
-      </c>
-      <c r="C73" t="s">
-        <v>437</v>
       </c>
       <c r="D73"/>
       <c r="E73" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F73" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>222</v>
@@ -3810,20 +3782,20 @@
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B74" t="s">
         <v>434</v>
       </c>
-      <c r="B74" t="s">
-        <v>436</v>
-      </c>
       <c r="C74" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D74"/>
       <c r="E74" s="1" t="s">
         <v>239</v>
       </c>
       <c r="F74" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>222</v>
@@ -3969,49 +3941,49 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:15" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>397</v>
+        <v>449</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I79" s="1" t="e">
+      <c r="I79" s="1" t="str">
         <f>VLOOKUP(B79,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
+        <v>clinicDash.php</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>229</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O79" s="1" t="s">
-        <v>131</v>
+        <v>229</v>
+      </c>
+      <c r="N79" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4162,12 +4134,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:15" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>31</v>
@@ -4176,34 +4148,38 @@
         <v>397</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>271</v>
+        <v>222</v>
+      </c>
+      <c r="I84" s="1" t="e">
+        <f>VLOOKUP(B84,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
@@ -4246,45 +4222,17 @@
         <v>352</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>382</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>240</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>55</v>
+        <v>383</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I86" s="1" t="e">
-        <f>VLOOKUP(B86,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M86" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>139</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -4441,10 +4389,10 @@
       <c r="A91" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C91" s="1" t="s">
+      <c r="B91" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="1" t="s">
@@ -4453,34 +4401,11 @@
       <c r="E91" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>116</v>
+      <c r="F91" t="s">
+        <v>298</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>219</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I91" s="1" t="e">
-        <f>VLOOKUP(B91,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M91" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -4534,7 +4459,7 @@
         <v>384</v>
       </c>
       <c r="B93" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C93" t="s">
         <v>223</v>
@@ -4546,7 +4471,7 @@
         <v>240</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G93" t="s">
         <v>220</v>
@@ -4589,25 +4514,19 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B95" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
       <c r="C95" t="s">
         <v>31</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G95" t="s">
-        <v>220</v>
+        <v>450</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -4638,7 +4557,7 @@
         <v>384</v>
       </c>
       <c r="B97" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C97" t="s">
         <v>223</v>
@@ -4650,7 +4569,7 @@
         <v>240</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G97" t="s">
         <v>220</v>
@@ -4681,7 +4600,7 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C99" t="s">
         <v>97</v>
@@ -4693,7 +4612,7 @@
         <v>240</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G99" t="s">
         <v>220</v>
@@ -4701,12 +4620,12 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B100" t="s">
-        <v>408</v>
-      </c>
-      <c r="C100" t="s">
+        <v>352</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -4716,10 +4635,33 @@
         <v>240</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G100" t="s">
-        <v>220</v>
+        <v>47</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I100" s="1" t="e">
+        <f>VLOOKUP(B100,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O100" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -4750,7 +4692,7 @@
         <v>384</v>
       </c>
       <c r="B102" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C102" t="s">
         <v>223</v>
@@ -4762,20 +4704,20 @@
         <v>240</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G102" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B103" t="s">
-        <v>411</v>
-      </c>
-      <c r="C103" t="s">
+        <v>352</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D103" s="1" t="s">
@@ -4785,10 +4727,32 @@
         <v>240</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G103" t="s">
+        <v>56</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>220</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -4796,7 +4760,7 @@
         <v>384</v>
       </c>
       <c r="B104" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C104" t="s">
         <v>223</v>
@@ -4808,7 +4772,7 @@
         <v>240</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G104" t="s">
         <v>220</v>
@@ -4816,25 +4780,48 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B105" t="s">
-        <v>400</v>
-      </c>
-      <c r="C105" t="s">
+        <v>352</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>222</v>
+        <v>397</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F105" t="s">
-        <v>343</v>
-      </c>
-      <c r="G105" t="s">
-        <v>220</v>
+      <c r="F105" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I105" s="1" t="e">
+        <f>VLOOKUP(B105,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N105" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="O105" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -4842,7 +4829,7 @@
         <v>384</v>
       </c>
       <c r="B106" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C106" t="s">
         <v>223</v>
@@ -4854,7 +4841,7 @@
         <v>240</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G106" t="s">
         <v>220</v>
@@ -5093,7 +5080,7 @@
         <v>367</v>
       </c>
       <c r="B114" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -5194,7 +5181,7 @@
         <v>367</v>
       </c>
       <c r="B118" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
@@ -5203,7 +5190,7 @@
         <v>242</v>
       </c>
       <c r="F118" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>221</v>
@@ -5283,31 +5270,48 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B122" t="s">
-        <v>399</v>
-      </c>
-      <c r="C122" t="s">
+        <v>352</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C122" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E122" t="s">
+        <v>397</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F122" t="s">
-        <v>308</v>
+      <c r="F122" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N122" t="s">
-        <v>313</v>
-      </c>
-      <c r="O122" t="s">
-        <v>314</v>
+        <v>219</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I122" s="1" t="e">
+        <f>VLOOKUP(B122,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N122" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O122" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -5409,7 +5413,7 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B127" t="s">
         <v>341</v>
@@ -5442,7 +5446,7 @@
         <v>241</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
@@ -5469,7 +5473,7 @@
         <v>242</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
@@ -5486,7 +5490,7 @@
         <v>367</v>
       </c>
       <c r="B130" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -5496,7 +5500,7 @@
         <v>242</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
@@ -5523,7 +5527,7 @@
         <v>242</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
@@ -5540,7 +5544,7 @@
         <v>367</v>
       </c>
       <c r="B132" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -5550,7 +5554,7 @@
         <v>242</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
@@ -5577,7 +5581,7 @@
         <v>242</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -5971,7 +5975,7 @@
         <v>31</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>240</v>
@@ -6017,16 +6021,19 @@
         <v>352</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D149" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="E149" s="1" t="s">
         <v>240</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
@@ -6342,7 +6349,7 @@
   </sheetData>
   <autoFilter ref="A1:O158" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:O158">
-      <sortCondition ref="B1:B158"/>
+      <sortCondition ref="A1:A158"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6373,14 +6380,14 @@
         <v>addComment.php</v>
       </c>
       <c r="F1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G1" t="str">
         <f>VLOOKUP(F1,Current!B$2:B$193,1,FALSE)</f>
         <v>adminBackup.php</v>
       </c>
       <c r="J1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -6392,14 +6399,14 @@
         <v>addPatient.php</v>
       </c>
       <c r="F2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(F2,Current!B$2:B$193,1,FALSE)</f>
         <v>adminHelpAddEdit.php</v>
       </c>
       <c r="J2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
@@ -6908,7 +6915,7 @@
         <v>dbPass.php</v>
       </c>
       <c r="F30" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G30" t="str">
         <f>VLOOKUP(F31,Current!B$2:B$193,1,FALSE)</f>
@@ -6924,7 +6931,7 @@
         <v>#N/A</v>
       </c>
       <c r="F31" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G31" t="str">
         <f>VLOOKUP(F32,Current!B$2:B$193,1,FALSE)</f>
@@ -6940,7 +6947,7 @@
         <v>deletePatientImage.php</v>
       </c>
       <c r="F32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G32" t="str">
         <f>VLOOKUP(F33,Current!B$2:B$193,1,FALSE)</f>
@@ -6956,7 +6963,7 @@
         <v>endUiSession.php</v>
       </c>
       <c r="F33" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="G33" t="str">
         <f>VLOOKUP(F34,Current!B$2:B$193,1,FALSE)</f>
@@ -6972,7 +6979,7 @@
         <v>headTag.php</v>
       </c>
       <c r="F34" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G34" t="str">
         <f>VLOOKUP(F35,Current!B$2:B$193,1,FALSE)</f>
@@ -6988,7 +6995,7 @@
         <v>helpHome.php</v>
       </c>
       <c r="F35" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G35" t="str">
         <f>VLOOKUP(F36,Current!B$2:B$193,1,FALSE)</f>
@@ -7004,7 +7011,7 @@
         <v>helpHomeText.php</v>
       </c>
       <c r="F36" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G36" t="str">
         <f>VLOOKUP(F37,Current!B$2:B$193,1,FALSE)</f>
@@ -7020,7 +7027,7 @@
         <v>icd.php</v>
       </c>
       <c r="F37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G37" t="str">
         <f>VLOOKUP(F38,Current!B$2:B$193,1,FALSE)</f>
@@ -7036,7 +7043,7 @@
         <v>icd_common.php</v>
       </c>
       <c r="F38" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G38" t="str">
         <f>VLOOKUP(F39,Current!B$2:B$193,1,FALSE)</f>
@@ -7052,7 +7059,7 @@
         <v>icd_get.php</v>
       </c>
       <c r="F39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G39" t="str">
         <f>VLOOKUP(F40,Current!B$2:B$193,1,FALSE)</f>
@@ -7068,7 +7075,7 @@
         <v>icd_patch.php</v>
       </c>
       <c r="F40" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7125,7 +7132,7 @@
         <v>image_get.php</v>
       </c>
       <c r="F44" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G44" t="str">
         <f>VLOOKUP(F45,Current!B$2:B$193,1,FALSE)</f>
@@ -7285,7 +7292,7 @@
         <v>patient_post.php</v>
       </c>
       <c r="F54" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G54" t="str">
         <f>VLOOKUP(F55,Current!B$2:B$193,1,FALSE)</f>
@@ -7301,7 +7308,7 @@
         <v>phpinfo.php</v>
       </c>
       <c r="F55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G55" t="str">
         <f>VLOOKUP(F56,Current!B$2:B$193,1,FALSE)</f>
@@ -7541,7 +7548,7 @@
         <v>rptDailyLogText.php</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G70" t="str">
         <f>VLOOKUP(F71,Current!B$2:B$193,1,FALSE)</f>
@@ -7605,7 +7612,7 @@
         <v>#N/A</v>
       </c>
       <c r="F74" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G74" t="str">
         <f>VLOOKUP(F75,Current!B$2:B$193,1,FALSE)</f>
@@ -7701,7 +7708,7 @@
         <v>securityText.php</v>
       </c>
       <c r="F80" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G80" t="str">
         <f>VLOOKUP(F81,Current!B$2:B$193,1,FALSE)</f>
@@ -7733,7 +7740,7 @@
         <v>session_common.php</v>
       </c>
       <c r="F82" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G82" t="str">
         <f>VLOOKUP(F83,Current!B$2:B$193,1,FALSE)</f>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\bobw\Documents\GitHub\docsbydesign\piClinic\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA5055-CDF7-4C29-AFF2-198C6FE06408}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DB6C95-A176-4F5B-BB3C-28F244436F18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="0" windowWidth="20076" windowHeight="11286" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="816" yWindow="4386" windowWidth="22014" windowHeight="7680" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Workflows" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$O$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$P$158</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="452">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1423,13 +1423,13 @@
     <t>Not yet</t>
   </si>
   <si>
-    <t>Style tag errors</t>
-  </si>
-  <si>
-    <t>N/A (Redirect)</t>
-  </si>
-  <si>
-    <t>w3C OK</t>
+    <t>W3C - EN</t>
+  </si>
+  <si>
+    <t>W3C-ES</t>
+  </si>
+  <si>
+    <t>&lt;style&gt; warn</t>
   </si>
 </sst>
 </file>
@@ -1827,27 +1827,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O158"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="618" topLeftCell="A10"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+      <pane ySplit="618" topLeftCell="A18" activePane="bottomLeft"/>
+      <selection activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D29" sqref="D29:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="9.15625" style="4"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="43.83984375" customWidth="1"/>
-    <col min="7" max="7" width="44.41796875" customWidth="1"/>
-    <col min="8" max="13" width="20.68359375" customWidth="1"/>
-    <col min="14" max="14" width="36" customWidth="1"/>
-    <col min="15" max="15" width="48" customWidth="1"/>
+    <col min="3" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="43.83984375" customWidth="1"/>
+    <col min="8" max="8" width="44.41796875" customWidth="1"/>
+    <col min="9" max="14" width="20.68359375" customWidth="1"/>
+    <col min="15" max="15" width="36" customWidth="1"/>
+    <col min="16" max="16" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>351</v>
       </c>
@@ -1857,41 +1858,47 @@
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>449</v>
+      </c>
       <c r="E1" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>381</v>
       </c>
@@ -1903,13 +1910,13 @@
       </c>
       <c r="D2"/>
       <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="F2"/>
+      <c r="G2" t="s">
         <v>291</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
@@ -1917,8 +1924,9 @@
       <c r="M2"/>
       <c r="N2"/>
       <c r="O2"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="P2"/>
+    </row>
+    <row r="3" spans="1:16" s="1" customFormat="1" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>381</v>
       </c>
@@ -1928,27 +1936,27 @@
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="1" t="str">
+      <c r="J3" s="1" t="str">
         <f>VLOOKUP(B3,Profiled!A$1:A$98,1,FALSE)</f>
         <v>addPatient.php</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="P3" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" s="1" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
         <v>379</v>
       </c>
@@ -1958,27 +1966,27 @@
       <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="1" t="str">
+      <c r="J4" s="1" t="str">
         <f>VLOOKUP(B4,Profiled!A$1:A$98,1,FALSE)</f>
         <v>addPatientImage.php</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="O4" s="2" t="s">
+      <c r="P4" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4" t="s">
         <v>381</v>
       </c>
@@ -1989,32 +1997,33 @@
         <v>30</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="str">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="str">
         <f>VLOOKUP(B5,Profiled!A$1:A$98,1,FALSE)</f>
         <v>addPatientVisit.php</v>
       </c>
-      <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4" t="s">
         <v>381</v>
       </c>
@@ -2025,28 +2034,29 @@
         <v>30</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="str">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="str">
         <f>VLOOKUP(B6,Profiled!A$1:A$98,1,FALSE)</f>
         <v>addStaff.php</v>
       </c>
-      <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>352</v>
       </c>
@@ -2056,40 +2066,53 @@
       <c r="C7" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>445</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>397</v>
+        <v>448</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G8" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4" t="s">
         <v>356</v>
       </c>
@@ -2100,50 +2123,65 @@
         <v>67</v>
       </c>
       <c r="D9"/>
-      <c r="E9" s="1" t="s">
+      <c r="E9"/>
+      <c r="F9" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>256</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H9"/>
-      <c r="I9" s="1" t="s">
+      <c r="I9"/>
+      <c r="J9" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9"/>
       <c r="O9"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P9"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>397</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G10" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="G10" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1" t="str">
+        <f>VLOOKUP(B10,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>adminHome.php</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4" t="s">
         <v>356</v>
       </c>
@@ -2153,17 +2191,17 @@
       <c r="C11" t="s">
         <v>67</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>242</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>277</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4" t="s">
         <v>379</v>
       </c>
@@ -2173,26 +2211,26 @@
       <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>63</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>171</v>
       </c>
-      <c r="I12" s="1" t="e">
+      <c r="J12" s="1" t="e">
         <f>VLOOKUP(B12,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s">
-        <v>409</v>
+        <v>272</v>
       </c>
       <c r="C13" t="s">
         <v>31</v>
@@ -2201,16 +2239,19 @@
         <v>397</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>350</v>
-      </c>
       <c r="G13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>276</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>356</v>
       </c>
@@ -2221,16 +2262,16 @@
         <v>67</v>
       </c>
       <c r="D14"/>
-      <c r="E14" t="s">
+      <c r="E14"/>
+      <c r="F14" t="s">
         <v>242</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>293</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H14"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -2238,13 +2279,14 @@
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
@@ -2253,16 +2295,19 @@
         <v>397</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F15" t="s">
-        <v>343</v>
-      </c>
       <c r="G15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>292</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="4" t="s">
         <v>356</v>
       </c>
@@ -2272,20 +2317,20 @@
       <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>259</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="J16" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4" t="s">
         <v>367</v>
       </c>
@@ -2295,28 +2340,28 @@
       <c r="C17" t="s">
         <v>97</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>242</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>109</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>222</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J17" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
-        <v>398</v>
+        <v>246</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -2324,23 +2369,24 @@
       <c r="D18" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F18" t="s">
-        <v>308</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="N18" t="s">
-        <v>313</v>
-      </c>
-      <c r="O18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="G18" t="s">
+        <v>258</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f>VLOOKUP(B18,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>adminShowUsers.php</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4" t="s">
         <v>356</v>
       </c>
@@ -2350,50 +2396,39 @@
       <c r="C19" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>278</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
-        <v>400</v>
-      </c>
-      <c r="C20" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E20" s="1" t="s">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>402</v>
+      <c r="G20" t="s">
+        <v>334</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4" t="s">
         <v>379</v>
       </c>
@@ -2403,35 +2438,36 @@
       <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>242</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B22" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F22" t="s">
-        <v>334</v>
-      </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
+        <v>335</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="4" t="s">
         <v>367</v>
       </c>
@@ -2451,10 +2487,11 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="2"/>
+      <c r="N23" s="1"/>
       <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4" t="s">
         <v>367</v>
       </c>
@@ -2474,10 +2511,11 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="2"/>
+      <c r="N24" s="1"/>
       <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4" t="s">
         <v>367</v>
       </c>
@@ -2487,14 +2525,14 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>242</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="4" t="s">
         <v>367</v>
       </c>
@@ -2514,31 +2552,60 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="2"/>
+      <c r="N26" s="1"/>
       <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B27" t="s">
-        <v>330</v>
-      </c>
-      <c r="C27" t="s">
+        <v>352</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>451</v>
+      </c>
       <c r="E27" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F27" t="s">
-        <v>335</v>
-      </c>
       <c r="G27" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f>VLOOKUP(B27,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>clinicDash.php</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
         <v>356</v>
       </c>
@@ -2548,31 +2615,31 @@
       <c r="C28" t="s">
         <v>67</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>242</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>68</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="J28" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>156</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:16" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B29" t="s">
-        <v>244</v>
+      <c r="B29" s="1" t="s">
+        <v>189</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
@@ -2581,27 +2648,44 @@
         <v>397</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>240</v>
+        <v>397</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1" t="str">
+        <v>200</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J29" s="1" t="e">
         <f>VLOOKUP(B29,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>adminHome.php</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>#N/A</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4" t="s">
         <v>356</v>
       </c>
@@ -2612,54 +2696,54 @@
         <v>67</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" t="s">
         <v>242</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="1"/>
+      <c r="O30" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F31" t="s">
-        <v>276</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="G31" t="s">
+        <v>298</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4" t="s">
         <v>367</v>
       </c>
@@ -2669,17 +2753,17 @@
       <c r="C32" t="s">
         <v>29</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>241</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>294</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4" t="s">
         <v>367</v>
       </c>
@@ -2690,16 +2774,16 @@
         <v>29</v>
       </c>
       <c r="D33"/>
-      <c r="E33" t="s">
+      <c r="E33"/>
+      <c r="F33" t="s">
         <v>242</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>295</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H33"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2707,8 +2791,9 @@
       <c r="M33"/>
       <c r="N33"/>
       <c r="O33"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P33"/>
+    </row>
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4" t="s">
         <v>367</v>
       </c>
@@ -2718,17 +2803,17 @@
       <c r="C34" t="s">
         <v>29</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>242</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>296</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4" t="s">
         <v>367</v>
       </c>
@@ -2739,16 +2824,16 @@
         <v>29</v>
       </c>
       <c r="D35"/>
-      <c r="E35" t="s">
+      <c r="E35"/>
+      <c r="F35" t="s">
         <v>242</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>297</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H35"/>
       <c r="I35"/>
       <c r="J35"/>
       <c r="K35"/>
@@ -2756,8 +2841,9 @@
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P35"/>
+    </row>
+    <row r="36" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4" t="s">
         <v>380</v>
       </c>
@@ -2768,29 +2854,30 @@
         <v>97</v>
       </c>
       <c r="D36"/>
-      <c r="E36" t="s">
+      <c r="E36"/>
+      <c r="F36" t="s">
         <v>239</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>36</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>222</v>
       </c>
-      <c r="H36"/>
-      <c r="I36" s="1" t="s">
+      <c r="I36"/>
+      <c r="J36" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-      <c r="N36" t="s">
+      <c r="N36"/>
+      <c r="O36" t="s">
         <v>182</v>
       </c>
-      <c r="O36"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P36"/>
+    </row>
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4" t="s">
         <v>360</v>
       </c>
@@ -2800,23 +2887,23 @@
       <c r="C37" t="s">
         <v>97</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>242</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>37</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>222</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="J37" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:16" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4" t="s">
         <v>379</v>
       </c>
@@ -2826,27 +2913,27 @@
       <c r="C38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I38" s="1" t="e">
+      <c r="J38" s="1" t="e">
         <f>VLOOKUP(B38,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="O38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="O38" s="2" t="s">
+      <c r="P38" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4" t="s">
         <v>381</v>
       </c>
@@ -2856,27 +2943,27 @@
       <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I39" s="1" t="str">
+      <c r="J39" s="1" t="str">
         <f>VLOOKUP(B39,Profiled!A$1:A$98,1,FALSE)</f>
         <v>endUiSession.php</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="O39" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="P39" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4" t="s">
         <v>352</v>
       </c>
@@ -2886,23 +2973,23 @@
       <c r="C40" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>307</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="N40" t="s">
+      <c r="O40" t="s">
         <v>311</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="4" t="s">
         <v>360</v>
       </c>
@@ -2913,16 +3000,16 @@
         <v>223</v>
       </c>
       <c r="D41"/>
-      <c r="E41" t="s">
+      <c r="E41"/>
+      <c r="F41" t="s">
         <v>242</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>279</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
       <c r="K41"/>
@@ -2930,31 +3017,25 @@
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P41"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B42" t="s">
-        <v>281</v>
+        <v>354</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="F42" t="s">
-        <v>292</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4" t="s">
         <v>356</v>
       </c>
@@ -2965,16 +3046,16 @@
         <v>67</v>
       </c>
       <c r="D43"/>
-      <c r="E43" t="s">
+      <c r="E43"/>
+      <c r="F43" t="s">
         <v>242</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H43"/>
       <c r="I43"/>
       <c r="J43"/>
       <c r="K43"/>
@@ -2982,8 +3063,9 @@
       <c r="M43"/>
       <c r="N43"/>
       <c r="O43"/>
-    </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P43"/>
+    </row>
+    <row r="44" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4" t="s">
         <v>367</v>
       </c>
@@ -2994,16 +3076,16 @@
         <v>29</v>
       </c>
       <c r="D44"/>
-      <c r="E44" t="s">
+      <c r="E44"/>
+      <c r="F44" t="s">
         <v>241</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>324</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H44"/>
       <c r="I44"/>
       <c r="J44"/>
       <c r="K44"/>
@@ -3011,8 +3093,9 @@
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
-    </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P44"/>
+    </row>
+    <row r="45" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4" t="s">
         <v>367</v>
       </c>
@@ -3023,16 +3106,16 @@
         <v>29</v>
       </c>
       <c r="D45"/>
-      <c r="E45" t="s">
+      <c r="E45"/>
+      <c r="F45" t="s">
         <v>242</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>325</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H45"/>
       <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
@@ -3040,8 +3123,9 @@
       <c r="M45"/>
       <c r="N45"/>
       <c r="O45"/>
-    </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P45"/>
+    </row>
+    <row r="46" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4" t="s">
         <v>367</v>
       </c>
@@ -3052,16 +3136,16 @@
         <v>29</v>
       </c>
       <c r="D46"/>
-      <c r="E46" t="s">
+      <c r="E46"/>
+      <c r="F46" t="s">
         <v>242</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>326</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H46"/>
       <c r="I46"/>
       <c r="J46"/>
       <c r="K46"/>
@@ -3069,8 +3153,9 @@
       <c r="M46"/>
       <c r="N46"/>
       <c r="O46"/>
-    </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P46"/>
+    </row>
+    <row r="47" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4" t="s">
         <v>367</v>
       </c>
@@ -3081,16 +3166,16 @@
         <v>29</v>
       </c>
       <c r="D47"/>
-      <c r="E47" t="s">
+      <c r="E47"/>
+      <c r="F47" t="s">
         <v>242</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>327</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H47"/>
       <c r="I47"/>
       <c r="J47"/>
       <c r="K47"/>
@@ -3098,8 +3183,9 @@
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4" t="s">
         <v>366</v>
       </c>
@@ -3109,17 +3195,17 @@
       <c r="C48" t="s">
         <v>322</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>323</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4" t="s">
         <v>379</v>
       </c>
@@ -3129,24 +3215,24 @@
       <c r="C49" t="s">
         <v>29</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>241</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>41</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I49" s="1" t="str">
+      <c r="J49" s="1" t="str">
         <f>VLOOKUP(B49,Profiled!A$1:A$98,1,FALSE)</f>
         <v>image.php</v>
       </c>
-      <c r="N49" t="s">
+      <c r="O49" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4" t="s">
         <v>379</v>
       </c>
@@ -3156,23 +3242,23 @@
       <c r="C50" t="s">
         <v>29</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>242</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>42</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="J50" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N50" t="s">
+      <c r="O50" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4" t="s">
         <v>379</v>
       </c>
@@ -3183,30 +3269,31 @@
         <v>29</v>
       </c>
       <c r="D51"/>
-      <c r="E51" t="s">
+      <c r="E51"/>
+      <c r="F51" t="s">
         <v>242</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H51"/>
-      <c r="I51" s="1" t="str">
+      <c r="I51"/>
+      <c r="J51" s="1" t="str">
         <f>VLOOKUP(B51,Profiled!A$1:A$98,1,FALSE)</f>
         <v>image_delete.php</v>
       </c>
-      <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
-      <c r="N51" t="s">
+      <c r="N51"/>
+      <c r="O51" t="s">
         <v>188</v>
       </c>
-      <c r="O51"/>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="4" t="s">
         <v>379</v>
       </c>
@@ -3216,24 +3303,24 @@
       <c r="C52" t="s">
         <v>29</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>242</v>
       </c>
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>44</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I52" s="1" t="str">
+      <c r="J52" s="1" t="str">
         <f>VLOOKUP(B52,Profiled!A$1:A$98,1,FALSE)</f>
         <v>image_get.php</v>
       </c>
-      <c r="N52" t="s">
+      <c r="O52" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="4" t="s">
         <v>379</v>
       </c>
@@ -3244,30 +3331,31 @@
         <v>29</v>
       </c>
       <c r="D53"/>
-      <c r="E53" t="s">
+      <c r="E53"/>
+      <c r="F53" t="s">
         <v>242</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>124</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H53"/>
-      <c r="I53" s="1" t="str">
+      <c r="I53"/>
+      <c r="J53" s="1" t="str">
         <f>VLOOKUP(B53,Profiled!A$1:A$98,1,FALSE)</f>
         <v>image_patch.php</v>
       </c>
-      <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
-      <c r="N53" t="s">
+      <c r="N53"/>
+      <c r="O53" t="s">
         <v>188</v>
       </c>
-      <c r="O53"/>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P53"/>
+    </row>
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="4" t="s">
         <v>379</v>
       </c>
@@ -3277,24 +3365,24 @@
       <c r="C54" t="s">
         <v>29</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>242</v>
       </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>45</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I54" s="1" t="str">
+      <c r="J54" s="1" t="str">
         <f>VLOOKUP(B54,Profiled!A$1:A$98,1,FALSE)</f>
         <v>image_post.php</v>
       </c>
-      <c r="N54" t="s">
+      <c r="O54" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4" t="s">
         <v>379</v>
       </c>
@@ -3304,51 +3392,69 @@
       <c r="C55" t="s">
         <v>29</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>242</v>
       </c>
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>46</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="1" t="str">
+      <c r="J55" s="1" t="str">
         <f>VLOOKUP(B55,Profiled!A$1:A$98,1,FALSE)</f>
         <v>image_put.php</v>
       </c>
-      <c r="N55" t="s">
+      <c r="O55" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B56" t="s">
-        <v>246</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F56" t="s">
-        <v>258</v>
-      </c>
       <c r="G56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I56" s="1" t="str">
+      <c r="I56" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J56" s="1" t="e">
         <f>VLOOKUP(B56,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>adminShowUsers.php</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>#N/A</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4" t="s">
         <v>367</v>
       </c>
@@ -3358,17 +3464,17 @@
       <c r="C57" t="s">
         <v>29</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>241</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>429</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
         <v>367</v>
       </c>
@@ -3378,17 +3484,17 @@
       <c r="C58" t="s">
         <v>29</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>242</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>430</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4" t="s">
         <v>367</v>
       </c>
@@ -3398,16 +3504,16 @@
       <c r="C59" t="s">
         <v>29</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>241</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>439</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="H59" s="1"/>
+      <c r="J59" s="1"/>
+    </row>
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
         <v>367</v>
       </c>
@@ -3417,16 +3523,16 @@
       <c r="C60" t="s">
         <v>29</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>242</v>
       </c>
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>440</v>
       </c>
-      <c r="G60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="H60" s="1"/>
+      <c r="J60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4" t="s">
         <v>367</v>
       </c>
@@ -3436,16 +3542,16 @@
       <c r="C61" t="s">
         <v>29</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>242</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>441</v>
       </c>
-      <c r="G61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="H61" s="1"/>
+      <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>367</v>
       </c>
@@ -3455,16 +3561,16 @@
       <c r="C62" t="s">
         <v>29</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>242</v>
       </c>
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>442</v>
       </c>
-      <c r="G62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="H62" s="1"/>
+      <c r="J62" s="1"/>
+    </row>
+    <row r="63" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4" t="s">
         <v>360</v>
       </c>
@@ -3475,13 +3581,13 @@
         <v>97</v>
       </c>
       <c r="D63"/>
-      <c r="E63" t="s">
+      <c r="E63"/>
+      <c r="F63" t="s">
         <v>242</v>
       </c>
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>443</v>
       </c>
-      <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
       <c r="K63"/>
@@ -3489,8 +3595,9 @@
       <c r="M63"/>
       <c r="N63"/>
       <c r="O63"/>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P63"/>
+    </row>
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
         <v>379</v>
       </c>
@@ -3501,27 +3608,28 @@
         <v>97</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>222</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1" t="s">
+      <c r="I64" s="1"/>
+      <c r="J64" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="4" t="s">
         <v>367</v>
       </c>
@@ -3532,30 +3640,31 @@
         <v>29</v>
       </c>
       <c r="D65"/>
-      <c r="E65" t="s">
+      <c r="E65"/>
+      <c r="F65" t="s">
         <v>241</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>49</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H65"/>
-      <c r="I65" s="1" t="str">
+      <c r="I65"/>
+      <c r="J65" s="1" t="str">
         <f>VLOOKUP(B65,Profiled!A$1:A$98,1,FALSE)</f>
         <v>patient.php</v>
       </c>
-      <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
-      <c r="N65" t="s">
+      <c r="N65"/>
+      <c r="O65" t="s">
         <v>184</v>
       </c>
-      <c r="O65"/>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P65"/>
+    </row>
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
         <v>367</v>
       </c>
@@ -3565,23 +3674,23 @@
       <c r="C66" t="s">
         <v>29</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>242</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>54</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="J66" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N66" t="s">
+      <c r="O66" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4" t="s">
         <v>367</v>
       </c>
@@ -3592,30 +3701,31 @@
         <v>29</v>
       </c>
       <c r="D67"/>
-      <c r="E67" t="s">
+      <c r="E67"/>
+      <c r="F67" t="s">
         <v>242</v>
       </c>
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>50</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H67"/>
-      <c r="I67" s="1" t="str">
+      <c r="I67"/>
+      <c r="J67" s="1" t="str">
         <f>VLOOKUP(B67,Profiled!A$1:A$98,1,FALSE)</f>
         <v>patient_delete.php</v>
       </c>
-      <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
-      <c r="N67" t="s">
+      <c r="N67"/>
+      <c r="O67" t="s">
         <v>188</v>
       </c>
-      <c r="O67"/>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P67"/>
+    </row>
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
         <v>367</v>
       </c>
@@ -3625,24 +3735,24 @@
       <c r="C68" t="s">
         <v>29</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>242</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>51</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I68" s="1" t="str">
+      <c r="J68" s="1" t="str">
         <f>VLOOKUP(B68,Profiled!A$1:A$98,1,FALSE)</f>
         <v>patient_get.php</v>
       </c>
-      <c r="N68" t="s">
+      <c r="O68" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
         <v>367</v>
       </c>
@@ -3652,24 +3762,24 @@
       <c r="C69" t="s">
         <v>29</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>242</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I69" s="1" t="str">
+      <c r="J69" s="1" t="str">
         <f>VLOOKUP(B69,Profiled!A$1:A$98,1,FALSE)</f>
         <v>patient_patch.php</v>
       </c>
-      <c r="N69" t="s">
+      <c r="O69" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>367</v>
       </c>
@@ -3679,24 +3789,24 @@
       <c r="C70" t="s">
         <v>29</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>242</v>
       </c>
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>53</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I70" s="1" t="str">
+      <c r="J70" s="1" t="str">
         <f>VLOOKUP(B70,Profiled!A$1:A$98,1,FALSE)</f>
         <v>patient_post.php</v>
       </c>
-      <c r="N70" t="s">
+      <c r="O70" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
         <v>352</v>
       </c>
@@ -3709,20 +3819,20 @@
       <c r="D71" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E71"/>
       <c r="F71"/>
-      <c r="G71" s="1" t="s">
+      <c r="G71"/>
+      <c r="H71" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H71"/>
-      <c r="J71"/>
+      <c r="I71"/>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
       <c r="N71"/>
       <c r="O71"/>
-    </row>
-    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P71"/>
+    </row>
+    <row r="72" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
         <v>363</v>
       </c>
@@ -3733,16 +3843,16 @@
         <v>302</v>
       </c>
       <c r="D72"/>
-      <c r="E72" s="1" t="s">
+      <c r="E72"/>
+      <c r="F72" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>303</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H72"/>
       <c r="I72"/>
       <c r="J72"/>
       <c r="K72"/>
@@ -3750,8 +3860,9 @@
       <c r="M72"/>
       <c r="N72"/>
       <c r="O72"/>
-    </row>
-    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P72"/>
+    </row>
+    <row r="73" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4" t="s">
         <v>432</v>
       </c>
@@ -3762,16 +3873,16 @@
         <v>435</v>
       </c>
       <c r="D73"/>
-      <c r="E73" s="1" t="s">
+      <c r="E73"/>
+      <c r="F73" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>436</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H73"/>
       <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
@@ -3779,8 +3890,9 @@
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
-    </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P73"/>
+    </row>
+    <row r="74" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
         <v>432</v>
       </c>
@@ -3791,16 +3903,16 @@
         <v>435</v>
       </c>
       <c r="D74"/>
-      <c r="E74" s="1" t="s">
+      <c r="E74"/>
+      <c r="F74" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>437</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H74"/>
       <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
@@ -3808,8 +3920,9 @@
       <c r="M74"/>
       <c r="N74"/>
       <c r="O74"/>
-    </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P74"/>
+    </row>
+    <row r="75" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4" t="s">
         <v>360</v>
       </c>
@@ -3820,29 +3933,30 @@
         <v>97</v>
       </c>
       <c r="D75"/>
-      <c r="E75" t="s">
+      <c r="E75"/>
+      <c r="F75" t="s">
         <v>242</v>
       </c>
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>35</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>222</v>
       </c>
-      <c r="H75"/>
-      <c r="I75" s="1" t="s">
+      <c r="I75"/>
+      <c r="J75" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
-      <c r="N75" t="s">
+      <c r="N75"/>
+      <c r="O75" t="s">
         <v>182</v>
       </c>
-      <c r="O75"/>
-    </row>
-    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P75"/>
+    </row>
+    <row r="76" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4" t="s">
         <v>360</v>
       </c>
@@ -3852,28 +3966,28 @@
       <c r="C76" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>242</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>222</v>
       </c>
-      <c r="H76"/>
-      <c r="I76" s="1" t="str">
+      <c r="I76"/>
+      <c r="J76" s="1" t="str">
         <f>VLOOKUP(B76,Profiled!A$1:A$98,1,FALSE)</f>
         <v>profile.php</v>
       </c>
-      <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
       <c r="O76"/>
-    </row>
-    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P76"/>
+    </row>
+    <row r="77" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4" t="s">
         <v>352</v>
       </c>
@@ -3884,29 +3998,30 @@
         <v>97</v>
       </c>
       <c r="D77"/>
-      <c r="E77" t="s">
+      <c r="E77"/>
+      <c r="F77" t="s">
         <v>239</v>
       </c>
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>105</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>222</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>106</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="J77" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
       <c r="N77"/>
       <c r="O77"/>
-    </row>
-    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P77"/>
+    </row>
+    <row r="78" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4" t="s">
         <v>356</v>
       </c>
@@ -3917,118 +4032,116 @@
         <v>67</v>
       </c>
       <c r="D78"/>
-      <c r="E78" t="s">
+      <c r="E78"/>
+      <c r="F78" t="s">
         <v>242</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>79</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H78"/>
-      <c r="I78" s="1" t="s">
+      <c r="I78"/>
+      <c r="J78" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
-      <c r="N78" t="s">
+      <c r="N78"/>
+      <c r="O78" t="s">
         <v>158</v>
       </c>
-      <c r="O78" t="s">
+      <c r="P78" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4" t="s">
-        <v>352</v>
+        <v>379</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G79" s="1" t="s">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="H79" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I79" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I79" s="1" t="str">
+      <c r="J79" s="1" t="e">
         <f>VLOOKUP(B79,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>clinicDash.php</v>
-      </c>
-      <c r="K79" s="1" t="s">
-        <v>229</v>
+        <v>#N/A</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>229</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N79" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>230</v>
+      </c>
+      <c r="N79" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P79" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4" t="s">
         <v>379</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="G80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H80" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I80" s="1" t="e">
+      <c r="J80" s="1" t="e">
         <f>VLOOKUP(B80,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+        <v>230</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" s="1" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="4" t="s">
         <v>379</v>
       </c>
@@ -4038,68 +4151,67 @@
       <c r="C81" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="O81" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="O81" s="2" t="s">
+      <c r="P81" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G82" s="1" t="s">
-        <v>221</v>
+        <v>56</v>
       </c>
       <c r="H82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I82" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I82" s="1" t="e">
-        <f>VLOOKUP(B82,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K82" s="1" t="s">
+      <c r="J82" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N82" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="O82" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>136</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4" t="s">
         <v>356</v>
       </c>
@@ -4110,79 +4222,74 @@
         <v>67</v>
       </c>
       <c r="D83"/>
-      <c r="E83" t="s">
+      <c r="E83"/>
+      <c r="F83" t="s">
         <v>242</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>81</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H83"/>
-      <c r="I83" s="1" t="s">
+      <c r="I83"/>
+      <c r="J83" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J83"/>
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
-      <c r="N83" t="s">
+      <c r="N83"/>
+      <c r="O83" t="s">
         <v>159</v>
       </c>
-      <c r="O83" t="s">
+      <c r="P83" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="F84" s="1" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I84" s="1" t="e">
+        <v>219</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J84" s="1" t="e">
         <f>VLOOKUP(B84,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J84" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="L84" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N84" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>229</v>
+      </c>
+      <c r="N84" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O84" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P84" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4" t="s">
         <v>356</v>
       </c>
@@ -4193,31 +4300,32 @@
         <v>67</v>
       </c>
       <c r="D85"/>
-      <c r="E85" t="s">
+      <c r="E85"/>
+      <c r="F85" t="s">
         <v>242</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>82</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H85"/>
-      <c r="I85" s="1" t="s">
+      <c r="I85"/>
+      <c r="J85" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85"/>
-      <c r="N85" t="s">
+      <c r="N85"/>
+      <c r="O85" t="s">
         <v>160</v>
       </c>
-      <c r="O85" t="s">
+      <c r="P85" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
         <v>352</v>
       </c>
@@ -4228,14 +4336,15 @@
         <v>97</v>
       </c>
       <c r="D86" s="1"/>
-      <c r="F86" s="1" t="s">
+      <c r="E86" s="1"/>
+      <c r="G86" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4" t="s">
         <v>379</v>
       </c>
@@ -4245,26 +4354,26 @@
       <c r="C87" t="s">
         <v>67</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>242</v>
       </c>
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>83</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>161</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4" t="s">
         <v>379</v>
       </c>
@@ -4275,26 +4384,24 @@
         <v>31</v>
       </c>
       <c r="D88" s="1"/>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I88" s="1" t="e">
+      <c r="J88" s="1" t="e">
         <f>VLOOKUP(B88,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="K88" s="1"/>
       <c r="L88" s="1" t="s">
         <v>229</v>
       </c>
@@ -4302,13 +4409,16 @@
         <v>229</v>
       </c>
       <c r="N88" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O88" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="O88" s="1" t="s">
+      <c r="P88" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4" t="s">
         <v>379</v>
       </c>
@@ -4319,38 +4429,39 @@
         <v>31</v>
       </c>
       <c r="D89" s="1"/>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I89" s="1" t="e">
+      <c r="J89" s="1" t="e">
         <f>VLOOKUP(B89,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="K89" s="1"/>
       <c r="L89" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1" t="s">
+      <c r="M89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="O89" s="1" t="s">
+      <c r="P89" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4" t="s">
         <v>356</v>
       </c>
@@ -4361,54 +4472,77 @@
         <v>67</v>
       </c>
       <c r="D90" s="1"/>
-      <c r="E90" t="s">
+      <c r="E90" s="1"/>
+      <c r="F90" t="s">
         <v>242</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1" t="s">
+      <c r="I90" s="1"/>
+      <c r="J90" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-      <c r="N90" s="1" t="s">
+      <c r="N90" s="1"/>
+      <c r="O90" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="O90" t="s">
+      <c r="P90" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B91" t="s">
-        <v>287</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B91" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E91" s="1" t="s">
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F91" t="s">
-        <v>298</v>
-      </c>
       <c r="G91" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I91" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J91" s="1" t="e">
+        <f>VLOOKUP(B91,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4" t="s">
         <v>379</v>
       </c>
@@ -4418,43 +4552,42 @@
       <c r="C92" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I92" s="1" t="e">
+      <c r="J92" s="1" t="e">
         <f>VLOOKUP(B92,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="K92" s="1"/>
       <c r="L92" s="1" t="s">
         <v>229</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="N92" s="2" t="s">
+      <c r="N92" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O92" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="O92" s="2" t="s">
+      <c r="P92" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4" t="s">
         <v>384</v>
       </c>
@@ -4467,17 +4600,18 @@
       <c r="D93" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4" t="s">
         <v>385</v>
       </c>
@@ -4488,48 +4622,54 @@
         <v>67</v>
       </c>
       <c r="D94" s="1"/>
-      <c r="E94" t="s">
+      <c r="E94" s="1"/>
+      <c r="F94" t="s">
         <v>242</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1" t="s">
+      <c r="I94" s="1"/>
+      <c r="J94" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-      <c r="N94" s="1" t="s">
+      <c r="N94" s="1"/>
+      <c r="O94" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="O94" t="s">
+      <c r="P94" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B95" t="s">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="C95" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>450</v>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>111</v>
+      </c>
+      <c r="H95" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="4" t="s">
         <v>379</v>
       </c>
@@ -4539,20 +4679,19 @@
       <c r="C96" t="s">
         <v>31</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E96" s="1" t="s">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="4" t="s">
         <v>384</v>
       </c>
@@ -4565,17 +4704,18 @@
       <c r="D97" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4" t="s">
         <v>385</v>
       </c>
@@ -4585,17 +4725,17 @@
       <c r="C98" t="s">
         <v>67</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4" t="s">
         <v>384</v>
       </c>
@@ -4608,63 +4748,40 @@
       <c r="D99" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C100" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B100" t="s">
+        <v>406</v>
+      </c>
+      <c r="C100" t="s">
         <v>31</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E100" s="1" t="s">
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G100" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I100" s="1" t="e">
-        <f>VLOOKUP(B100,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>348</v>
+      </c>
+      <c r="H100" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4" t="s">
         <v>379</v>
       </c>
@@ -4674,20 +4791,19 @@
       <c r="C101" t="s">
         <v>31</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E101" s="1" t="s">
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4" t="s">
         <v>384</v>
       </c>
@@ -4700,62 +4816,40 @@
       <c r="D102" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C103" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B103" t="s">
+        <v>409</v>
+      </c>
+      <c r="C103" t="s">
         <v>31</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E103" s="1" t="s">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G103" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="H103" t="s">
         <v>220</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L103" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N103" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4" t="s">
         <v>384</v>
       </c>
@@ -4768,63 +4862,40 @@
       <c r="D104" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="1"/>
+      <c r="F104" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C105" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B105" t="s">
+        <v>399</v>
+      </c>
+      <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E105" s="1" t="s">
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I105" s="1" t="e">
-        <f>VLOOKUP(B105,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J105" s="1"/>
-      <c r="K105" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L105" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M105" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N105" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="G105" t="s">
+        <v>343</v>
+      </c>
+      <c r="H105" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4" t="s">
         <v>384</v>
       </c>
@@ -4837,17 +4908,18 @@
       <c r="D106" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="1"/>
+      <c r="F106" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="4" t="s">
         <v>385</v>
       </c>
@@ -4857,23 +4929,23 @@
       <c r="C107" t="s">
         <v>67</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>309</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="N107" t="s">
+      <c r="O107" t="s">
         <v>315</v>
       </c>
-      <c r="O107" t="s">
+      <c r="P107" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4" t="s">
         <v>360</v>
       </c>
@@ -4884,32 +4956,33 @@
         <v>97</v>
       </c>
       <c r="D108" s="1"/>
-      <c r="E108" t="s">
+      <c r="E108" s="1"/>
+      <c r="F108" t="s">
         <v>242</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>222</v>
       </c>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1" t="str">
+      <c r="I108" s="1"/>
+      <c r="J108" s="1" t="str">
         <f>VLOOKUP(B108,Profiled!A$1:A$98,1,FALSE)</f>
         <v>security.php</v>
       </c>
-      <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
-      <c r="N108" s="1" t="s">
+      <c r="N108" s="1"/>
+      <c r="O108" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="O108" s="1" t="s">
+      <c r="P108" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="4" t="s">
         <v>379</v>
       </c>
@@ -4920,27 +4993,28 @@
         <v>67</v>
       </c>
       <c r="D109" s="1"/>
-      <c r="E109" t="s">
+      <c r="E109" s="1"/>
+      <c r="F109" t="s">
         <v>242</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1" t="s">
+      <c r="I109" s="1"/>
+      <c r="J109" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
       <c r="O109" s="1"/>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P109" s="1"/>
+    </row>
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4" t="s">
         <v>367</v>
       </c>
@@ -4951,30 +5025,31 @@
         <v>29</v>
       </c>
       <c r="D110" s="1"/>
-      <c r="E110" t="s">
+      <c r="E110" s="1"/>
+      <c r="F110" t="s">
         <v>241</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1" t="str">
+      <c r="I110" s="1"/>
+      <c r="J110" s="1" t="str">
         <f>VLOOKUP(B110,Profiled!A$1:A$98,1,FALSE)</f>
         <v>session.php</v>
       </c>
-      <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
       <c r="M110" s="1"/>
-      <c r="N110" t="s">
+      <c r="N110" s="1"/>
+      <c r="O110" t="s">
         <v>188</v>
       </c>
-      <c r="O110" s="1"/>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P110" s="1"/>
+    </row>
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4" t="s">
         <v>367</v>
       </c>
@@ -4985,29 +5060,30 @@
         <v>29</v>
       </c>
       <c r="D111" s="1"/>
-      <c r="E111" t="s">
+      <c r="E111" s="1"/>
+      <c r="F111" t="s">
         <v>242</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H111" s="1"/>
-      <c r="I111" s="1" t="s">
+      <c r="I111" s="1"/>
+      <c r="J111" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
       <c r="M111" s="1"/>
-      <c r="N111" t="s">
+      <c r="N111" s="1"/>
+      <c r="O111" t="s">
         <v>188</v>
       </c>
-      <c r="O111" s="1"/>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P111" s="1"/>
+    </row>
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4" t="s">
         <v>367</v>
       </c>
@@ -5018,30 +5094,31 @@
         <v>29</v>
       </c>
       <c r="D112" s="1"/>
-      <c r="E112" t="s">
+      <c r="E112" s="1"/>
+      <c r="F112" t="s">
         <v>242</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1" t="str">
+      <c r="I112" s="1"/>
+      <c r="J112" s="1" t="str">
         <f>VLOOKUP(B112,Profiled!A$1:A$98,1,FALSE)</f>
         <v>session_delete.php</v>
       </c>
-      <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
       <c r="M112" s="1"/>
-      <c r="N112" t="s">
+      <c r="N112" s="1"/>
+      <c r="O112" t="s">
         <v>188</v>
       </c>
-      <c r="O112" s="1"/>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P112" s="1"/>
+    </row>
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="4" t="s">
         <v>367</v>
       </c>
@@ -5052,30 +5129,31 @@
         <v>29</v>
       </c>
       <c r="D113" s="1"/>
-      <c r="E113" t="s">
+      <c r="E113" s="1"/>
+      <c r="F113" t="s">
         <v>242</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H113" s="1"/>
-      <c r="I113" s="1" t="str">
+      <c r="I113" s="1"/>
+      <c r="J113" s="1" t="str">
         <f>VLOOKUP(B113,Profiled!A$1:A$98,1,FALSE)</f>
         <v>session_get.php</v>
       </c>
-      <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
       <c r="M113" s="1"/>
-      <c r="N113" t="s">
+      <c r="N113" s="1"/>
+      <c r="O113" t="s">
         <v>188</v>
       </c>
-      <c r="O113" s="1"/>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P113" s="1"/>
+    </row>
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4" t="s">
         <v>367</v>
       </c>
@@ -5085,17 +5163,17 @@
       <c r="C114" t="s">
         <v>29</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>242</v>
       </c>
-      <c r="F114" t="s">
+      <c r="G114" t="s">
         <v>264</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4" t="s">
         <v>367</v>
       </c>
@@ -5106,30 +5184,31 @@
         <v>29</v>
       </c>
       <c r="D115" s="1"/>
-      <c r="E115" t="s">
+      <c r="E115" s="1"/>
+      <c r="F115" t="s">
         <v>242</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H115" s="1"/>
-      <c r="I115" s="1" t="str">
+      <c r="I115" s="1"/>
+      <c r="J115" s="1" t="str">
         <f>VLOOKUP(B115,Profiled!A$1:A$98,1,FALSE)</f>
         <v>session_post.php</v>
       </c>
-      <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
       <c r="M115" s="1"/>
-      <c r="N115" t="s">
+      <c r="N115" s="1"/>
+      <c r="O115" t="s">
         <v>188</v>
       </c>
-      <c r="O115" s="1"/>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P115" s="1"/>
+    </row>
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4" t="s">
         <v>367</v>
       </c>
@@ -5139,21 +5218,21 @@
       <c r="C116" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F116" t="s">
+      <c r="G116" t="s">
         <v>260</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I116" s="1" t="str">
+      <c r="J116" s="1" t="str">
         <f>VLOOKUP(B116,Profiled!A$1:A$98,1,FALSE)</f>
         <v>staff.php</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="4" t="s">
         <v>367</v>
       </c>
@@ -5163,20 +5242,20 @@
       <c r="C117" t="s">
         <v>29</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F117" t="s">
+      <c r="G117" t="s">
         <v>263</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="J117" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="4" t="s">
         <v>367</v>
       </c>
@@ -5186,17 +5265,17 @@
       <c r="C118" t="s">
         <v>29</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>242</v>
       </c>
-      <c r="F118" t="s">
+      <c r="G118" t="s">
         <v>428</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="4" t="s">
         <v>367</v>
       </c>
@@ -5206,21 +5285,21 @@
       <c r="C119" t="s">
         <v>29</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F119" t="s">
+      <c r="G119" t="s">
         <v>265</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I119" s="1" t="str">
+      <c r="J119" s="1" t="str">
         <f>VLOOKUP(B119,Profiled!A$1:A$98,1,FALSE)</f>
         <v>staff_get.php</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="4" t="s">
         <v>367</v>
       </c>
@@ -5230,21 +5309,21 @@
       <c r="C120" t="s">
         <v>29</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F120" t="s">
+      <c r="G120" t="s">
         <v>264</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>267</v>
       </c>
-      <c r="I120" s="1" t="str">
+      <c r="J120" s="1" t="str">
         <f>VLOOKUP(B120,Profiled!A$1:A$98,1,FALSE)</f>
         <v>staff_patch.php</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4" t="s">
         <v>367</v>
       </c>
@@ -5254,67 +5333,49 @@
       <c r="C121" t="s">
         <v>29</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>266</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>267</v>
       </c>
-      <c r="I121" s="1" t="str">
+      <c r="J121" s="1" t="str">
         <f>VLOOKUP(B121,Profiled!A$1:A$98,1,FALSE)</f>
         <v>staff_post.php</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C122" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B122" t="s">
+        <v>398</v>
+      </c>
+      <c r="C122" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E122" s="1" t="s">
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" t="s">
         <v>240</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>219</v>
+      <c r="G122" t="s">
+        <v>308</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I122" s="1" t="e">
-        <f>VLOOKUP(B122,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M122" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N122" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="O122" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>220</v>
+      </c>
+      <c r="O122" t="s">
+        <v>313</v>
+      </c>
+      <c r="P122" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="4" t="s">
         <v>356</v>
       </c>
@@ -5324,20 +5385,20 @@
       <c r="C123" t="s">
         <v>67</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F123" t="s">
+      <c r="G123" t="s">
         <v>262</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="J123" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4" t="s">
         <v>356</v>
       </c>
@@ -5347,17 +5408,17 @@
       <c r="C124" t="s">
         <v>97</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F124" t="s">
+      <c r="G124" t="s">
         <v>336</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4" t="s">
         <v>356</v>
       </c>
@@ -5367,17 +5428,17 @@
       <c r="C125" t="s">
         <v>67</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F125" t="s">
+      <c r="G125" t="s">
         <v>337</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="H125" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4" t="s">
         <v>381</v>
       </c>
@@ -5388,30 +5449,31 @@
         <v>30</v>
       </c>
       <c r="D126" s="1"/>
-      <c r="E126" s="1" t="s">
+      <c r="E126" s="1"/>
+      <c r="F126" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H126" s="1"/>
-      <c r="I126" s="1" t="str">
+      <c r="I126" s="1"/>
+      <c r="J126" s="1" t="str">
         <f>VLOOKUP(B126,Profiled!A$1:A$98,1,FALSE)</f>
         <v>startUiSession.php</v>
       </c>
-      <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
       <c r="M126" s="1"/>
-      <c r="N126" t="s">
+      <c r="N126" s="1"/>
+      <c r="O126" t="s">
         <v>188</v>
       </c>
-      <c r="O126" s="1"/>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P126" s="1"/>
+    </row>
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
         <v>438</v>
       </c>
@@ -5421,17 +5483,17 @@
       <c r="C127" t="s">
         <v>97</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="F127" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>342</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4" t="s">
         <v>367</v>
       </c>
@@ -5442,13 +5504,13 @@
         <v>29</v>
       </c>
       <c r="D128" s="1"/>
-      <c r="E128" s="1" t="s">
+      <c r="E128" s="1"/>
+      <c r="F128" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="G128" s="1"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -5457,8 +5519,9 @@
       <c r="M128" s="1"/>
       <c r="N128" s="1"/>
       <c r="O128" s="1"/>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P128" s="1"/>
+    </row>
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4" t="s">
         <v>367</v>
       </c>
@@ -5469,13 +5532,13 @@
         <v>29</v>
       </c>
       <c r="D129" s="1"/>
-      <c r="E129" s="1" t="s">
+      <c r="E129" s="1"/>
+      <c r="F129" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" s="1" t="s">
         <v>426</v>
       </c>
-      <c r="G129" s="1"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -5484,8 +5547,9 @@
       <c r="M129" s="1"/>
       <c r="N129" s="1"/>
       <c r="O129" s="1"/>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P129" s="1"/>
+    </row>
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="4" t="s">
         <v>367</v>
       </c>
@@ -5496,13 +5560,13 @@
         <v>29</v>
       </c>
       <c r="D130" s="1"/>
-      <c r="E130" s="1" t="s">
+      <c r="E130" s="1"/>
+      <c r="F130" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="G130" s="1"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -5511,8 +5575,9 @@
       <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P130" s="1"/>
+    </row>
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="4" t="s">
         <v>367</v>
       </c>
@@ -5523,13 +5588,13 @@
         <v>29</v>
       </c>
       <c r="D131" s="1"/>
-      <c r="E131" s="1" t="s">
+      <c r="E131" s="1"/>
+      <c r="F131" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G131" s="1"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -5538,8 +5603,9 @@
       <c r="M131" s="1"/>
       <c r="N131" s="1"/>
       <c r="O131" s="1"/>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P131" s="1"/>
+    </row>
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4" t="s">
         <v>367</v>
       </c>
@@ -5550,13 +5616,13 @@
         <v>29</v>
       </c>
       <c r="D132" s="1"/>
-      <c r="E132" s="1" t="s">
+      <c r="E132" s="1"/>
+      <c r="F132" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -5565,8 +5631,9 @@
       <c r="M132" s="1"/>
       <c r="N132" s="1"/>
       <c r="O132" s="1"/>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P132" s="1"/>
+    </row>
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4" t="s">
         <v>367</v>
       </c>
@@ -5577,13 +5644,13 @@
         <v>29</v>
       </c>
       <c r="D133" s="1"/>
-      <c r="E133" s="1" t="s">
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="G133" s="1"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -5592,8 +5659,9 @@
       <c r="M133" s="1"/>
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P133" s="1"/>
+    </row>
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4" t="s">
         <v>360</v>
       </c>
@@ -5603,23 +5671,23 @@
       <c r="C134" t="s">
         <v>97</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>242</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>107</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>222</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="J134" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N134" t="s">
+      <c r="O134" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4" t="s">
         <v>352</v>
       </c>
@@ -5629,24 +5697,23 @@
       <c r="C135" t="s">
         <v>31</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>261</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>221</v>
       </c>
-      <c r="I135" s="1" t="e">
+      <c r="J135" s="1" t="e">
         <f>VLOOKUP(B135,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4" t="s">
         <v>356</v>
       </c>
@@ -5656,26 +5723,26 @@
       <c r="C136" t="s">
         <v>67</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>242</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>99</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="J136" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N136" t="s">
+      <c r="O136" t="s">
         <v>164</v>
       </c>
-      <c r="O136" t="s">
+      <c r="P136" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4" t="s">
         <v>352</v>
       </c>
@@ -5686,23 +5753,21 @@
         <v>223</v>
       </c>
       <c r="D137" s="1"/>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="G137" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J137" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>222</v>
       </c>
       <c r="K137" s="1" t="s">
         <v>222</v>
@@ -5714,13 +5779,16 @@
         <v>222</v>
       </c>
       <c r="N137" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O137" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="O137" s="1" t="s">
+      <c r="P137" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4" t="s">
         <v>356</v>
       </c>
@@ -5742,8 +5810,9 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
-    </row>
-    <row r="139" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="P138" s="1"/>
+    </row>
+    <row r="139" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4" t="s">
         <v>381</v>
       </c>
@@ -5754,32 +5823,33 @@
         <v>30</v>
       </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="1"/>
+      <c r="F139" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H139" s="1"/>
-      <c r="I139" s="1" t="e">
+      <c r="I139" s="1"/>
+      <c r="J139" s="1" t="e">
         <f>VLOOKUP(B139,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="1"/>
-      <c r="N139" s="2" t="s">
+      <c r="N139" s="1"/>
+      <c r="O139" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="O139" s="2" t="s">
+      <c r="P139" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4" t="s">
         <v>352</v>
       </c>
@@ -5790,27 +5860,28 @@
         <v>223</v>
       </c>
       <c r="D140" s="1"/>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="1"/>
+      <c r="F140" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1" t="s">
+      <c r="I140" s="1"/>
+      <c r="J140" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="P140" s="1"/>
+    </row>
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="4" t="s">
         <v>356</v>
       </c>
@@ -5820,17 +5891,17 @@
       <c r="C141" t="s">
         <v>67</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>242</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>301</v>
       </c>
-      <c r="G141" s="1" t="s">
+      <c r="H141" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="4" t="s">
         <v>367</v>
       </c>
@@ -5840,24 +5911,24 @@
       <c r="C142" t="s">
         <v>29</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>241</v>
       </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>58</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I142" s="1" t="str">
+      <c r="J142" s="1" t="str">
         <f>VLOOKUP(B142,Profiled!A$1:A$98,1,FALSE)</f>
         <v>visit.php</v>
       </c>
-      <c r="N142" t="s">
+      <c r="O142" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4" t="s">
         <v>367</v>
       </c>
@@ -5867,23 +5938,23 @@
       <c r="C143" t="s">
         <v>29</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>242</v>
       </c>
-      <c r="F143" t="s">
+      <c r="G143" t="s">
         <v>101</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I143" s="1" t="s">
+      <c r="J143" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N143" t="s">
+      <c r="O143" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4" t="s">
         <v>367</v>
       </c>
@@ -5893,24 +5964,24 @@
       <c r="C144" t="s">
         <v>29</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>242</v>
       </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>104</v>
       </c>
-      <c r="G144" s="1" t="s">
+      <c r="H144" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="I144" s="1" t="str">
+      <c r="J144" s="1" t="str">
         <f>VLOOKUP(B144,Profiled!A$1:A$98,1,FALSE)</f>
         <v>visit_get.php</v>
       </c>
-      <c r="N144" t="s">
+      <c r="O144" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="4" t="s">
         <v>367</v>
       </c>
@@ -5920,24 +5991,24 @@
       <c r="C145" t="s">
         <v>29</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>242</v>
       </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>102</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="H145" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I145" s="1" t="str">
+      <c r="J145" s="1" t="str">
         <f>VLOOKUP(B145,Profiled!A$1:A$98,1,FALSE)</f>
         <v>visit_patch.php</v>
       </c>
-      <c r="N145" t="s">
+      <c r="O145" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
         <v>367</v>
       </c>
@@ -5947,24 +6018,24 @@
       <c r="C146" t="s">
         <v>29</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>242</v>
       </c>
-      <c r="F146" t="s">
+      <c r="G146" t="s">
         <v>103</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I146" s="1" t="str">
+      <c r="J146" s="1" t="str">
         <f>VLOOKUP(B146,Profiled!A$1:A$98,1,FALSE)</f>
         <v>visit_post.php</v>
       </c>
-      <c r="N146" t="s">
+      <c r="O146" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="4" t="s">
         <v>352</v>
       </c>
@@ -5974,20 +6045,19 @@
       <c r="C147" t="s">
         <v>31</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F147" t="s">
+      <c r="G147" t="s">
         <v>300</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="4" t="s">
         <v>356</v>
       </c>
@@ -5997,26 +6067,26 @@
       <c r="C148" t="s">
         <v>67</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>242</v>
       </c>
-      <c r="F148" t="s">
+      <c r="G148" t="s">
         <v>84</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="H148" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="J148" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N148" t="s">
+      <c r="O148" t="s">
         <v>165</v>
       </c>
-      <c r="O148" t="s">
+      <c r="P148" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="4" t="s">
         <v>352</v>
       </c>
@@ -6026,17 +6096,16 @@
       <c r="C149" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E149" s="1" t="s">
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="G149" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="4" t="s">
         <v>356</v>
       </c>
@@ -6046,26 +6115,26 @@
       <c r="C150" t="s">
         <v>67</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>242</v>
       </c>
-      <c r="F150" t="s">
+      <c r="G150" t="s">
         <v>85</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="J150" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N150" t="s">
+      <c r="O150" t="s">
         <v>168</v>
       </c>
-      <c r="O150" t="s">
+      <c r="P150" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="4" t="s">
         <v>352</v>
       </c>
@@ -6075,43 +6144,42 @@
       <c r="C151" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E151" s="1" t="s">
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="G151" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="I151" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I151" s="1" t="e">
+      <c r="J151" s="1" t="e">
         <f>VLOOKUP(B151,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J151" s="1"/>
-      <c r="K151" s="1" t="s">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="L151" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N151" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O151" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="O151" s="1" t="s">
+      <c r="P151" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="4" t="s">
         <v>356</v>
       </c>
@@ -6121,26 +6189,26 @@
       <c r="C152" t="s">
         <v>67</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>242</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>86</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="J152" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N152" t="s">
+      <c r="O152" t="s">
         <v>169</v>
       </c>
-      <c r="O152" t="s">
+      <c r="P152" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="4" t="s">
         <v>352</v>
       </c>
@@ -6150,43 +6218,42 @@
       <c r="C153" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E153" s="1" t="s">
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="G153" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="I153" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I153" s="1" t="e">
+      <c r="J153" s="1" t="e">
         <f>VLOOKUP(B153,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1" t="s">
+      <c r="K153" s="1"/>
+      <c r="L153" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="L153" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N153" s="2" t="s">
+      <c r="N153" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O153" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="O153" s="2" t="s">
+      <c r="P153" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="4" t="s">
         <v>356</v>
       </c>
@@ -6196,26 +6263,26 @@
       <c r="C154" t="s">
         <v>67</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>242</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>87</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="J154" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="N154" t="s">
+      <c r="O154" t="s">
         <v>170</v>
       </c>
-      <c r="O154" t="s">
+      <c r="P154" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:16" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="4" t="s">
         <v>352</v>
       </c>
@@ -6225,43 +6292,42 @@
       <c r="C155" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="G155" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G155" s="1" t="s">
+      <c r="H155" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H155" s="1" t="s">
+      <c r="I155" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I155" s="1" t="e">
+      <c r="J155" s="1" t="e">
         <f>VLOOKUP(B155,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="J155" s="1"/>
-      <c r="K155" s="1" t="s">
-        <v>229</v>
-      </c>
+      <c r="K155" s="1"/>
       <c r="L155" s="1" t="s">
         <v>229</v>
       </c>
       <c r="M155" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N155" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N155" s="2" t="s">
+      <c r="O155" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="O155" s="2" t="s">
+      <c r="P155" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="4" t="s">
         <v>356</v>
       </c>
@@ -6271,17 +6337,17 @@
       <c r="C156" t="s">
         <v>67</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F156" t="s">
+      <c r="G156" t="s">
         <v>339</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="4" t="s">
         <v>352</v>
       </c>
@@ -6291,17 +6357,17 @@
       <c r="C157" t="s">
         <v>97</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="F157" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="F157" t="s">
+      <c r="G157" t="s">
         <v>338</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="H157" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="4" t="s">
         <v>352</v>
       </c>
@@ -6311,45 +6377,49 @@
       <c r="C158" t="s">
         <v>31</v>
       </c>
-      <c r="D158" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E158" s="1" t="s">
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F158" t="s">
+      <c r="G158" t="s">
         <v>48</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="I158" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I158" s="1" t="e">
+      <c r="J158" s="1" t="e">
         <f>VLOOKUP(B158,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K158" s="1" t="s">
+      <c r="L158" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="L158" s="1" t="s">
-        <v>230</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>230</v>
       </c>
       <c r="N158" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O158" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="O158" s="1" t="s">
+      <c r="P158" s="1" t="s">
         <v>155</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O158" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:O158">
-      <sortCondition ref="A1:A158"/>
+  <autoFilter ref="A1:P158" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="UI"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:P158">
+      <sortCondition ref="B1:B158"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\bobw\Documents\GitHub\docsbydesign\piClinic\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DB6C95-A176-4F5B-BB3C-28F244436F18}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E0C83-8DAA-4831-9FBA-379CB4B8C732}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="816" yWindow="4386" windowWidth="22014" windowHeight="7680" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="452">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1827,13 +1827,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+  <sheetPr codeName="Sheet1" filterMode="1"/>
   <dimension ref="A1:P158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="618" topLeftCell="A18" activePane="bottomLeft"/>
+      <pane ySplit="618" activePane="bottomLeft"/>
       <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D29" sqref="D29:E29"/>
+      <selection pane="bottomLeft" activeCell="D135" sqref="D135:E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2406,7 +2406,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4" t="s">
         <v>379</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4" t="s">
         <v>379</v>
       </c>
@@ -2731,8 +2731,12 @@
       <c r="C31" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>240</v>
       </c>
@@ -3419,8 +3423,12 @@
       <c r="C56" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F56" s="1" t="s">
         <v>240</v>
       </c>
@@ -4057,7 +4065,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4" t="s">
         <v>379</v>
       </c>
@@ -4099,7 +4107,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="80" spans="1:16" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:16" s="1" customFormat="1" ht="57.6" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4" t="s">
         <v>379</v>
       </c>
@@ -4179,6 +4187,12 @@
       </c>
       <c r="C82" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>397</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>240</v>
@@ -4257,6 +4271,12 @@
       <c r="C84" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="D84" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F84" s="1" t="s">
         <v>240</v>
       </c>
@@ -4373,7 +4393,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4" t="s">
         <v>379</v>
       </c>
@@ -4418,7 +4438,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4" t="s">
         <v>379</v>
       </c>
@@ -4507,8 +4527,12 @@
       <c r="C91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F91" s="1" t="s">
         <v>240</v>
       </c>
@@ -4542,7 +4566,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="92" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4" t="s">
         <v>379</v>
       </c>
@@ -4657,8 +4681,12 @@
       <c r="C95" t="s">
         <v>31</v>
       </c>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F95" s="1" t="s">
         <v>240</v>
       </c>
@@ -4669,7 +4697,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="4" t="s">
         <v>379</v>
       </c>
@@ -4769,8 +4797,12 @@
       <c r="C100" t="s">
         <v>31</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F100" s="1" t="s">
         <v>240</v>
       </c>
@@ -4781,7 +4813,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4" t="s">
         <v>379</v>
       </c>
@@ -4837,8 +4869,12 @@
       <c r="C103" t="s">
         <v>31</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F103" s="1" t="s">
         <v>240</v>
       </c>
@@ -4883,8 +4919,12 @@
       <c r="C105" t="s">
         <v>31</v>
       </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
+      <c r="D105" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F105" s="1" t="s">
         <v>240</v>
       </c>
@@ -5357,8 +5397,12 @@
       <c r="C122" t="s">
         <v>31</v>
       </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
+      <c r="D122" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F122" t="s">
         <v>240</v>
       </c>
@@ -5697,8 +5741,12 @@
       <c r="C135" t="s">
         <v>31</v>
       </c>
-      <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
+      <c r="D135" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F135" s="1" t="s">
         <v>240</v>
       </c>
@@ -6045,8 +6093,12 @@
       <c r="C147" t="s">
         <v>31</v>
       </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
+      <c r="D147" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F147" s="1" t="s">
         <v>240</v>
       </c>
@@ -6096,8 +6148,12 @@
       <c r="C149" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
+      <c r="D149" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F149" s="1" t="s">
         <v>240</v>
       </c>
@@ -6144,8 +6200,12 @@
       <c r="C151" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
+      <c r="D151" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F151" s="1" t="s">
         <v>240</v>
       </c>
@@ -6218,8 +6278,12 @@
       <c r="C153" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
+      <c r="D153" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F153" s="1" t="s">
         <v>240</v>
       </c>
@@ -6292,8 +6356,12 @@
       <c r="C155" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
+      <c r="D155" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F155" s="1" t="s">
         <v>240</v>
       </c>
@@ -6377,8 +6445,12 @@
       <c r="C158" t="s">
         <v>31</v>
       </c>
-      <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F158" s="1" t="s">
         <v>240</v>
       </c>
@@ -6413,6 +6485,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:P158" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="reports"/>
+        <filter val="root"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
         <filter val="UI"/>

--- a/tools/web file descriptions.xlsx
+++ b/tools/web file descriptions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\bobw\Documents\GitHub\docsbydesign\piClinic\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E0C83-8DAA-4831-9FBA-379CB4B8C732}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21BA221-9DD6-4343-A68B-4DCBB4BE1413}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="816" yWindow="4386" windowWidth="22014" windowHeight="7680" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6924" yWindow="2178" windowWidth="15906" windowHeight="10044" tabRatio="388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Workflows" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$P$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Current!$A$1:$P$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1512" uniqueCount="463">
   <si>
     <t>addPatient.php</t>
   </si>
@@ -1429,7 +1429,40 @@
     <t>W3C-ES</t>
   </si>
   <si>
-    <t>&lt;style&gt; warn</t>
+    <t>rptVisitListHome.php</t>
+  </si>
+  <si>
+    <t>rptVisitListMenu.php</t>
+  </si>
+  <si>
+    <t>UI to list visits by search criteria</t>
+  </si>
+  <si>
+    <t>piclinic.php</t>
+  </si>
+  <si>
+    <t>Redirect to login page</t>
+  </si>
+  <si>
+    <t>patientUiStrings.php</t>
+  </si>
+  <si>
+    <t>Enum strings that describe patient civil status</t>
+  </si>
+  <si>
+    <t>validatePatient.php</t>
+  </si>
+  <si>
+    <t>Validation methods to check patient/family ID</t>
+  </si>
+  <si>
+    <t>style tag error</t>
+  </si>
+  <si>
+    <t>Redirect to info page</t>
+  </si>
+  <si>
+    <t>time CTL</t>
   </si>
 </sst>
 </file>
@@ -1828,12 +1861,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1" filterMode="1"/>
-  <dimension ref="A1:P158"/>
+  <dimension ref="A1:P164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="618" activePane="bottomLeft"/>
-      <selection activeCell="D8" sqref="D8"/>
-      <selection pane="bottomLeft" activeCell="D135" sqref="D135:E158"/>
+      <pane ySplit="618" topLeftCell="A104" activePane="bottomLeft"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E163" sqref="E163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2154,9 +2187,7 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>397</v>
       </c>
@@ -2235,9 +2266,7 @@
       <c r="C13" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
         <v>397</v>
       </c>
@@ -2291,9 +2320,7 @@
       <c r="C15" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
         <v>397</v>
       </c>
@@ -2366,9 +2393,7 @@
       <c r="C18" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>397</v>
       </c>
@@ -2416,8 +2441,12 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="F20" s="1" t="s">
         <v>240</v>
       </c>
@@ -2455,8 +2484,12 @@
       <c r="C22" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>448</v>
+      </c>
       <c r="F22" s="1" t="s">
         <v>240</v>
       </c>
@@ -2556,54 +2589,24 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:16" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>31</v>
+      <c r="B27" t="s">
+        <v>353</v>
+      </c>
+      <c r="C27" t="s">
+        <v>223</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J27" s="1" t="str">
-        <f>VLOOKUP(B27,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>clinicDash.php</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>129</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4" t="s">
@@ -2634,55 +2637,51 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:16" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>189</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>397</v>
+        <v>460</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J29" s="1" t="e">
+        <v>217</v>
+      </c>
+      <c r="J29" s="1" t="str">
         <f>VLOOKUP(B29,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>clinicDash.php</v>
+      </c>
+      <c r="K29" s="1"/>
       <c r="L29" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>201</v>
+        <v>128</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -2721,30 +2720,53 @@
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:16" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B31" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B31" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
         <v>397</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G31" t="s">
-        <v>298</v>
+        <v>239</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J31" s="1" t="e">
+        <f>VLOOKUP(B31,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -3023,18 +3045,21 @@
       <c r="O41"/>
       <c r="P41"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B42" t="s">
-        <v>354</v>
-      </c>
-      <c r="C42" t="s">
-        <v>31</v>
+      <c r="B42" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="H42" s="1" t="s">
         <v>222</v>
       </c>
@@ -3417,49 +3442,24 @@
       <c r="A56" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="B56" t="s">
+        <v>287</v>
+      </c>
+      <c r="C56" t="s">
         <v>31</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
         <v>397</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G56" s="1" t="s">
-        <v>47</v>
+      <c r="G56" t="s">
+        <v>298</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J56" s="1" t="e">
-        <f>VLOOKUP(B56,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M56" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N56" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -3814,25 +3814,33 @@
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F71"/>
-      <c r="G71"/>
+      <c r="E71" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>461</v>
+      </c>
       <c r="H71" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I71"/>
+      <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
@@ -3850,7 +3858,9 @@
       <c r="C72" t="s">
         <v>302</v>
       </c>
-      <c r="D72"/>
+      <c r="D72" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="E72"/>
       <c r="F72" s="1" t="s">
         <v>239</v>
@@ -4000,28 +4010,24 @@
         <v>352</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" t="s">
+        <v>456</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>97</v>
       </c>
       <c r="D77"/>
       <c r="E77"/>
-      <c r="F77" t="s">
-        <v>239</v>
-      </c>
-      <c r="G77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H77" t="s">
-        <v>222</v>
-      </c>
-      <c r="I77" t="s">
-        <v>106</v>
-      </c>
-      <c r="J77" s="1" t="s">
-        <v>271</v>
-      </c>
+      <c r="F77" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I77"/>
+      <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
@@ -4178,52 +4184,39 @@
         <v>167</v>
       </c>
     </row>
-    <row r="82" spans="1:16" s="1" customFormat="1" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>217</v>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>239</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
+      <c r="H82" t="s">
+        <v>222</v>
+      </c>
+      <c r="I82" t="s">
+        <v>106</v>
       </c>
       <c r="J82" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="L82" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M82" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+      <c r="O82"/>
+      <c r="P82"/>
     </row>
     <row r="83" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4" t="s">
@@ -4266,48 +4259,32 @@
         <v>352</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>90</v>
+        <v>454</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>397</v>
+        <v>222</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J84" s="1" t="e">
-        <f>VLOOKUP(B84,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>139</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+      <c r="O84"/>
+      <c r="P84"/>
     </row>
     <row r="85" spans="1:16" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4" t="s">
@@ -4319,7 +4296,9 @@
       <c r="C85" t="s">
         <v>67</v>
       </c>
-      <c r="D85"/>
+      <c r="D85" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="E85"/>
       <c r="F85" t="s">
         <v>242</v>
@@ -4345,23 +4324,51 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>382</v>
+        <v>69</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="G86" s="1" t="s">
-        <v>383</v>
+        <v>47</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J86" s="1" t="e">
+        <f>VLOOKUP(B86,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4517,19 +4524,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:16" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4" t="s">
         <v>352</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>355</v>
+        <v>89</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
         <v>397</v>
       </c>
@@ -4537,17 +4542,16 @@
         <v>240</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J91" s="1" t="e">
-        <f>VLOOKUP(B91,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="J91" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K91" s="1"/>
       <c r="L91" s="1" t="s">
@@ -4557,13 +4561,13 @@
         <v>229</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="P91" s="1" t="s">
-        <v>145</v>
+        <v>230</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -4611,25 +4615,25 @@
         <v>143</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B93" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E93" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F93" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>413</v>
+        <v>111</v>
       </c>
       <c r="H93" t="s">
         <v>220</v>
@@ -4671,27 +4675,25 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B95" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>397</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>111</v>
+        <v>413</v>
       </c>
       <c r="H95" t="s">
         <v>220</v>
@@ -4719,25 +4721,25 @@
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B97" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E97" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F97" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="H97" t="s">
         <v>220</v>
@@ -4768,10 +4770,10 @@
         <v>384</v>
       </c>
       <c r="B99" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>223</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>222</v>
@@ -4781,155 +4783,149 @@
         <v>240</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H99" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B100" t="s">
-        <v>406</v>
+        <v>346</v>
       </c>
       <c r="C100" t="s">
         <v>31</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>397</v>
-      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="H100" t="s">
+        <v>350</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>408</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
-      </c>
-      <c r="D101" s="1"/>
+        <v>97</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H101" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="H101" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B102" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E102" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F102" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="H102" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B103" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>397</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
         <v>240</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>350</v>
+        <v>413</v>
       </c>
       <c r="H103" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B104" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="C104" t="s">
-        <v>223</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E104" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F104" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G104" s="1" t="s">
-        <v>413</v>
+      <c r="G104" t="s">
+        <v>343</v>
       </c>
       <c r="H104" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4" t="s">
         <v>384</v>
       </c>
       <c r="B105" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>397</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G105" t="s">
-        <v>343</v>
+      <c r="G105" s="1" t="s">
+        <v>413</v>
       </c>
       <c r="H105" t="s">
         <v>220</v>
@@ -4937,63 +4933,76 @@
     </row>
     <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B106" t="s">
-        <v>412</v>
+        <v>306</v>
       </c>
       <c r="C106" t="s">
-        <v>223</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>67</v>
+      </c>
       <c r="F106" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H106" t="s">
-        <v>220</v>
+        <v>242</v>
+      </c>
+      <c r="G106" t="s">
+        <v>309</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="O106" t="s">
+        <v>315</v>
+      </c>
+      <c r="P106" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="4" t="s">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="B107" t="s">
-        <v>306</v>
-      </c>
-      <c r="C107" t="s">
-        <v>67</v>
-      </c>
-      <c r="F107" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" t="s">
         <v>242</v>
       </c>
-      <c r="G107" t="s">
-        <v>309</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="O107" t="s">
-        <v>315</v>
-      </c>
-      <c r="P107" t="s">
-        <v>157</v>
+      <c r="G107" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H107" t="s">
+        <v>222</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1" t="str">
+        <f>VLOOKUP(B107,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>security.php</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="P107" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4" t="s">
-        <v>360</v>
+        <v>379</v>
       </c>
       <c r="B108" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -5001,57 +5010,55 @@
         <v>242</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H108" t="s">
+        <v>234</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>222</v>
       </c>
       <c r="I108" s="1"/>
-      <c r="J108" s="1" t="str">
-        <f>VLOOKUP(B108,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>security.php</v>
+      <c r="J108" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
-      <c r="O108" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
     </row>
     <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="4" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B109" t="s">
-        <v>232</v>
+        <v>194</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I109" s="1"/>
-      <c r="J109" s="1" t="s">
-        <v>271</v>
+      <c r="J109" s="1" t="str">
+        <f>VLOOKUP(B109,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>session.php</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
+      <c r="O109" t="s">
+        <v>188</v>
+      </c>
       <c r="P109" s="1"/>
     </row>
     <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5059,7 +5066,7 @@
         <v>367</v>
       </c>
       <c r="B110" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>29</v>
@@ -5067,18 +5074,17 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I110" s="1"/>
-      <c r="J110" s="1" t="str">
-        <f>VLOOKUP(B110,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>session.php</v>
+      <c r="J110" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -5094,7 +5100,7 @@
         <v>367</v>
       </c>
       <c r="B111" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>29</v>
@@ -5105,14 +5111,15 @@
         <v>242</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I111" s="1"/>
-      <c r="J111" s="1" t="s">
-        <v>271</v>
+      <c r="J111" s="1" t="str">
+        <f>VLOOKUP(B111,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>session_delete.php</v>
       </c>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -5128,7 +5135,7 @@
         <v>367</v>
       </c>
       <c r="B112" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>29</v>
@@ -5139,7 +5146,7 @@
         <v>242</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>224</v>
@@ -5147,7 +5154,7 @@
       <c r="I112" s="1"/>
       <c r="J112" s="1" t="str">
         <f>VLOOKUP(B112,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>session_delete.php</v>
+        <v>session_get.php</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -5163,113 +5170,101 @@
         <v>367</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
-      </c>
-      <c r="C113" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C113" t="s">
         <v>29</v>
       </c>
-      <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
       <c r="F113" t="s">
         <v>242</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>214</v>
+      <c r="G113" t="s">
+        <v>264</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I113" s="1"/>
-      <c r="J113" s="1" t="str">
-        <f>VLOOKUP(B113,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>session_get.php</v>
-      </c>
-      <c r="K113" s="1"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1"/>
-      <c r="N113" s="1"/>
-      <c r="O113" t="s">
-        <v>188</v>
-      </c>
-      <c r="P113" s="1"/>
+        <v>221</v>
+      </c>
     </row>
     <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B114" t="s">
-        <v>418</v>
-      </c>
-      <c r="C114" t="s">
+        <v>198</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
       <c r="F114" t="s">
         <v>242</v>
       </c>
-      <c r="G114" t="s">
-        <v>264</v>
+      <c r="G114" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1" t="str">
+        <f>VLOOKUP(B114,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>session_post.php</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" t="s">
+        <v>188</v>
+      </c>
+      <c r="P114" s="1"/>
     </row>
     <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B115" t="s">
-        <v>198</v>
-      </c>
-      <c r="C115" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="s">
         <v>29</v>
       </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-      <c r="F115" t="s">
-        <v>242</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>215</v>
+      <c r="F115" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G115" t="s">
+        <v>260</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I115" s="1"/>
+        <v>222</v>
+      </c>
       <c r="J115" s="1" t="str">
         <f>VLOOKUP(B115,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>session_post.php</v>
-      </c>
-      <c r="K115" s="1"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
-      <c r="N115" s="1"/>
-      <c r="O115" t="s">
-        <v>188</v>
-      </c>
-      <c r="P115" s="1"/>
+        <v>staff.php</v>
+      </c>
     </row>
     <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B116" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G116" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J116" s="1" t="str">
-        <f>VLOOKUP(B116,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>staff.php</v>
+      <c r="J116" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5277,22 +5272,19 @@
         <v>367</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>419</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="F117" t="s">
         <v>242</v>
       </c>
       <c r="G117" t="s">
-        <v>263</v>
+        <v>428</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5300,19 +5292,23 @@
         <v>367</v>
       </c>
       <c r="B118" t="s">
-        <v>419</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
         <v>29</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F118" s="1" t="s">
         <v>242</v>
       </c>
       <c r="G118" t="s">
-        <v>428</v>
+        <v>265</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
+      </c>
+      <c r="J118" s="1" t="str">
+        <f>VLOOKUP(B118,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>staff_get.php</v>
       </c>
     </row>
     <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5320,7 +5316,7 @@
         <v>367</v>
       </c>
       <c r="B119" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
         <v>29</v>
@@ -5329,14 +5325,14 @@
         <v>242</v>
       </c>
       <c r="G119" t="s">
-        <v>265</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>219</v>
+        <v>264</v>
+      </c>
+      <c r="H119" t="s">
+        <v>267</v>
       </c>
       <c r="J119" s="1" t="str">
         <f>VLOOKUP(B119,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>staff_get.php</v>
+        <v>staff_patch.php</v>
       </c>
     </row>
     <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5344,7 +5340,7 @@
         <v>367</v>
       </c>
       <c r="B120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
         <v>29</v>
@@ -5353,70 +5349,67 @@
         <v>242</v>
       </c>
       <c r="G120" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H120" t="s">
         <v>267</v>
       </c>
       <c r="J120" s="1" t="str">
         <f>VLOOKUP(B120,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>staff_patch.php</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+        <v>staff_post.php</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="B121" t="s">
-        <v>254</v>
+        <v>398</v>
       </c>
       <c r="C121" t="s">
-        <v>29</v>
-      </c>
-      <c r="F121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F121" t="s">
+        <v>240</v>
+      </c>
+      <c r="G121" t="s">
+        <v>308</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O121" t="s">
+        <v>313</v>
+      </c>
+      <c r="P121" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B122" t="s">
+        <v>250</v>
+      </c>
+      <c r="C122" t="s">
+        <v>67</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G121" t="s">
-        <v>266</v>
-      </c>
-      <c r="H121" t="s">
-        <v>267</v>
-      </c>
-      <c r="J121" s="1" t="str">
-        <f>VLOOKUP(B121,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>staff_post.php</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A122" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B122" t="s">
-        <v>398</v>
-      </c>
-      <c r="C122" t="s">
-        <v>31</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
-      </c>
       <c r="G122" t="s">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="O122" t="s">
-        <v>313</v>
-      </c>
-      <c r="P122" t="s">
-        <v>314</v>
+        <v>222</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5424,22 +5417,19 @@
         <v>356</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="C123" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>242</v>
       </c>
       <c r="G123" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="J123" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5447,16 +5437,16 @@
         <v>356</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C124" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>242</v>
       </c>
       <c r="G124" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>222</v>
@@ -5464,85 +5454,93 @@
     </row>
     <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="B125" t="s">
-        <v>331</v>
-      </c>
-      <c r="C125" t="s">
-        <v>67</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G125" t="s">
-        <v>337</v>
+        <v>239</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1" t="str">
+        <f>VLOOKUP(B125,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>startUiSession.php</v>
+      </c>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" t="s">
+        <v>188</v>
+      </c>
+      <c r="P125" s="1"/>
     </row>
     <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="C126" t="s">
+        <v>97</v>
+      </c>
       <c r="F126" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>216</v>
+        <v>242</v>
+      </c>
+      <c r="G126" t="s">
+        <v>342</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="I126" s="1"/>
-      <c r="J126" s="1" t="str">
-        <f>VLOOKUP(B126,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>startUiSession.php</v>
-      </c>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="1"/>
-      <c r="N126" s="1"/>
-      <c r="O126" t="s">
-        <v>188</v>
-      </c>
-      <c r="P126" s="1"/>
+        <v>222</v>
+      </c>
     </row>
     <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4" t="s">
-        <v>438</v>
+        <v>367</v>
       </c>
       <c r="B127" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="C127" t="s">
-        <v>97</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G127" t="s">
-        <v>342</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>222</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
     </row>
     <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4" t="s">
         <v>367</v>
       </c>
       <c r="B128" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C128" t="s">
         <v>29</v>
@@ -5550,10 +5548,10 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
@@ -5570,7 +5568,7 @@
         <v>367</v>
       </c>
       <c r="B129" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="C129" t="s">
         <v>29</v>
@@ -5581,7 +5579,7 @@
         <v>242</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
@@ -5598,7 +5596,7 @@
         <v>367</v>
       </c>
       <c r="B130" t="s">
-        <v>420</v>
+        <v>377</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -5609,7 +5607,7 @@
         <v>242</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
@@ -5626,7 +5624,7 @@
         <v>367</v>
       </c>
       <c r="B131" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -5637,7 +5635,7 @@
         <v>242</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
@@ -5654,7 +5652,7 @@
         <v>367</v>
       </c>
       <c r="B132" t="s">
-        <v>421</v>
+        <v>378</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -5665,7 +5663,7 @@
         <v>242</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -5679,274 +5677,287 @@
     </row>
     <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B133" t="s">
-        <v>378</v>
+        <v>108</v>
       </c>
       <c r="C133" t="s">
-        <v>29</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F133" t="s">
         <v>242</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-    </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G133" t="s">
+        <v>107</v>
+      </c>
+      <c r="H133" t="s">
+        <v>222</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O133" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B134" t="s">
-        <v>108</v>
-      </c>
-      <c r="C134" t="s">
-        <v>97</v>
-      </c>
-      <c r="F134" t="s">
+        <v>352</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J134" s="1" t="e">
+        <f>VLOOKUP(B134,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N134" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O134" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P134" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B135" t="s">
+        <v>98</v>
+      </c>
+      <c r="C135" t="s">
+        <v>67</v>
+      </c>
+      <c r="F135" t="s">
         <v>242</v>
       </c>
-      <c r="G134" t="s">
-        <v>107</v>
-      </c>
-      <c r="H134" t="s">
-        <v>222</v>
-      </c>
-      <c r="J134" s="1" t="s">
+      <c r="G135" t="s">
+        <v>99</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J135" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O134" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A135" s="4" t="s">
+      <c r="O135" t="s">
+        <v>164</v>
+      </c>
+      <c r="P135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B135" t="s">
-        <v>249</v>
-      </c>
-      <c r="C135" t="s">
+      <c r="B136" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D136" s="1"/>
+      <c r="E136" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F135" s="1" t="s">
+      <c r="F136" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G135" t="s">
-        <v>261</v>
-      </c>
-      <c r="H135" t="s">
-        <v>221</v>
-      </c>
-      <c r="J135" s="1" t="e">
-        <f>VLOOKUP(B135,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="G136" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I136" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J136" s="1" t="e">
+        <f>VLOOKUP(B136,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A136" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B136" t="s">
-        <v>98</v>
-      </c>
-      <c r="C136" t="s">
-        <v>67</v>
-      </c>
-      <c r="F136" t="s">
-        <v>242</v>
-      </c>
-      <c r="G136" t="s">
-        <v>99</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J136" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O136" t="s">
-        <v>164</v>
-      </c>
-      <c r="P136" t="s">
-        <v>157</v>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M136" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O136" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P136" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>96</v>
+        <v>356</v>
+      </c>
+      <c r="B137" t="s">
+        <v>358</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>223</v>
+        <v>67</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I137" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K137" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="L137" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M137" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="N137" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O137" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="P137" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+    </row>
+    <row r="138" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B138" t="s">
-        <v>358</v>
+        <v>381</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
+      <c r="J138" s="1" t="e">
+        <f>VLOOKUP(B138,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
-      <c r="O138" s="1"/>
-      <c r="P138" s="1"/>
-    </row>
-    <row r="139" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="O138" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>30</v>
+        <v>352</v>
+      </c>
+      <c r="B139" t="s">
+        <v>249</v>
+      </c>
+      <c r="C139" t="s">
+        <v>31</v>
       </c>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
+      <c r="E139" s="1" t="s">
+        <v>397</v>
+      </c>
       <c r="F139" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H139" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G139" t="s">
+        <v>261</v>
+      </c>
+      <c r="H139" t="s">
         <v>221</v>
       </c>
-      <c r="I139" s="1"/>
       <c r="J139" s="1" t="e">
         <f>VLOOKUP(B139,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
-      <c r="M139" s="1"/>
-      <c r="N139" s="1"/>
-      <c r="O139" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="P139" s="2" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B140" t="s">
-        <v>233</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" t="s">
+        <v>67</v>
+      </c>
+      <c r="F140" t="s">
         <v>242</v>
       </c>
-      <c r="G140" s="1" t="s">
-        <v>235</v>
+      <c r="G140" t="s">
+        <v>301</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
     </row>
     <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="4" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B141" t="s">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="C141" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="F141" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G141" t="s">
-        <v>301</v>
+        <v>58</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>222</v>
+      </c>
+      <c r="J141" s="1" t="str">
+        <f>VLOOKUP(B141,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>visit.php</v>
+      </c>
+      <c r="O141" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -5954,23 +5965,22 @@
         <v>367</v>
       </c>
       <c r="B142" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
       </c>
       <c r="F142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G142" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="J142" s="1" t="str">
-        <f>VLOOKUP(B142,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>visit.php</v>
+      <c r="J142" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="O142" t="s">
         <v>185</v>
@@ -5981,7 +5991,7 @@
         <v>367</v>
       </c>
       <c r="B143" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -5990,16 +6000,17 @@
         <v>242</v>
       </c>
       <c r="G143" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>271</v>
+        <v>220</v>
+      </c>
+      <c r="J143" s="1" t="str">
+        <f>VLOOKUP(B143,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>visit_get.php</v>
       </c>
       <c r="O143" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
@@ -6007,7 +6018,7 @@
         <v>367</v>
       </c>
       <c r="B144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -6016,14 +6027,14 @@
         <v>242</v>
       </c>
       <c r="G144" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="J144" s="1" t="str">
         <f>VLOOKUP(B144,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>visit_get.php</v>
+        <v>visit_patch.php</v>
       </c>
       <c r="O144" t="s">
         <v>188</v>
@@ -6034,7 +6045,7 @@
         <v>367</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C145" t="s">
         <v>29</v>
@@ -6043,14 +6054,14 @@
         <v>242</v>
       </c>
       <c r="G145" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>221</v>
       </c>
       <c r="J145" s="1" t="str">
         <f>VLOOKUP(B145,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>visit_patch.php</v>
+        <v>visit_post.php</v>
       </c>
       <c r="O145" t="s">
         <v>188</v>
@@ -6058,433 +6069,576 @@
     </row>
     <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
-      </c>
-      <c r="C146" t="s">
-        <v>29</v>
-      </c>
-      <c r="F146" t="s">
+        <v>320</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G146" t="s">
-        <v>103</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="J146" s="1" t="str">
-        <f>VLOOKUP(B146,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>visit_post.php</v>
-      </c>
-      <c r="O146" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="G146" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="4" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B147" t="s">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>240</v>
+        <v>67</v>
+      </c>
+      <c r="F147" t="s">
+        <v>242</v>
       </c>
       <c r="G147" t="s">
-        <v>300</v>
+        <v>84</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O147" t="s">
+        <v>165</v>
+      </c>
+      <c r="P147" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B148" t="s">
-        <v>75</v>
-      </c>
-      <c r="C148" t="s">
-        <v>67</v>
-      </c>
-      <c r="F148" t="s">
+        <v>352</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G148" t="s">
-        <v>84</v>
+      <c r="G148" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="H148" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="I148" s="1" t="s">
         <v>222</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O148" t="s">
-        <v>165</v>
-      </c>
-      <c r="P148" t="s">
+      <c r="K148" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="M148" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O148" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="P148" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B149" t="s">
+        <v>76</v>
+      </c>
+      <c r="C149" t="s">
+        <v>67</v>
+      </c>
+      <c r="F149" t="s">
+        <v>242</v>
+      </c>
+      <c r="G149" t="s">
+        <v>85</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O149" t="s">
+        <v>168</v>
+      </c>
+      <c r="P149" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A149" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="4" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B150" t="s">
-        <v>76</v>
-      </c>
-      <c r="C150" t="s">
-        <v>67</v>
-      </c>
-      <c r="F150" t="s">
+        <v>233</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G150" t="s">
-        <v>85</v>
+      <c r="G150" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>222</v>
       </c>
+      <c r="I150" s="1"/>
       <c r="J150" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O150" t="s">
-        <v>168</v>
-      </c>
-      <c r="P150" t="s">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+    </row>
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B151" t="s">
+        <v>77</v>
+      </c>
+      <c r="C151" t="s">
+        <v>67</v>
+      </c>
+      <c r="F151" t="s">
+        <v>242</v>
+      </c>
+      <c r="G151" t="s">
+        <v>86</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="O151" t="s">
+        <v>169</v>
+      </c>
+      <c r="P151" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A151" s="4" t="s">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C151" s="1" t="s">
+      <c r="B152" t="s">
+        <v>289</v>
+      </c>
+      <c r="C152" t="s">
         <v>31</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D152" s="1"/>
+      <c r="E152" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F151" s="1" t="s">
+      <c r="F152" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H151" s="1" t="s">
+      <c r="G152" t="s">
+        <v>300</v>
+      </c>
+      <c r="H152" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I151" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J151" s="1" t="e">
-        <f>VLOOKUP(B151,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K151" s="1"/>
-      <c r="L151" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M151" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N151" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O151" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A152" s="4" t="s">
+    </row>
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B152" t="s">
-        <v>77</v>
-      </c>
-      <c r="C152" t="s">
+      <c r="B153" t="s">
+        <v>78</v>
+      </c>
+      <c r="C153" t="s">
         <v>67</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F153" t="s">
         <v>242</v>
       </c>
-      <c r="G152" t="s">
-        <v>86</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J152" s="1" t="s">
+      <c r="G153" t="s">
+        <v>87</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J153" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="O152" t="s">
-        <v>169</v>
-      </c>
-      <c r="P152" t="s">
+      <c r="O153" t="s">
+        <v>170</v>
+      </c>
+      <c r="P153" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A153" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H153" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J153" s="1" t="e">
-        <f>VLOOKUP(B153,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M153" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N153" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O153" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="P153" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="B154" t="s">
-        <v>78</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="B155" t="s">
+        <v>333</v>
+      </c>
+      <c r="C155" t="s">
         <v>67</v>
       </c>
-      <c r="F154" t="s">
+      <c r="F155" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="G154" t="s">
-        <v>87</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="O154" t="s">
-        <v>170</v>
-      </c>
-      <c r="P154" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A155" s="4" t="s">
+      <c r="G155" t="s">
+        <v>339</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C155" s="1" t="s">
+      <c r="B156" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C156" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D156" s="1"/>
+      <c r="E156" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E155" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="F155" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="J155" s="1" t="e">
-        <f>VLOOKUP(B155,Profiled!A$1:A$98,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K155" s="1"/>
-      <c r="L155" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M155" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N155" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="O155" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="P155" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A156" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="B156" t="s">
-        <v>333</v>
-      </c>
-      <c r="C156" t="s">
-        <v>67</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G156" t="s">
-        <v>339</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="G156" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="B157" t="s">
-        <v>332</v>
-      </c>
-      <c r="C157" t="s">
-        <v>97</v>
+      <c r="B157" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1" t="s">
+        <v>462</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="G157" t="s">
-        <v>338</v>
+        <v>240</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+        <v>221</v>
+      </c>
+      <c r="I157" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J157" s="1" t="e">
+        <f>VLOOKUP(B157,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M157" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O157" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P157" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="4" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B158" t="s">
-        <v>95</v>
+        <v>412</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>397</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="E158" s="1"/>
       <c r="F158" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G158" t="s">
+      <c r="G158" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H158" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="H159" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H160" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I161" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J161" s="1" t="e">
+        <f>VLOOKUP(B161,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N161" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="I162" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J162" s="1" t="e">
+        <f>VLOOKUP(B162,Profiled!A$1:A$98,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M162" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B163" t="s">
+        <v>95</v>
+      </c>
+      <c r="C163" t="s">
+        <v>31</v>
+      </c>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G163" t="s">
         <v>48</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="I163" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="J158" s="1" t="e">
-        <f>VLOOKUP(B158,Profiled!A$1:A$98,1,FALSE)</f>
+      <c r="J163" s="1" t="e">
+        <f>VLOOKUP(B163,Profiled!A$1:A$98,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L158" s="1" t="s">
+      <c r="L163" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="M158" s="1" t="s">
+      <c r="M163" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="N158" s="1" t="s">
+      <c r="N163" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="O158" s="1" t="s">
+      <c r="O163" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="P158" s="1" t="s">
+      <c r="P163" s="1" t="s">
         <v>155</v>
       </c>
     </row>
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B164" t="s">
+        <v>332</v>
+      </c>
+      <c r="C164" t="s">
+        <v>97</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G164" t="s">
+        <v>338</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P158" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:P164" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="reports"/>
@@ -6496,8 +6650,8 @@
         <filter val="UI"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:P158">
-      <sortCondition ref="B1:B158"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:P164">
+      <sortCondition ref="B1:B160"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6524,14 +6678,14 @@
         <v>280</v>
       </c>
       <c r="B1" t="str">
-        <f>VLOOKUP(A1,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A1,Current!B$2:B$142,1,FALSE)</f>
         <v>addComment.php</v>
       </c>
       <c r="F1" t="s">
         <v>444</v>
       </c>
       <c r="G1" t="str">
-        <f>VLOOKUP(F1,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F1,Current!B$2:B$192,1,FALSE)</f>
         <v>adminBackup.php</v>
       </c>
       <c r="J1" t="s">
@@ -6543,14 +6697,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(A2,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A2,Current!B$2:B$142,1,FALSE)</f>
         <v>addPatient.php</v>
       </c>
       <c r="F2" t="s">
         <v>400</v>
       </c>
       <c r="G2" t="str">
-        <f>VLOOKUP(F2,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F2,Current!B$2:B$192,1,FALSE)</f>
         <v>adminHelpAddEdit.php</v>
       </c>
       <c r="J2" t="s">
@@ -6562,14 +6716,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP(A3,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A3,Current!B$2:B$142,1,FALSE)</f>
         <v>addPatientImage.php</v>
       </c>
       <c r="F3" t="s">
         <v>244</v>
       </c>
       <c r="G3" t="str">
-        <f>VLOOKUP(F3,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F3,Current!B$2:B$192,1,FALSE)</f>
         <v>adminHome.php</v>
       </c>
       <c r="J3" t="s">
@@ -6581,14 +6735,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(A4,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A4,Current!B$2:B$142,1,FALSE)</f>
         <v>addPatientVisit.php</v>
       </c>
       <c r="F4" t="s">
         <v>272</v>
       </c>
       <c r="G4" t="str">
-        <f>VLOOKUP(F4,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F4,Current!B$2:B$192,1,FALSE)</f>
         <v>adminLogViewer.php</v>
       </c>
       <c r="J4" t="s">
@@ -6600,14 +6754,14 @@
         <v>243</v>
       </c>
       <c r="B5" t="str">
-        <f>VLOOKUP(A5,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A5,Current!B$2:B$142,1,FALSE)</f>
         <v>addStaff.php</v>
       </c>
       <c r="F5" t="s">
         <v>281</v>
       </c>
       <c r="G5" t="str">
-        <f>VLOOKUP(F5,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F5,Current!B$2:B$192,1,FALSE)</f>
         <v>adminShowComments.php</v>
       </c>
       <c r="J5" t="s">
@@ -6619,14 +6773,14 @@
         <v>244</v>
       </c>
       <c r="B6" t="str">
-        <f>VLOOKUP(A6,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A6,Current!B$2:B$142,1,FALSE)</f>
         <v>adminHome.php</v>
       </c>
       <c r="F6" t="s">
         <v>246</v>
       </c>
       <c r="G6" t="str">
-        <f>VLOOKUP(F6,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F6,Current!B$2:B$192,1,FALSE)</f>
         <v>adminShowUsers.php</v>
       </c>
       <c r="J6" t="s">
@@ -6638,14 +6792,14 @@
         <v>245</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(A7,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A7,Current!B$2:B$142,1,FALSE)</f>
         <v>adminHomeText.php</v>
       </c>
       <c r="F7" t="s">
         <v>353</v>
       </c>
       <c r="G7" t="str">
-        <f>VLOOKUP(F7,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F7,Current!B$2:B$192,1,FALSE)</f>
         <v>appMenu.php</v>
       </c>
       <c r="J7" t="s">
@@ -6657,14 +6811,14 @@
         <v>272</v>
       </c>
       <c r="B8" t="str">
-        <f>VLOOKUP(A8,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A8,Current!B$2:B$142,1,FALSE)</f>
         <v>adminLogViewer.php</v>
       </c>
       <c r="F8" t="s">
         <v>65</v>
       </c>
       <c r="G8" t="str">
-        <f>VLOOKUP(F8,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F8,Current!B$2:B$192,1,FALSE)</f>
         <v>clinicDash.php</v>
       </c>
       <c r="J8" t="s">
@@ -6676,14 +6830,14 @@
         <v>273</v>
       </c>
       <c r="B9" t="str">
-        <f>VLOOKUP(A9,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A9,Current!B$2:B$142,1,FALSE)</f>
         <v>adminLogViewerText.php</v>
       </c>
       <c r="F9" t="s">
         <v>189</v>
       </c>
       <c r="G9" t="str">
-        <f>VLOOKUP(F9,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F9,Current!B$2:B$192,1,FALSE)</f>
         <v>clinicLogin.php</v>
       </c>
       <c r="J9" t="s">
@@ -6695,14 +6849,14 @@
         <v>281</v>
       </c>
       <c r="B10" t="str">
-        <f>VLOOKUP(A10,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A10,Current!B$2:B$142,1,FALSE)</f>
         <v>adminShowComments.php</v>
       </c>
       <c r="F10" t="s">
         <v>304</v>
       </c>
       <c r="G10" t="str">
-        <f>VLOOKUP(F10,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F10,Current!B$2:B$192,1,FALSE)</f>
         <v>code39.php</v>
       </c>
       <c r="J10" t="s">
@@ -6714,14 +6868,14 @@
         <v>282</v>
       </c>
       <c r="B11" t="str">
-        <f>VLOOKUP(A11,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A11,Current!B$2:B$142,1,FALSE)</f>
         <v>adminShowCommentsText.php</v>
       </c>
       <c r="F11" t="s">
         <v>287</v>
       </c>
       <c r="G11" t="str">
-        <f>VLOOKUP(F11,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F11,Current!B$2:B$192,1,FALSE)</f>
         <v>helpHome.php</v>
       </c>
       <c r="J11" t="s">
@@ -6733,14 +6887,14 @@
         <v>246</v>
       </c>
       <c r="B12" t="str">
-        <f>VLOOKUP(A12,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A12,Current!B$2:B$142,1,FALSE)</f>
         <v>adminShowUsers.php</v>
       </c>
       <c r="F12" t="s">
         <v>354</v>
       </c>
       <c r="G12" t="str">
-        <f>VLOOKUP(F12,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F12,Current!B$2:B$192,1,FALSE)</f>
         <v>index.php</v>
       </c>
       <c r="J12" t="s">
@@ -6752,14 +6906,14 @@
         <v>247</v>
       </c>
       <c r="B13" t="str">
-        <f>VLOOKUP(A13,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A13,Current!B$2:B$142,1,FALSE)</f>
         <v>adminShowUsersText.php</v>
       </c>
       <c r="F13" t="s">
         <v>19</v>
       </c>
       <c r="G13" t="str">
-        <f>VLOOKUP(F13,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F13,Current!B$2:B$192,1,FALSE)</f>
         <v>phpinfo.php</v>
       </c>
       <c r="J13" t="s">
@@ -6771,14 +6925,14 @@
         <v>3</v>
       </c>
       <c r="B14" t="str">
-        <f>VLOOKUP(A14,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A14,Current!B$2:B$142,1,FALSE)</f>
         <v>api_common.php</v>
       </c>
       <c r="F14" t="s">
         <v>69</v>
       </c>
       <c r="G14" t="str">
-        <f>VLOOKUP(F14,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F14,Current!B$2:B$192,1,FALSE)</f>
         <v>ptAddEdit.php</v>
       </c>
       <c r="J14" t="s">
@@ -6790,14 +6944,14 @@
         <v>274</v>
       </c>
       <c r="B15" t="str">
-        <f>VLOOKUP(A15,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A15,Current!B$2:B$142,1,FALSE)</f>
         <v>appMenuText.php</v>
       </c>
       <c r="F15" t="s">
         <v>89</v>
       </c>
       <c r="G15" t="str">
-        <f>VLOOKUP(F15,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F15,Current!B$2:B$192,1,FALSE)</f>
         <v>ptInfo.php</v>
       </c>
       <c r="J15" t="s">
@@ -6809,14 +6963,14 @@
         <v>347</v>
       </c>
       <c r="B16" t="e">
-        <f>VLOOKUP(A16,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A16,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F16" t="s">
         <v>90</v>
       </c>
       <c r="G16" t="str">
-        <f>VLOOKUP(F16,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F16,Current!B$2:B$192,1,FALSE)</f>
         <v>ptResults.php</v>
       </c>
       <c r="J16" t="s">
@@ -6828,14 +6982,14 @@
         <v>321</v>
       </c>
       <c r="B17" t="e">
-        <f>VLOOKUP(A17,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A17,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F17" t="s">
         <v>355</v>
       </c>
       <c r="G17" t="str">
-        <f>VLOOKUP(F17,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F17,Current!B$2:B$192,1,FALSE)</f>
         <v>reportHome.php</v>
       </c>
       <c r="J17" t="s">
@@ -6847,14 +7001,14 @@
         <v>329</v>
       </c>
       <c r="B18" t="str">
-        <f>VLOOKUP(A18,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A18,Current!B$2:B$142,1,FALSE)</f>
         <v>ataEntryText.php</v>
       </c>
       <c r="F18" t="s">
         <v>249</v>
       </c>
       <c r="G18" t="str">
-        <f>VLOOKUP(F18,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F18,Current!B$2:B$192,1,FALSE)</f>
         <v>staffAddEdit.php</v>
       </c>
       <c r="J18" t="s">
@@ -6866,14 +7020,14 @@
         <v>330</v>
       </c>
       <c r="B19" t="str">
-        <f>VLOOKUP(A19,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A19,Current!B$2:B$142,1,FALSE)</f>
         <v>ataVisitEdit.php</v>
       </c>
       <c r="F19" t="s">
         <v>320</v>
       </c>
       <c r="G19" t="str">
-        <f>VLOOKUP(F19,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F19,Current!B$2:B$192,1,FALSE)</f>
         <v>staffUiStrings.php</v>
       </c>
       <c r="J19" t="s">
@@ -6885,14 +7039,14 @@
         <v>65</v>
       </c>
       <c r="B20" t="str">
-        <f>VLOOKUP(A20,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A20,Current!B$2:B$142,1,FALSE)</f>
         <v>clinicDash.php</v>
       </c>
       <c r="F20" t="s">
         <v>96</v>
       </c>
       <c r="G20" t="str">
-        <f>VLOOKUP(F20,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F20,Current!B$2:B$192,1,FALSE)</f>
         <v>uiErrorMessage.php</v>
       </c>
       <c r="J20" t="s">
@@ -6904,14 +7058,14 @@
         <v>66</v>
       </c>
       <c r="B21" t="str">
-        <f>VLOOKUP(A21,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A21,Current!B$2:B$142,1,FALSE)</f>
         <v>clinicDashText.php</v>
       </c>
       <c r="F21" t="s">
         <v>233</v>
       </c>
       <c r="G21" t="str">
-        <f>VLOOKUP(F21,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F21,Current!B$2:B$192,1,FALSE)</f>
         <v>uiSessionInfo.php</v>
       </c>
       <c r="J21" t="s">
@@ -6923,14 +7077,14 @@
         <v>189</v>
       </c>
       <c r="B22" t="str">
-        <f>VLOOKUP(A22,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A22,Current!B$2:B$142,1,FALSE)</f>
         <v>clinicLogin.php</v>
       </c>
       <c r="F22" t="s">
         <v>289</v>
       </c>
       <c r="G22" t="str">
-        <f>VLOOKUP(F22,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F22,Current!B$2:B$192,1,FALSE)</f>
         <v>userComment.php</v>
       </c>
       <c r="J22" t="s">
@@ -6942,14 +7096,14 @@
         <v>190</v>
       </c>
       <c r="B23" t="str">
-        <f>VLOOKUP(A23,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A23,Current!B$2:B$142,1,FALSE)</f>
         <v>clinicLoginText.php</v>
       </c>
       <c r="F23" t="s">
         <v>92</v>
       </c>
       <c r="G23" t="str">
-        <f>VLOOKUP(F23,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F23,Current!B$2:B$192,1,FALSE)</f>
         <v>visitClose.php</v>
       </c>
       <c r="J23" t="s">
@@ -6961,14 +7115,14 @@
         <v>304</v>
       </c>
       <c r="B24" t="str">
-        <f>VLOOKUP(A24,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A24,Current!B$2:B$142,1,FALSE)</f>
         <v>code39.php</v>
       </c>
       <c r="F24" t="s">
         <v>93</v>
       </c>
       <c r="G24" t="str">
-        <f>VLOOKUP(F24,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F24,Current!B$2:B$192,1,FALSE)</f>
         <v>visitEdit.php</v>
       </c>
       <c r="J24" t="s">
@@ -6980,14 +7134,14 @@
         <v>283</v>
       </c>
       <c r="B25" t="str">
-        <f>VLOOKUP(A25,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A25,Current!B$2:B$142,1,FALSE)</f>
         <v>comment.php</v>
       </c>
       <c r="F25" t="s">
         <v>94</v>
       </c>
       <c r="G25" t="str">
-        <f>VLOOKUP(F25,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F25,Current!B$2:B$192,1,FALSE)</f>
         <v>visitInfo.php</v>
       </c>
       <c r="J25" t="s">
@@ -6999,14 +7153,14 @@
         <v>284</v>
       </c>
       <c r="B26" t="str">
-        <f>VLOOKUP(A26,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A26,Current!B$2:B$142,1,FALSE)</f>
         <v>comment_common.php</v>
       </c>
       <c r="F26" t="s">
         <v>95</v>
       </c>
       <c r="G26" t="str">
-        <f>VLOOKUP(F26,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F26,Current!B$2:B$192,1,FALSE)</f>
         <v>visitOpen.php</v>
       </c>
       <c r="J26" t="s">
@@ -7018,14 +7172,14 @@
         <v>285</v>
       </c>
       <c r="B27" t="str">
-        <f>VLOOKUP(A27,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A27,Current!B$2:B$142,1,FALSE)</f>
         <v>comment_get.php</v>
       </c>
       <c r="F27" t="s">
         <v>332</v>
       </c>
       <c r="G27" t="str">
-        <f>VLOOKUP(F27,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F27,Current!B$2:B$192,1,FALSE)</f>
         <v>visitUiStrings.php</v>
       </c>
       <c r="J27" t="s">
@@ -7037,7 +7191,7 @@
         <v>286</v>
       </c>
       <c r="B28" t="str">
-        <f>VLOOKUP(A28,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A28,Current!B$2:B$142,1,FALSE)</f>
         <v>comment_post.php</v>
       </c>
     </row>
@@ -7046,11 +7200,11 @@
         <v>4</v>
       </c>
       <c r="B29" t="e">
-        <f>VLOOKUP(A29,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A29,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G29" t="str">
-        <f>VLOOKUP(F30,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F30,Current!B$2:B$192,1,FALSE)</f>
         <v>rptDailyLogHome.php</v>
       </c>
     </row>
@@ -7059,14 +7213,14 @@
         <v>5</v>
       </c>
       <c r="B30" t="str">
-        <f>VLOOKUP(A30,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A30,Current!B$2:B$142,1,FALSE)</f>
         <v>dbPass.php</v>
       </c>
       <c r="F30" t="s">
         <v>404</v>
       </c>
       <c r="G30" t="str">
-        <f>VLOOKUP(F31,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F31,Current!B$2:B$192,1,FALSE)</f>
         <v>rptDailyLogMenu.php</v>
       </c>
     </row>
@@ -7075,14 +7229,14 @@
         <v>6</v>
       </c>
       <c r="B31" t="e">
-        <f>VLOOKUP(A31,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A31,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F31" t="s">
         <v>405</v>
       </c>
       <c r="G31" t="str">
-        <f>VLOOKUP(F32,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F32,Current!B$2:B$192,1,FALSE)</f>
         <v>rptDailyPmtHome.php</v>
       </c>
     </row>
@@ -7091,14 +7245,14 @@
         <v>119</v>
       </c>
       <c r="B32" t="str">
-        <f>VLOOKUP(A32,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A32,Current!B$2:B$142,1,FALSE)</f>
         <v>deletePatientImage.php</v>
       </c>
       <c r="F32" t="s">
         <v>406</v>
       </c>
       <c r="G32" t="str">
-        <f>VLOOKUP(F33,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F33,Current!B$2:B$192,1,FALSE)</f>
         <v>rptDailyPmtMenu.php</v>
       </c>
     </row>
@@ -7107,14 +7261,14 @@
         <v>191</v>
       </c>
       <c r="B33" t="str">
-        <f>VLOOKUP(A33,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A33,Current!B$2:B$142,1,FALSE)</f>
         <v>endUiSession.php</v>
       </c>
       <c r="F33" t="s">
         <v>407</v>
       </c>
       <c r="G33" t="str">
-        <f>VLOOKUP(F34,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F34,Current!B$2:B$192,1,FALSE)</f>
         <v>rptGroups.php</v>
       </c>
     </row>
@@ -7123,14 +7277,14 @@
         <v>275</v>
       </c>
       <c r="B34" t="str">
-        <f>VLOOKUP(A34,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A34,Current!B$2:B$142,1,FALSE)</f>
         <v>headTag.php</v>
       </c>
       <c r="F34" t="s">
         <v>408</v>
       </c>
       <c r="G34" t="str">
-        <f>VLOOKUP(F35,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F35,Current!B$2:B$192,1,FALSE)</f>
         <v>rptMonthlyPmtHome.php</v>
       </c>
     </row>
@@ -7139,14 +7293,14 @@
         <v>287</v>
       </c>
       <c r="B35" t="str">
-        <f>VLOOKUP(A35,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A35,Current!B$2:B$142,1,FALSE)</f>
         <v>helpHome.php</v>
       </c>
       <c r="F35" t="s">
         <v>409</v>
       </c>
       <c r="G35" t="str">
-        <f>VLOOKUP(F36,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F36,Current!B$2:B$192,1,FALSE)</f>
         <v>rptMonthlyPmtMenu.php</v>
       </c>
     </row>
@@ -7155,14 +7309,14 @@
         <v>288</v>
       </c>
       <c r="B36" t="str">
-        <f>VLOOKUP(A36,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A36,Current!B$2:B$142,1,FALSE)</f>
         <v>helpHomeText.php</v>
       </c>
       <c r="F36" t="s">
         <v>410</v>
       </c>
       <c r="G36" t="str">
-        <f>VLOOKUP(F37,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F37,Current!B$2:B$192,1,FALSE)</f>
         <v>rptMonthlyPosSummHome.php</v>
       </c>
     </row>
@@ -7171,14 +7325,14 @@
         <v>316</v>
       </c>
       <c r="B37" t="str">
-        <f>VLOOKUP(A37,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A37,Current!B$2:B$142,1,FALSE)</f>
         <v>icd.php</v>
       </c>
       <c r="F37" t="s">
         <v>399</v>
       </c>
       <c r="G37" t="str">
-        <f>VLOOKUP(F38,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F38,Current!B$2:B$192,1,FALSE)</f>
         <v>rptMonthlyPosSummMenu.php</v>
       </c>
     </row>
@@ -7187,14 +7341,14 @@
         <v>317</v>
       </c>
       <c r="B38" t="str">
-        <f>VLOOKUP(A38,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A38,Current!B$2:B$142,1,FALSE)</f>
         <v>icd_common.php</v>
       </c>
       <c r="F38" t="s">
         <v>411</v>
       </c>
       <c r="G38" t="str">
-        <f>VLOOKUP(F39,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F39,Current!B$2:B$192,1,FALSE)</f>
         <v>rptMonthlyPtSummHome.php</v>
       </c>
     </row>
@@ -7203,14 +7357,14 @@
         <v>318</v>
       </c>
       <c r="B39" t="str">
-        <f>VLOOKUP(A39,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A39,Current!B$2:B$142,1,FALSE)</f>
         <v>icd_get.php</v>
       </c>
       <c r="F39" t="s">
         <v>398</v>
       </c>
       <c r="G39" t="str">
-        <f>VLOOKUP(F40,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F40,Current!B$2:B$192,1,FALSE)</f>
         <v>rptMonthlyPtSummMenu.php</v>
       </c>
     </row>
@@ -7219,7 +7373,7 @@
         <v>319</v>
       </c>
       <c r="B40" t="str">
-        <f>VLOOKUP(A40,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A40,Current!B$2:B$142,1,FALSE)</f>
         <v>icd_patch.php</v>
       </c>
       <c r="F40" t="s">
@@ -7231,11 +7385,11 @@
         <v>7</v>
       </c>
       <c r="B41" t="str">
-        <f>VLOOKUP(A41,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A41,Current!B$2:B$142,1,FALSE)</f>
         <v>image.php</v>
       </c>
       <c r="G41" t="str">
-        <f>VLOOKUP(F42,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F42,Current!B$2:B$192,1,FALSE)</f>
         <v>api_common.php</v>
       </c>
     </row>
@@ -7244,14 +7398,14 @@
         <v>8</v>
       </c>
       <c r="B42" t="str">
-        <f>VLOOKUP(A42,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A42,Current!B$2:B$142,1,FALSE)</f>
         <v>image_common.php</v>
       </c>
       <c r="F42" t="s">
         <v>3</v>
       </c>
       <c r="G42" t="str">
-        <f>VLOOKUP(F43,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F43,Current!B$2:B$192,1,FALSE)</f>
         <v>clinic.php</v>
       </c>
     </row>
@@ -7260,14 +7414,14 @@
         <v>9</v>
       </c>
       <c r="B43" t="str">
-        <f>VLOOKUP(A43,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A43,Current!B$2:B$142,1,FALSE)</f>
         <v>image_delete.php</v>
       </c>
       <c r="F43" t="s">
         <v>368</v>
       </c>
       <c r="G43" t="str">
-        <f>VLOOKUP(F44,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F44,Current!B$2:B$192,1,FALSE)</f>
         <v>clinic_common.php</v>
       </c>
     </row>
@@ -7276,14 +7430,14 @@
         <v>10</v>
       </c>
       <c r="B44" t="str">
-        <f>VLOOKUP(A44,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A44,Current!B$2:B$142,1,FALSE)</f>
         <v>image_get.php</v>
       </c>
       <c r="F44" t="s">
         <v>415</v>
       </c>
       <c r="G44" t="str">
-        <f>VLOOKUP(F45,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F45,Current!B$2:B$192,1,FALSE)</f>
         <v>clinic_get.php</v>
       </c>
     </row>
@@ -7292,14 +7446,14 @@
         <v>120</v>
       </c>
       <c r="B45" t="str">
-        <f>VLOOKUP(A45,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A45,Current!B$2:B$142,1,FALSE)</f>
         <v>image_patch.php</v>
       </c>
       <c r="F45" t="s">
         <v>370</v>
       </c>
       <c r="G45" t="str">
-        <f>VLOOKUP(F46,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F46,Current!B$2:B$192,1,FALSE)</f>
         <v>comment.php</v>
       </c>
     </row>
@@ -7308,14 +7462,14 @@
         <v>11</v>
       </c>
       <c r="B46" t="str">
-        <f>VLOOKUP(A46,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A46,Current!B$2:B$142,1,FALSE)</f>
         <v>image_post.php</v>
       </c>
       <c r="F46" t="s">
         <v>283</v>
       </c>
       <c r="G46" t="str">
-        <f>VLOOKUP(F47,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F47,Current!B$2:B$192,1,FALSE)</f>
         <v>comment_common.php</v>
       </c>
     </row>
@@ -7324,14 +7478,14 @@
         <v>12</v>
       </c>
       <c r="B47" t="str">
-        <f>VLOOKUP(A47,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A47,Current!B$2:B$142,1,FALSE)</f>
         <v>image_put.php</v>
       </c>
       <c r="F47" t="s">
         <v>284</v>
       </c>
       <c r="G47" t="str">
-        <f>VLOOKUP(F48,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F48,Current!B$2:B$192,1,FALSE)</f>
         <v>comment_get.php</v>
       </c>
     </row>
@@ -7340,14 +7494,14 @@
         <v>192</v>
       </c>
       <c r="B48" t="str">
-        <f>VLOOKUP(A48,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A48,Current!B$2:B$142,1,FALSE)</f>
         <v>pass.php</v>
       </c>
       <c r="F48" t="s">
         <v>285</v>
       </c>
       <c r="G48" t="str">
-        <f>VLOOKUP(F49,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F49,Current!B$2:B$192,1,FALSE)</f>
         <v>comment_post.php</v>
       </c>
     </row>
@@ -7356,14 +7510,14 @@
         <v>13</v>
       </c>
       <c r="B49" t="str">
-        <f>VLOOKUP(A49,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A49,Current!B$2:B$142,1,FALSE)</f>
         <v>patient.php</v>
       </c>
       <c r="F49" t="s">
         <v>286</v>
       </c>
       <c r="G49" t="str">
-        <f>VLOOKUP(F50,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F50,Current!B$2:B$192,1,FALSE)</f>
         <v>icd.php</v>
       </c>
     </row>
@@ -7372,14 +7526,14 @@
         <v>14</v>
       </c>
       <c r="B50" t="str">
-        <f>VLOOKUP(A50,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A50,Current!B$2:B$142,1,FALSE)</f>
         <v>patient_common.php</v>
       </c>
       <c r="F50" t="s">
         <v>316</v>
       </c>
       <c r="G50" t="str">
-        <f>VLOOKUP(F51,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F51,Current!B$2:B$192,1,FALSE)</f>
         <v>icd_common.php</v>
       </c>
     </row>
@@ -7388,14 +7542,14 @@
         <v>15</v>
       </c>
       <c r="B51" t="str">
-        <f>VLOOKUP(A51,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A51,Current!B$2:B$142,1,FALSE)</f>
         <v>patient_delete.php</v>
       </c>
       <c r="F51" t="s">
         <v>317</v>
       </c>
       <c r="G51" t="str">
-        <f>VLOOKUP(F52,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F52,Current!B$2:B$192,1,FALSE)</f>
         <v>icd_get.php</v>
       </c>
     </row>
@@ -7404,14 +7558,14 @@
         <v>16</v>
       </c>
       <c r="B52" t="str">
-        <f>VLOOKUP(A52,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A52,Current!B$2:B$142,1,FALSE)</f>
         <v>patient_get.php</v>
       </c>
       <c r="F52" t="s">
         <v>318</v>
       </c>
       <c r="G52" t="str">
-        <f>VLOOKUP(F53,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F53,Current!B$2:B$192,1,FALSE)</f>
         <v>icd_patch.php</v>
       </c>
     </row>
@@ -7420,14 +7574,14 @@
         <v>17</v>
       </c>
       <c r="B53" t="str">
-        <f>VLOOKUP(A53,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A53,Current!B$2:B$142,1,FALSE)</f>
         <v>patient_patch.php</v>
       </c>
       <c r="F53" t="s">
         <v>319</v>
       </c>
       <c r="G53" t="str">
-        <f>VLOOKUP(F54,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F54,Current!B$2:B$192,1,FALSE)</f>
         <v>locImage.php</v>
       </c>
     </row>
@@ -7436,14 +7590,14 @@
         <v>18</v>
       </c>
       <c r="B54" t="str">
-        <f>VLOOKUP(A54,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A54,Current!B$2:B$142,1,FALSE)</f>
         <v>patient_post.php</v>
       </c>
       <c r="F54" t="s">
         <v>416</v>
       </c>
       <c r="G54" t="str">
-        <f>VLOOKUP(F55,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F55,Current!B$2:B$192,1,FALSE)</f>
         <v>locImage_get.php</v>
       </c>
     </row>
@@ -7452,14 +7606,14 @@
         <v>19</v>
       </c>
       <c r="B55" t="str">
-        <f>VLOOKUP(A55,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A55,Current!B$2:B$142,1,FALSE)</f>
         <v>phpinfo.php</v>
       </c>
       <c r="F55" t="s">
         <v>417</v>
       </c>
       <c r="G55" t="str">
-        <f>VLOOKUP(F56,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F56,Current!B$2:B$192,1,FALSE)</f>
         <v>log.php</v>
       </c>
     </row>
@@ -7468,14 +7622,14 @@
         <v>268</v>
       </c>
       <c r="B56" t="str">
-        <f>VLOOKUP(A56,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A56,Current!B$2:B$142,1,FALSE)</f>
         <v>profile.php</v>
       </c>
       <c r="F56" t="s">
         <v>371</v>
       </c>
       <c r="G56" t="str">
-        <f>VLOOKUP(F57,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F57,Current!B$2:B$192,1,FALSE)</f>
         <v>log_common.php</v>
       </c>
     </row>
@@ -7484,14 +7638,14 @@
         <v>69</v>
       </c>
       <c r="B57" t="str">
-        <f>VLOOKUP(A57,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A57,Current!B$2:B$142,1,FALSE)</f>
         <v>ptAddEdit.php</v>
       </c>
       <c r="F57" t="s">
         <v>372</v>
       </c>
       <c r="G57" t="str">
-        <f>VLOOKUP(F58,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F58,Current!B$2:B$192,1,FALSE)</f>
         <v>log_get.php</v>
       </c>
     </row>
@@ -7500,14 +7654,14 @@
         <v>70</v>
       </c>
       <c r="B58" t="str">
-        <f>VLOOKUP(A58,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A58,Current!B$2:B$142,1,FALSE)</f>
         <v>ptAddEditText.php</v>
       </c>
       <c r="F58" t="s">
         <v>373</v>
       </c>
       <c r="G58" t="str">
-        <f>VLOOKUP(F59,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F59,Current!B$2:B$192,1,FALSE)</f>
         <v>log_post.php</v>
       </c>
     </row>
@@ -7516,14 +7670,14 @@
         <v>121</v>
       </c>
       <c r="B59" t="str">
-        <f>VLOOKUP(A59,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A59,Current!B$2:B$142,1,FALSE)</f>
         <v>ptImageDeleteConfirm.php</v>
       </c>
       <c r="F59" t="s">
         <v>374</v>
       </c>
       <c r="G59" t="str">
-        <f>VLOOKUP(F60,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F60,Current!B$2:B$192,1,FALSE)</f>
         <v>patient.php</v>
       </c>
     </row>
@@ -7532,14 +7686,14 @@
         <v>88</v>
       </c>
       <c r="B60" t="str">
-        <f>VLOOKUP(A60,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A60,Current!B$2:B$142,1,FALSE)</f>
         <v>ptImageEdit.php</v>
       </c>
       <c r="F60" t="s">
         <v>13</v>
       </c>
       <c r="G60" t="str">
-        <f>VLOOKUP(F61,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F61,Current!B$2:B$192,1,FALSE)</f>
         <v>patient_common.php</v>
       </c>
     </row>
@@ -7548,14 +7702,14 @@
         <v>71</v>
       </c>
       <c r="B61" t="str">
-        <f>VLOOKUP(A61,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A61,Current!B$2:B$142,1,FALSE)</f>
         <v>ptImageEditText.php</v>
       </c>
       <c r="F61" t="s">
         <v>14</v>
       </c>
       <c r="G61" t="str">
-        <f>VLOOKUP(F62,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F62,Current!B$2:B$192,1,FALSE)</f>
         <v>patient_delete.php</v>
       </c>
     </row>
@@ -7564,14 +7718,14 @@
         <v>89</v>
       </c>
       <c r="B62" t="str">
-        <f>VLOOKUP(A62,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A62,Current!B$2:B$142,1,FALSE)</f>
         <v>ptInfo.php</v>
       </c>
       <c r="F62" t="s">
         <v>15</v>
       </c>
       <c r="G62" t="str">
-        <f>VLOOKUP(F63,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F63,Current!B$2:B$192,1,FALSE)</f>
         <v>patient_get.php</v>
       </c>
     </row>
@@ -7580,14 +7734,14 @@
         <v>72</v>
       </c>
       <c r="B63" t="str">
-        <f>VLOOKUP(A63,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A63,Current!B$2:B$142,1,FALSE)</f>
         <v>ptInfoText.php</v>
       </c>
       <c r="F63" t="s">
         <v>16</v>
       </c>
       <c r="G63" t="str">
-        <f>VLOOKUP(F64,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F64,Current!B$2:B$192,1,FALSE)</f>
         <v>patient_patch.php</v>
       </c>
     </row>
@@ -7596,14 +7750,14 @@
         <v>90</v>
       </c>
       <c r="B64" t="str">
-        <f>VLOOKUP(A64,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A64,Current!B$2:B$142,1,FALSE)</f>
         <v>ptResults.php</v>
       </c>
       <c r="F64" t="s">
         <v>17</v>
       </c>
       <c r="G64" t="str">
-        <f>VLOOKUP(F65,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F65,Current!B$2:B$192,1,FALSE)</f>
         <v>patient_post.php</v>
       </c>
     </row>
@@ -7612,14 +7766,14 @@
         <v>73</v>
       </c>
       <c r="B65" t="str">
-        <f>VLOOKUP(A65,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A65,Current!B$2:B$142,1,FALSE)</f>
         <v>ptResultsText.php</v>
       </c>
       <c r="F65" t="s">
         <v>18</v>
       </c>
       <c r="G65" t="str">
-        <f>VLOOKUP(F66,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F66,Current!B$2:B$192,1,FALSE)</f>
         <v>session.php</v>
       </c>
     </row>
@@ -7628,14 +7782,14 @@
         <v>91</v>
       </c>
       <c r="B66" t="str">
-        <f>VLOOKUP(A66,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A66,Current!B$2:B$142,1,FALSE)</f>
         <v>ptSearch.php</v>
       </c>
       <c r="F66" t="s">
         <v>194</v>
       </c>
       <c r="G66" t="str">
-        <f>VLOOKUP(F67,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F67,Current!B$2:B$192,1,FALSE)</f>
         <v>session_common.php</v>
       </c>
     </row>
@@ -7644,14 +7798,14 @@
         <v>74</v>
       </c>
       <c r="B67" t="str">
-        <f>VLOOKUP(A67,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A67,Current!B$2:B$142,1,FALSE)</f>
         <v>ptSearchText.php</v>
       </c>
       <c r="F67" t="s">
         <v>195</v>
       </c>
       <c r="G67" t="str">
-        <f>VLOOKUP(F68,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F68,Current!B$2:B$192,1,FALSE)</f>
         <v>session_delete.php</v>
       </c>
     </row>
@@ -7660,14 +7814,14 @@
         <v>122</v>
       </c>
       <c r="B68" t="str">
-        <f>VLOOKUP(A68,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A68,Current!B$2:B$142,1,FALSE)</f>
         <v>ptVisitImageView.php</v>
       </c>
       <c r="F68" t="s">
         <v>196</v>
       </c>
       <c r="G68" t="str">
-        <f>VLOOKUP(F69,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F69,Current!B$2:B$192,1,FALSE)</f>
         <v>session_get.php</v>
       </c>
     </row>
@@ -7676,14 +7830,14 @@
         <v>110</v>
       </c>
       <c r="B69" t="str">
-        <f>VLOOKUP(A69,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A69,Current!B$2:B$142,1,FALSE)</f>
         <v>rptDailyLog.php</v>
       </c>
       <c r="F69" t="s">
         <v>197</v>
       </c>
       <c r="G69" t="str">
-        <f>VLOOKUP(F70,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F70,Current!B$2:B$192,1,FALSE)</f>
         <v>session_patch.php</v>
       </c>
     </row>
@@ -7692,14 +7846,14 @@
         <v>112</v>
       </c>
       <c r="B70" t="str">
-        <f>VLOOKUP(A70,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A70,Current!B$2:B$142,1,FALSE)</f>
         <v>rptDailyLogText.php</v>
       </c>
       <c r="F70" t="s">
         <v>418</v>
       </c>
       <c r="G70" t="str">
-        <f>VLOOKUP(F71,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F71,Current!B$2:B$192,1,FALSE)</f>
         <v>session_post.php</v>
       </c>
     </row>
@@ -7708,14 +7862,14 @@
         <v>344</v>
       </c>
       <c r="B71" t="str">
-        <f>VLOOKUP(A71,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A71,Current!B$2:B$142,1,FALSE)</f>
         <v>rptDailyPmt.php</v>
       </c>
       <c r="F71" t="s">
         <v>198</v>
       </c>
       <c r="G71" t="str">
-        <f>VLOOKUP(F72,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F72,Current!B$2:B$192,1,FALSE)</f>
         <v>staff.php</v>
       </c>
     </row>
@@ -7724,14 +7878,14 @@
         <v>345</v>
       </c>
       <c r="B72" t="str">
-        <f>VLOOKUP(A72,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A72,Current!B$2:B$142,1,FALSE)</f>
         <v>rptDailyPmtText.php</v>
       </c>
       <c r="F72" t="s">
         <v>248</v>
       </c>
       <c r="G72" t="str">
-        <f>VLOOKUP(F73,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F73,Current!B$2:B$192,1,FALSE)</f>
         <v>staff_common.php</v>
       </c>
     </row>
@@ -7740,14 +7894,14 @@
         <v>114</v>
       </c>
       <c r="B73" t="e">
-        <f>VLOOKUP(A73,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A73,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F73" t="s">
         <v>251</v>
       </c>
       <c r="G73" t="str">
-        <f>VLOOKUP(F74,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F74,Current!B$2:B$192,1,FALSE)</f>
         <v>staff_delete.php</v>
       </c>
     </row>
@@ -7756,14 +7910,14 @@
         <v>115</v>
       </c>
       <c r="B74" t="e">
-        <f>VLOOKUP(A74,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A74,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F74" t="s">
         <v>419</v>
       </c>
       <c r="G74" t="str">
-        <f>VLOOKUP(F75,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F75,Current!B$2:B$192,1,FALSE)</f>
         <v>staff_get.php</v>
       </c>
     </row>
@@ -7772,14 +7926,14 @@
         <v>346</v>
       </c>
       <c r="B75" t="str">
-        <f>VLOOKUP(A75,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A75,Current!B$2:B$142,1,FALSE)</f>
         <v>rptMonthlyPmt.php</v>
       </c>
       <c r="F75" t="s">
         <v>252</v>
       </c>
       <c r="G75" t="str">
-        <f>VLOOKUP(F76,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F76,Current!B$2:B$192,1,FALSE)</f>
         <v>staff_patch.php</v>
       </c>
     </row>
@@ -7788,14 +7942,14 @@
         <v>305</v>
       </c>
       <c r="B76" t="e">
-        <f>VLOOKUP(A76,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A76,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F76" t="s">
         <v>253</v>
       </c>
       <c r="G76" t="str">
-        <f>VLOOKUP(F77,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F77,Current!B$2:B$192,1,FALSE)</f>
         <v>staff_post.php</v>
       </c>
     </row>
@@ -7804,14 +7958,14 @@
         <v>340</v>
       </c>
       <c r="B77" t="e">
-        <f>VLOOKUP(A77,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A77,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F77" t="s">
         <v>254</v>
       </c>
       <c r="G77" t="str">
-        <f>VLOOKUP(F78,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F78,Current!B$2:B$192,1,FALSE)</f>
         <v>textmsg.php</v>
       </c>
     </row>
@@ -7820,14 +7974,14 @@
         <v>306</v>
       </c>
       <c r="B78" t="str">
-        <f>VLOOKUP(A78,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A78,Current!B$2:B$142,1,FALSE)</f>
         <v>rptMonthlySummaryText.php</v>
       </c>
       <c r="F78" t="s">
         <v>375</v>
       </c>
       <c r="G78" t="str">
-        <f>VLOOKUP(F79,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F79,Current!B$2:B$192,1,FALSE)</f>
         <v>textmsg_common.php</v>
       </c>
     </row>
@@ -7836,14 +7990,14 @@
         <v>193</v>
       </c>
       <c r="B79" t="str">
-        <f>VLOOKUP(A79,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A79,Current!B$2:B$142,1,FALSE)</f>
         <v>security.php</v>
       </c>
       <c r="F79" t="s">
         <v>376</v>
       </c>
       <c r="G79" t="str">
-        <f>VLOOKUP(F80,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F80,Current!B$2:B$192,1,FALSE)</f>
         <v>textmsg_delete.php</v>
       </c>
     </row>
@@ -7852,14 +8006,14 @@
         <v>232</v>
       </c>
       <c r="B80" t="str">
-        <f>VLOOKUP(A80,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A80,Current!B$2:B$142,1,FALSE)</f>
         <v>securityText.php</v>
       </c>
       <c r="F80" t="s">
         <v>420</v>
       </c>
       <c r="G80" t="str">
-        <f>VLOOKUP(F81,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F81,Current!B$2:B$192,1,FALSE)</f>
         <v>textmsg_get.php</v>
       </c>
     </row>
@@ -7868,14 +8022,14 @@
         <v>194</v>
       </c>
       <c r="B81" t="str">
-        <f>VLOOKUP(A81,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A81,Current!B$2:B$142,1,FALSE)</f>
         <v>session.php</v>
       </c>
       <c r="F81" t="s">
         <v>377</v>
       </c>
       <c r="G81" t="str">
-        <f>VLOOKUP(F82,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F82,Current!B$2:B$192,1,FALSE)</f>
         <v>textmsg_patch.php</v>
       </c>
     </row>
@@ -7884,14 +8038,14 @@
         <v>195</v>
       </c>
       <c r="B82" t="str">
-        <f>VLOOKUP(A82,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A82,Current!B$2:B$142,1,FALSE)</f>
         <v>session_common.php</v>
       </c>
       <c r="F82" t="s">
         <v>421</v>
       </c>
       <c r="G82" t="str">
-        <f>VLOOKUP(F83,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F83,Current!B$2:B$192,1,FALSE)</f>
         <v>textmsg_post.php</v>
       </c>
     </row>
@@ -7900,14 +8054,14 @@
         <v>196</v>
       </c>
       <c r="B83" t="str">
-        <f>VLOOKUP(A83,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A83,Current!B$2:B$142,1,FALSE)</f>
         <v>session_delete.php</v>
       </c>
       <c r="F83" t="s">
         <v>378</v>
       </c>
       <c r="G83" t="str">
-        <f>VLOOKUP(F84,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F84,Current!B$2:B$192,1,FALSE)</f>
         <v>visit.php</v>
       </c>
     </row>
@@ -7916,14 +8070,14 @@
         <v>197</v>
       </c>
       <c r="B84" t="str">
-        <f>VLOOKUP(A84,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A84,Current!B$2:B$142,1,FALSE)</f>
         <v>session_get.php</v>
       </c>
       <c r="F84" t="s">
         <v>21</v>
       </c>
       <c r="G84" t="str">
-        <f>VLOOKUP(F85,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F85,Current!B$2:B$192,1,FALSE)</f>
         <v>visit_common.php</v>
       </c>
     </row>
@@ -7932,14 +8086,14 @@
         <v>198</v>
       </c>
       <c r="B85" t="str">
-        <f>VLOOKUP(A85,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A85,Current!B$2:B$142,1,FALSE)</f>
         <v>session_post.php</v>
       </c>
       <c r="F85" t="s">
         <v>22</v>
       </c>
       <c r="G85" t="str">
-        <f>VLOOKUP(F86,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F86,Current!B$2:B$192,1,FALSE)</f>
         <v>visit_get.php</v>
       </c>
     </row>
@@ -7948,14 +8102,14 @@
         <v>248</v>
       </c>
       <c r="B86" t="str">
-        <f>VLOOKUP(A86,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A86,Current!B$2:B$142,1,FALSE)</f>
         <v>staff.php</v>
       </c>
       <c r="F86" t="s">
         <v>23</v>
       </c>
       <c r="G86" t="str">
-        <f>VLOOKUP(F87,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F87,Current!B$2:B$192,1,FALSE)</f>
         <v>visit_patch.php</v>
       </c>
     </row>
@@ -7964,14 +8118,14 @@
         <v>249</v>
       </c>
       <c r="B87" t="str">
-        <f>VLOOKUP(A87,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A87,Current!B$2:B$142,1,FALSE)</f>
         <v>staffAddEdit.php</v>
       </c>
       <c r="F87" t="s">
         <v>24</v>
       </c>
       <c r="G87" t="str">
-        <f>VLOOKUP(F88,Current!B$2:B$193,1,FALSE)</f>
+        <f>VLOOKUP(F88,Current!B$2:B$192,1,FALSE)</f>
         <v>visit_post.php</v>
       </c>
     </row>
@@ -7980,7 +8134,7 @@
         <v>250</v>
       </c>
       <c r="B88" t="str">
-        <f>VLOOKUP(A88,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A88,Current!B$2:B$142,1,FALSE)</f>
         <v>staffAddEditText.php</v>
       </c>
       <c r="F88" t="s">
@@ -7992,7 +8146,7 @@
         <v>320</v>
       </c>
       <c r="B89" t="str">
-        <f>VLOOKUP(A89,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A89,Current!B$2:B$142,1,FALSE)</f>
         <v>staffUiStrings.php</v>
       </c>
     </row>
@@ -8001,7 +8155,7 @@
         <v>331</v>
       </c>
       <c r="B90" t="str">
-        <f>VLOOKUP(A90,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A90,Current!B$2:B$142,1,FALSE)</f>
         <v>staffUiStringText.php</v>
       </c>
     </row>
@@ -8010,7 +8164,7 @@
         <v>251</v>
       </c>
       <c r="B91" t="str">
-        <f>VLOOKUP(A91,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A91,Current!B$2:B$142,1,FALSE)</f>
         <v>staff_common.php</v>
       </c>
     </row>
@@ -8019,7 +8173,7 @@
         <v>252</v>
       </c>
       <c r="B92" t="str">
-        <f>VLOOKUP(A92,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A92,Current!B$2:B$142,1,FALSE)</f>
         <v>staff_get.php</v>
       </c>
     </row>
@@ -8028,7 +8182,7 @@
         <v>253</v>
       </c>
       <c r="B93" t="str">
-        <f>VLOOKUP(A93,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A93,Current!B$2:B$142,1,FALSE)</f>
         <v>staff_patch.php</v>
       </c>
     </row>
@@ -8037,7 +8191,7 @@
         <v>254</v>
       </c>
       <c r="B94" t="str">
-        <f>VLOOKUP(A94,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A94,Current!B$2:B$142,1,FALSE)</f>
         <v>staff_post.php</v>
       </c>
     </row>
@@ -8046,7 +8200,7 @@
         <v>199</v>
       </c>
       <c r="B95" t="str">
-        <f>VLOOKUP(A95,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A95,Current!B$2:B$142,1,FALSE)</f>
         <v>startUiSession.php</v>
       </c>
     </row>
@@ -8055,7 +8209,7 @@
         <v>341</v>
       </c>
       <c r="B96" t="str">
-        <f>VLOOKUP(A96,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A96,Current!B$2:B$142,1,FALSE)</f>
         <v>textFileUtils.php</v>
       </c>
     </row>
@@ -8063,9 +8217,9 @@
       <c r="A97" t="s">
         <v>96</v>
       </c>
-      <c r="B97" t="str">
-        <f>VLOOKUP(A97,Current!B$2:B$143,1,FALSE)</f>
-        <v>uiErrorMessage.php</v>
+      <c r="B97" t="e">
+        <f>VLOOKUP(A97,Current!B$2:B$142,1,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8073,7 +8227,7 @@
         <v>98</v>
       </c>
       <c r="B98" t="str">
-        <f>VLOOKUP(A98,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A98,Current!B$2:B$142,1,FALSE)</f>
         <v>uiErrorMessageText.php</v>
       </c>
     </row>
@@ -8081,9 +8235,9 @@
       <c r="A99" t="s">
         <v>233</v>
       </c>
-      <c r="B99" t="str">
-        <f>VLOOKUP(A99,Current!B$2:B$143,1,FALSE)</f>
-        <v>uiSessionInfo.php</v>
+      <c r="B99" t="e">
+        <f>VLOOKUP(A99,Current!B$2:B$142,1,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -8091,7 +8245,7 @@
         <v>108</v>
       </c>
       <c r="B100" t="str">
-        <f>VLOOKUP(A100,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A100,Current!B$2:B$142,1,FALSE)</f>
         <v>ui_common.php</v>
       </c>
     </row>
@@ -8100,7 +8254,7 @@
         <v>20</v>
       </c>
       <c r="B101" t="str">
-        <f>VLOOKUP(A101,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A101,Current!B$2:B$142,1,FALSE)</f>
         <v>updatePatientVisit.php</v>
       </c>
     </row>
@@ -8109,7 +8263,7 @@
         <v>289</v>
       </c>
       <c r="B102" t="e">
-        <f>VLOOKUP(A102,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A102,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8118,7 +8272,7 @@
         <v>290</v>
       </c>
       <c r="B103" t="str">
-        <f>VLOOKUP(A103,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A103,Current!B$2:B$142,1,FALSE)</f>
         <v>userCommentText.php</v>
       </c>
     </row>
@@ -8127,7 +8281,7 @@
         <v>21</v>
       </c>
       <c r="B104" t="str">
-        <f>VLOOKUP(A104,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A104,Current!B$2:B$142,1,FALSE)</f>
         <v>visit.php</v>
       </c>
     </row>
@@ -8136,7 +8290,7 @@
         <v>92</v>
       </c>
       <c r="B105" t="e">
-        <f>VLOOKUP(A105,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A105,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8145,7 +8299,7 @@
         <v>75</v>
       </c>
       <c r="B106" t="e">
-        <f>VLOOKUP(A106,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A106,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8154,7 +8308,7 @@
         <v>93</v>
       </c>
       <c r="B107" t="e">
-        <f>VLOOKUP(A107,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A107,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8163,7 +8317,7 @@
         <v>76</v>
       </c>
       <c r="B108" t="e">
-        <f>VLOOKUP(A108,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A108,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8172,7 +8326,7 @@
         <v>94</v>
       </c>
       <c r="B109" t="e">
-        <f>VLOOKUP(A109,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A109,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8181,7 +8335,7 @@
         <v>77</v>
       </c>
       <c r="B110" t="e">
-        <f>VLOOKUP(A110,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A110,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8190,7 +8344,7 @@
         <v>95</v>
       </c>
       <c r="B111" t="e">
-        <f>VLOOKUP(A111,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A111,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8199,7 +8353,7 @@
         <v>78</v>
       </c>
       <c r="B112" t="e">
-        <f>VLOOKUP(A112,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A112,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8208,7 +8362,7 @@
         <v>332</v>
       </c>
       <c r="B113" t="e">
-        <f>VLOOKUP(A113,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A113,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8217,7 +8371,7 @@
         <v>333</v>
       </c>
       <c r="B114" t="e">
-        <f>VLOOKUP(A114,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A114,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8226,7 +8380,7 @@
         <v>22</v>
       </c>
       <c r="B115" t="str">
-        <f>VLOOKUP(A115,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A115,Current!B$2:B$142,1,FALSE)</f>
         <v>visit_common.php</v>
       </c>
     </row>
@@ -8235,7 +8389,7 @@
         <v>23</v>
       </c>
       <c r="B116" t="e">
-        <f>VLOOKUP(A116,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A116,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8244,7 +8398,7 @@
         <v>24</v>
       </c>
       <c r="B117" t="e">
-        <f>VLOOKUP(A117,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A117,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -8253,49 +8407,49 @@
         <v>25</v>
       </c>
       <c r="B118" t="e">
-        <f>VLOOKUP(A118,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A118,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" t="e">
-        <f>VLOOKUP(A119,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A119,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" t="e">
-        <f>VLOOKUP(A120,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A120,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" t="e">
-        <f>VLOOKUP(A121,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A121,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" t="e">
-        <f>VLOOKUP(A122,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A122,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" t="e">
-        <f>VLOOKUP(A123,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A123,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" t="e">
-        <f>VLOOKUP(A124,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A124,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" t="e">
-        <f>VLOOKUP(A125,Current!B$2:B$143,1,FALSE)</f>
+        <f>VLOOKUP(A125,Current!B$2:B$142,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
